--- a/TestRuns/FunctionalTestRunsFitness.xlsx
+++ b/TestRuns/FunctionalTestRunsFitness.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="495" windowWidth="14355" windowHeight="8250" tabRatio="918" activeTab="1"/>
+    <workbookView xWindow="2475" yWindow="495" windowWidth="14355" windowHeight="8250" tabRatio="918"/>
   </bookViews>
   <sheets>
     <sheet name="Fitness Evaluator" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="937">
   <si>
     <t>1108.1501149878043   ((6*(((6/9)/(9-4))/0))-((2/((3*3)-1))+(1*(2+x))))</t>
   </si>
@@ -2822,6 +2822,18 @@
   </si>
   <si>
     <t>calc'd</t>
+  </si>
+  <si>
+    <t>((9/7)-(5*x))</t>
+  </si>
+  <si>
+    <t>Test run with Li</t>
+  </si>
+  <si>
+    <t>12-13 8pm</t>
+  </si>
+  <si>
+    <t>9+1</t>
   </si>
 </sst>
 </file>
@@ -2978,7 +2990,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3019,6 +3031,9 @@
     <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -3322,50 +3337,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.85546875" customWidth="1"/>
-    <col min="14" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="0.85546875" customWidth="1"/>
-    <col min="17" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="0.85546875" customWidth="1"/>
-    <col min="20" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="0.85546875" customWidth="1"/>
-    <col min="23" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="0.85546875" customWidth="1"/>
-    <col min="26" max="27" width="15" customWidth="1"/>
+    <col min="3" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="0.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="0.85546875" customWidth="1"/>
+    <col min="18" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="0.85546875" customWidth="1"/>
+    <col min="21" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="0.85546875" customWidth="1"/>
+    <col min="24" max="25" width="15" customWidth="1"/>
+    <col min="26" max="26" width="0.85546875" customWidth="1"/>
+    <col min="27" max="28" width="15" customWidth="1"/>
+    <col min="29" max="29" width="0.85546875" customWidth="1"/>
+    <col min="30" max="31" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" t="s">
+      <c r="E1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G1" t="s">
+        <v>935</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" t="s">
         <v>929</v>
       </c>
-      <c r="Y1" s="19"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC1" s="19"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="C2" t="s">
         <v>931</v>
@@ -3373,18 +3394,30 @@
       <c r="D2" t="s">
         <v>932</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" t="s">
+      <c r="E2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" t="s">
         <v>930</v>
       </c>
-      <c r="Y2" s="19"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC2" s="19"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>582</v>
       </c>
@@ -3394,61 +3427,73 @@
       <c r="D3" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="F3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="H3" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="12" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="12" t="s">
+      <c r="N3" s="20"/>
+      <c r="O3" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" t="s">
+      <c r="Q3" s="20"/>
+      <c r="R3" t="s">
         <v>764</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" t="s">
+      <c r="T3" s="20"/>
+      <c r="U3" t="s">
         <v>256</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="17" t="s">
+      <c r="W3" s="20"/>
+      <c r="X3" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="V3" s="20"/>
-      <c r="W3" s="25" t="s">
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="13" t="s">
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="13" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" s="15">
         <v>1</v>
       </c>
@@ -3460,76 +3505,92 @@
         <f>(-3*(B4*B4)-7 )/2</f>
         <v>-5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="15">
+        <f>((9/7)-(5*B4))</f>
+        <v>-3.7142857142857144</v>
+      </c>
+      <c r="F4" s="9">
+        <f>ABS($C4-E4)</f>
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="G4" s="15">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <f>ABS($C4-G4)</f>
+        <v>15</v>
+      </c>
+      <c r="I4" s="8">
         <f>(2*(1-(9-((6-((((9/4)-$B4)*2)+4))-8))))</f>
         <v>-33</v>
       </c>
-      <c r="F4" s="9">
-        <f>ABS($C4-E4)</f>
+      <c r="J4" s="9">
+        <f>ABS($C4-I4)</f>
         <v>28</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8">
+      <c r="K4" s="7"/>
+      <c r="L4" s="8">
         <f>(6-7)</f>
         <v>-1</v>
       </c>
-      <c r="I4" s="10">
-        <f>ABS($C4-H4)</f>
+      <c r="M4" s="10">
+        <f>ABS($C4-L4)</f>
         <v>4</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="8">
+      <c r="N4" s="21"/>
+      <c r="O4" s="8">
         <f>(4*$B4)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="9">
-        <f>ABS($C4-K4)</f>
+      <c r="P4" s="9">
+        <f>ABS($C4-O4)</f>
         <v>9</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8">
         <f>1*0*5</f>
         <v>0</v>
       </c>
-      <c r="O4" s="9">
-        <f>ABS($C4-N4)</f>
+      <c r="S4" s="9">
+        <f>ABS($C4-R4)</f>
         <v>5</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8">
+      <c r="T4" s="7"/>
+      <c r="U4" s="8">
         <f>($B4-((7+$B4)/9))</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="R4" s="9">
-        <f>ABS($C4-Q4)</f>
+      <c r="V4" s="9">
+        <f>ABS($C4-U4)</f>
         <v>5.1111111111111107</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8">
-        <f t="shared" ref="T4:T49" si="0">(((2+1)*(9*(((((B4-((9-3)/4))*0)*((((4-2)+5)/1)*B4))-(4*7))/((((2/2)-(1/3))+7)-(7/((4+((6-0)*(B4/B4)))*8))))))/5)</f>
+      <c r="W4" s="7"/>
+      <c r="X4" s="8">
+        <f t="shared" ref="X4:X49" si="0">(((2+1)*(9*(((((B4-((9-3)/4))*0)*((((4-2)+5)/1)*B4))-(4*7))/((((2/2)-(1/3))+7)-(7/((4+((6-0)*(B4/B4)))*8))))))/5)</f>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U4" s="9">
-        <f>ABS($C4-T4)</f>
+      <c r="Y4" s="9">
+        <f>ABS($C4-X4)</f>
         <v>14.949422759758107</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="8">
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="8">
         <f>(($B4-6)+($B4+5))</f>
         <v>1</v>
       </c>
-      <c r="X4" s="9">
-        <f>ABS($C4-W4)</f>
+      <c r="AB4" s="9">
+        <f>ABS($C4-AA4)</f>
         <v>6</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="9">
-        <f>ABS($C4-Z4)</f>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="9">
+        <f>ABS($C4-AD4)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>-885.65228158949697</v>
       </c>
@@ -3540,76 +3601,92 @@
         <f t="shared" ref="D5:D49" si="1">(-3*(B5*B5)-7 )/2</f>
         <v>-1176573.4458270224</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E5:E49" si="2">(2*(1-(9-((6-((((9/4)-$B5)*2)+4))-8))))</f>
+      <c r="E5" s="15">
+        <f t="shared" ref="E5:E49" si="2">((9/7)-(5*B5))</f>
+        <v>4429.5471222331998</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:H49" si="3">ABS($C5-E5)</f>
+        <v>1180995.9929492534</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" ref="G5:G49" si="4">9+1</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H49" si="5">ABS($C5-G5)</f>
+        <v>1176576.4458270201</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:I49" si="6">(2*(1-(9-((6-((((9/4)-$B5)*2)+4))-8))))</f>
         <v>-3579.6091263579879</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" ref="F5:F49" si="3">ABS($C5-E5)</f>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:J49" si="7">ABS($C5-I5)</f>
         <v>1172986.836700662</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8">
-        <f t="shared" ref="H5:H49" si="4">(6-7)</f>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8">
+        <f t="shared" ref="L5:L49" si="8">(6-7)</f>
         <v>-1</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" ref="I5:I49" si="5">ABS($C5-H5)</f>
+      <c r="M5" s="10">
+        <f t="shared" ref="M5:M49" si="9">ABS($C5-L5)</f>
         <v>1176565.4458270201</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="8">
-        <f t="shared" ref="K5:K49" si="6">(4*$B5)</f>
+      <c r="N5" s="21"/>
+      <c r="O5" s="8">
+        <f t="shared" ref="O5:O49" si="10">(4*$B5)</f>
         <v>-3542.6091263579879</v>
       </c>
-      <c r="L5" s="9">
-        <f t="shared" ref="L5:O49" si="7">ABS($C5-K5)</f>
+      <c r="P5" s="9">
+        <f t="shared" ref="P5:S49" si="11">ABS($C5-O5)</f>
         <v>1173023.836700662</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8">
-        <f t="shared" ref="N5:N49" si="8">1*0*5</f>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8">
+        <f t="shared" ref="R5:R49" si="12">1*0*5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="9">
-        <f t="shared" si="7"/>
+      <c r="S5" s="9">
+        <f t="shared" si="11"/>
         <v>1176566.4458270201</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8">
-        <f t="shared" ref="Q5:Q49" si="9">($B5-((7+$B5)/9))</f>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8">
+        <f t="shared" ref="U5:U49" si="13">($B5-((7+$B5)/9))</f>
         <v>-788.02425030177506</v>
       </c>
-      <c r="R5" s="9">
-        <f t="shared" ref="R5" si="10">ABS($C5-Q5)</f>
+      <c r="V5" s="9">
+        <f t="shared" ref="V5" si="14">ABS($C5-U5)</f>
         <v>1175778.4215767183</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="8">
+      <c r="W5" s="7"/>
+      <c r="X5" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U5" s="9">
-        <f t="shared" ref="U5" si="11">ABS($C5-T5)</f>
+      <c r="Y5" s="9">
+        <f t="shared" ref="Y5" si="15">ABS($C5-X5)</f>
         <v>1176546.4964042604</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="8">
-        <f t="shared" ref="W5:W49" si="12">(($B5-6)+($B5+5))</f>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="8">
+        <f t="shared" ref="AA5:AA49" si="16">(($B5-6)+($B5+5))</f>
         <v>-1772.3045631789939</v>
       </c>
-      <c r="X5" s="9">
-        <f t="shared" ref="X5" si="13">ABS($C5-W5)</f>
+      <c r="AB5" s="9">
+        <f t="shared" ref="AB5" si="17">ABS($C5-AA5)</f>
         <v>1174794.1412638412</v>
       </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="9">
-        <f t="shared" ref="AA5" si="14">ABS($C5-Z5)</f>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="9">
+        <f t="shared" ref="AE5" si="18">ABS($C5-AD5)</f>
         <v>1176566.4458270201</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>-801.47483870644203</v>
       </c>
@@ -3620,76 +3697,92 @@
         <f t="shared" si="1"/>
         <v>-963546.37561927596</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="15">
         <f t="shared" si="2"/>
-        <v>-3242.8993548257681</v>
+        <v>4008.6599078179242</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="3"/>
+        <v>967548.03552709392</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="5"/>
+        <v>963549.37561927596</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="6"/>
+        <v>-3242.8993548257681</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="7"/>
         <v>960296.47626445023</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8">
-        <f t="shared" si="4"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" si="5"/>
+      <c r="M6" s="10">
+        <f t="shared" si="9"/>
         <v>963538.37561927596</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="8">
-        <f t="shared" si="6"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="8">
+        <f t="shared" si="10"/>
         <v>-3205.8993548257681</v>
       </c>
-      <c r="L6" s="9">
-        <f t="shared" si="7"/>
+      <c r="P6" s="9">
+        <f t="shared" si="11"/>
         <v>960333.47626445023</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O6" s="9">
-        <f t="shared" si="7"/>
+      <c r="S6" s="9">
+        <f t="shared" si="11"/>
         <v>963539.37561927596</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8">
-        <f t="shared" si="9"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8">
+        <f t="shared" si="13"/>
         <v>-713.19985662794852</v>
       </c>
-      <c r="R6" s="9">
-        <f t="shared" ref="R6" si="15">ABS($C6-Q6)</f>
+      <c r="V6" s="9">
+        <f t="shared" ref="V6" si="19">ABS($C6-U6)</f>
         <v>962826.175762648</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="8">
+      <c r="W6" s="7"/>
+      <c r="X6" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U6" s="9">
-        <f t="shared" ref="U6" si="16">ABS($C6-T6)</f>
+      <c r="Y6" s="9">
+        <f t="shared" ref="Y6" si="20">ABS($C6-X6)</f>
         <v>963519.42619651626</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="8">
+        <f t="shared" si="16"/>
         <v>-1603.9496774128841</v>
       </c>
-      <c r="X6" s="9">
-        <f t="shared" ref="X6" si="17">ABS($C6-W6)</f>
+      <c r="AB6" s="9">
+        <f t="shared" ref="AB6" si="21">ABS($C6-AA6)</f>
         <v>961935.4259418631</v>
       </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="9">
-        <f t="shared" ref="AA6" si="18">ABS($C6-Z6)</f>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="9">
+        <f t="shared" ref="AE6" si="22">ABS($C6-AD6)</f>
         <v>963539.37561927596</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>-748.91481496262099</v>
       </c>
@@ -3700,76 +3793,92 @@
         <f t="shared" si="1"/>
         <v>-841313.60010574525</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="15">
         <f t="shared" si="2"/>
-        <v>-3032.659259850484</v>
+        <v>3745.859789098819</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="3"/>
+        <v>845052.4598948448</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="5"/>
+        <v>841316.60010574595</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="6"/>
+        <v>-3032.659259850484</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="7"/>
         <v>838273.94084589544</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8">
-        <f t="shared" si="4"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I7" s="10">
-        <f t="shared" si="5"/>
+      <c r="M7" s="10">
+        <f t="shared" si="9"/>
         <v>841305.60010574595</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="8">
-        <f t="shared" si="6"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="8">
+        <f t="shared" si="10"/>
         <v>-2995.659259850484</v>
       </c>
-      <c r="L7" s="9">
-        <f t="shared" si="7"/>
+      <c r="P7" s="9">
+        <f t="shared" si="11"/>
         <v>838310.94084589544</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O7" s="9">
-        <f t="shared" si="7"/>
+      <c r="S7" s="9">
+        <f t="shared" si="11"/>
         <v>841306.60010574595</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8">
-        <f t="shared" si="9"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="8">
+        <f t="shared" si="13"/>
         <v>-666.47983552232972</v>
       </c>
-      <c r="R7" s="9">
-        <f t="shared" ref="R7" si="19">ABS($C7-Q7)</f>
+      <c r="V7" s="9">
+        <f t="shared" ref="V7" si="23">ABS($C7-U7)</f>
         <v>840640.12027022359</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="8">
+      <c r="W7" s="7"/>
+      <c r="X7" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U7" s="9">
-        <f t="shared" ref="U7" si="20">ABS($C7-T7)</f>
+      <c r="Y7" s="9">
+        <f t="shared" ref="Y7" si="24">ABS($C7-X7)</f>
         <v>841286.65068298625</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="8">
+        <f t="shared" si="16"/>
         <v>-1498.829629925242</v>
       </c>
-      <c r="X7" s="9">
-        <f t="shared" ref="X7" si="21">ABS($C7-W7)</f>
+      <c r="AB7" s="9">
+        <f t="shared" ref="AB7" si="25">ABS($C7-AA7)</f>
         <v>839807.77047582075</v>
       </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="9">
-        <f t="shared" ref="AA7" si="22">ABS($C7-Z7)</f>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="9">
+        <f t="shared" ref="AE7" si="26">ABS($C7-AD7)</f>
         <v>841306.60010574595</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>-252.89208809902601</v>
       </c>
@@ -3780,76 +3889,92 @@
         <f t="shared" si="1"/>
         <v>-95935.112334628298</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="15">
         <f t="shared" si="2"/>
-        <v>-1048.568352396104</v>
+        <v>1265.7461547808443</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="3"/>
+        <v>97193.858489409249</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="5"/>
+        <v>95938.1123346284</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="6"/>
+        <v>-1048.568352396104</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="7"/>
         <v>94879.543982232295</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8">
-        <f t="shared" si="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I8" s="10">
-        <f t="shared" si="5"/>
+      <c r="M8" s="10">
+        <f t="shared" si="9"/>
         <v>95927.1123346284</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="8">
-        <f t="shared" si="6"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="8">
+        <f t="shared" si="10"/>
         <v>-1011.568352396104</v>
       </c>
-      <c r="L8" s="9">
-        <f t="shared" si="7"/>
+      <c r="P8" s="9">
+        <f t="shared" si="11"/>
         <v>94916.543982232295</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O8" s="9">
-        <f t="shared" si="7"/>
+      <c r="S8" s="9">
+        <f t="shared" si="11"/>
         <v>95928.1123346284</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8">
-        <f t="shared" si="9"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="8">
+        <f t="shared" si="13"/>
         <v>-225.57074497691201</v>
       </c>
-      <c r="R8" s="9">
-        <f t="shared" ref="R8" si="23">ABS($C8-Q8)</f>
+      <c r="V8" s="9">
+        <f t="shared" ref="V8" si="27">ABS($C8-U8)</f>
         <v>95702.54158965149</v>
       </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8">
+      <c r="W8" s="7"/>
+      <c r="X8" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U8" s="9">
-        <f t="shared" ref="U8" si="24">ABS($C8-T8)</f>
+      <c r="Y8" s="9">
+        <f t="shared" ref="Y8" si="28">ABS($C8-X8)</f>
         <v>95908.16291186864</v>
       </c>
-      <c r="V8" s="7"/>
-      <c r="W8" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="8">
+        <f t="shared" si="16"/>
         <v>-506.78417619805202</v>
       </c>
-      <c r="X8" s="9">
-        <f t="shared" ref="X8" si="25">ABS($C8-W8)</f>
+      <c r="AB8" s="9">
+        <f t="shared" ref="AB8" si="29">ABS($C8-AA8)</f>
         <v>95421.328158430348</v>
       </c>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="9">
-        <f t="shared" ref="AA8" si="26">ABS($C8-Z8)</f>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="9">
+        <f t="shared" ref="AE8" si="30">ABS($C8-AD8)</f>
         <v>95928.1123346284</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>-92.341224881231994</v>
       </c>
@@ -3860,76 +3985,92 @@
         <f t="shared" si="1"/>
         <v>-12793.852718849388</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="15">
         <f t="shared" si="2"/>
-        <v>-406.36489952492798</v>
+        <v>462.99183869187425</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="3"/>
+        <v>13249.844557541175</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="5"/>
+        <v>12796.852718849301</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="6"/>
+        <v>-406.36489952492798</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="7"/>
         <v>12380.487819324373</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8">
-        <f t="shared" si="4"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" si="5"/>
+      <c r="M9" s="10">
+        <f t="shared" si="9"/>
         <v>12785.852718849301</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="8">
-        <f t="shared" si="6"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="8">
+        <f t="shared" si="10"/>
         <v>-369.36489952492798</v>
       </c>
-      <c r="L9" s="9">
-        <f t="shared" si="7"/>
+      <c r="P9" s="9">
+        <f t="shared" si="11"/>
         <v>12417.487819324373</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O9" s="9">
-        <f t="shared" si="7"/>
+      <c r="S9" s="9">
+        <f t="shared" si="11"/>
         <v>12786.852718849301</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8">
-        <f t="shared" si="9"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8">
+        <f t="shared" si="13"/>
         <v>-82.858866561095113</v>
       </c>
-      <c r="R9" s="9">
-        <f t="shared" ref="R9" si="27">ABS($C9-Q9)</f>
+      <c r="V9" s="9">
+        <f t="shared" ref="V9" si="31">ABS($C9-U9)</f>
         <v>12703.993852288206</v>
       </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8">
+      <c r="W9" s="7"/>
+      <c r="X9" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U9" s="9">
-        <f t="shared" ref="U9" si="28">ABS($C9-T9)</f>
+      <c r="Y9" s="9">
+        <f t="shared" ref="Y9" si="32">ABS($C9-X9)</f>
         <v>12766.903296089542</v>
       </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="8">
+        <f t="shared" si="16"/>
         <v>-185.68244976246399</v>
       </c>
-      <c r="X9" s="9">
-        <f t="shared" ref="X9" si="29">ABS($C9-W9)</f>
+      <c r="AB9" s="9">
+        <f t="shared" ref="AB9" si="33">ABS($C9-AA9)</f>
         <v>12601.170269086837</v>
       </c>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="9">
-        <f t="shared" ref="AA9" si="30">ABS($C9-Z9)</f>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="9">
+        <f t="shared" ref="AE9" si="34">ABS($C9-AD9)</f>
         <v>12786.852718849301</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>-89.188451015197899</v>
       </c>
@@ -3940,76 +4081,92 @@
         <f t="shared" si="1"/>
         <v>-11935.369691735534</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="15">
         <f t="shared" si="2"/>
-        <v>-393.75380406079159</v>
+        <v>447.22796936170374</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="3"/>
+        <v>12375.597661097203</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="5"/>
+        <v>11938.369691735499</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="6"/>
+        <v>-393.75380406079159</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="7"/>
         <v>11534.615887674707</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8">
-        <f t="shared" si="4"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="5"/>
+      <c r="M10" s="10">
+        <f t="shared" si="9"/>
         <v>11927.369691735499</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="8">
-        <f t="shared" si="6"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="8">
+        <f t="shared" si="10"/>
         <v>-356.75380406079159</v>
       </c>
-      <c r="L10" s="9">
-        <f t="shared" si="7"/>
+      <c r="P10" s="9">
+        <f t="shared" si="11"/>
         <v>11571.615887674707</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O10" s="9">
-        <f t="shared" si="7"/>
+      <c r="S10" s="9">
+        <f t="shared" si="11"/>
         <v>11928.369691735499</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="8">
-        <f t="shared" si="9"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="8">
+        <f t="shared" si="13"/>
         <v>-80.056400902398138</v>
       </c>
-      <c r="R10" s="9">
-        <f t="shared" ref="R10" si="31">ABS($C10-Q10)</f>
+      <c r="V10" s="9">
+        <f t="shared" ref="V10" si="35">ABS($C10-U10)</f>
         <v>11848.313290833101</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="8">
+      <c r="W10" s="7"/>
+      <c r="X10" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U10" s="9">
-        <f t="shared" ref="U10" si="32">ABS($C10-T10)</f>
+      <c r="Y10" s="9">
+        <f t="shared" ref="Y10" si="36">ABS($C10-X10)</f>
         <v>11908.42026897574</v>
       </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="8">
+        <f t="shared" si="16"/>
         <v>-179.3769020303958</v>
       </c>
-      <c r="X10" s="9">
-        <f t="shared" ref="X10" si="33">ABS($C10-W10)</f>
+      <c r="AB10" s="9">
+        <f t="shared" ref="AB10" si="37">ABS($C10-AA10)</f>
         <v>11748.992789705104</v>
       </c>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="9">
-        <f t="shared" ref="AA10" si="34">ABS($C10-Z10)</f>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="9">
+        <f t="shared" ref="AE10" si="38">ABS($C10-AD10)</f>
         <v>11928.369691735499</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>-86.855086201897507</v>
       </c>
@@ -4020,76 +4177,92 @@
         <f t="shared" si="1"/>
         <v>-11319.208998708569</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="15">
         <f t="shared" si="2"/>
-        <v>-384.42034480759003</v>
+        <v>435.56114529520181</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="3"/>
+        <v>11747.770144003702</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="5"/>
+        <v>11322.2089987085</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="6"/>
+        <v>-384.42034480759003</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="7"/>
         <v>10927.788653900911</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8">
-        <f t="shared" si="4"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="5"/>
+      <c r="M11" s="10">
+        <f t="shared" si="9"/>
         <v>11311.2089987085</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="8">
-        <f t="shared" si="6"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="8">
+        <f t="shared" si="10"/>
         <v>-347.42034480759003</v>
       </c>
-      <c r="L11" s="9">
-        <f t="shared" si="7"/>
+      <c r="P11" s="9">
+        <f t="shared" si="11"/>
         <v>10964.788653900911</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O11" s="9">
-        <f t="shared" si="7"/>
+      <c r="S11" s="9">
+        <f t="shared" si="11"/>
         <v>11312.2089987085</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8">
-        <f t="shared" si="9"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="8">
+        <f t="shared" si="13"/>
         <v>-77.982298846131116</v>
       </c>
-      <c r="R11" s="9">
-        <f t="shared" ref="R11" si="35">ABS($C11-Q11)</f>
+      <c r="V11" s="9">
+        <f t="shared" ref="V11" si="39">ABS($C11-U11)</f>
         <v>11234.226699862369</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="8">
+      <c r="W11" s="7"/>
+      <c r="X11" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U11" s="9">
-        <f t="shared" ref="U11" si="36">ABS($C11-T11)</f>
+      <c r="Y11" s="9">
+        <f t="shared" ref="Y11" si="40">ABS($C11-X11)</f>
         <v>11292.259575948741</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="8">
+        <f t="shared" si="16"/>
         <v>-174.71017240379501</v>
       </c>
-      <c r="X11" s="9">
-        <f t="shared" ref="X11" si="37">ABS($C11-W11)</f>
+      <c r="AB11" s="9">
+        <f t="shared" ref="AB11" si="41">ABS($C11-AA11)</f>
         <v>11137.498826304705</v>
       </c>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="9">
-        <f t="shared" ref="AA11" si="38">ABS($C11-Z11)</f>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="9">
+        <f t="shared" ref="AE11" si="42">ABS($C11-AD11)</f>
         <v>11312.2089987085</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>-78.283502010154905</v>
       </c>
@@ -4100,76 +4273,92 @@
         <f t="shared" si="1"/>
         <v>-9195.9600304608903</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="15">
         <f t="shared" si="2"/>
-        <v>-350.13400804061962</v>
+        <v>392.7032243364888</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="3"/>
+        <v>9581.6632547973786</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="5"/>
+        <v>9198.9600304608903</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="6"/>
+        <v>-350.13400804061962</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="7"/>
         <v>8838.8260224202713</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8">
-        <f t="shared" si="4"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="5"/>
+      <c r="M12" s="10">
+        <f t="shared" si="9"/>
         <v>9187.9600304608903</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="8">
-        <f t="shared" si="6"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="8">
+        <f t="shared" si="10"/>
         <v>-313.13400804061962</v>
       </c>
-      <c r="L12" s="9">
-        <f t="shared" si="7"/>
+      <c r="P12" s="9">
+        <f t="shared" si="11"/>
         <v>8875.8260224202713</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O12" s="9">
-        <f t="shared" si="7"/>
+      <c r="S12" s="9">
+        <f t="shared" si="11"/>
         <v>9188.9600304608903</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="8">
-        <f t="shared" si="9"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="8">
+        <f t="shared" si="13"/>
         <v>-70.363112897915471</v>
       </c>
-      <c r="R12" s="9">
-        <f t="shared" ref="R12" si="39">ABS($C12-Q12)</f>
+      <c r="V12" s="9">
+        <f t="shared" ref="V12" si="43">ABS($C12-U12)</f>
         <v>9118.5969175629743</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8">
+      <c r="W12" s="7"/>
+      <c r="X12" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U12" s="9">
-        <f t="shared" ref="U12" si="40">ABS($C12-T12)</f>
+      <c r="Y12" s="9">
+        <f t="shared" ref="Y12" si="44">ABS($C12-X12)</f>
         <v>9169.0106077011314</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="8">
+        <f t="shared" si="16"/>
         <v>-157.56700402030981</v>
       </c>
-      <c r="X12" s="9">
-        <f t="shared" ref="X12" si="41">ABS($C12-W12)</f>
+      <c r="AB12" s="9">
+        <f t="shared" ref="AB12" si="45">ABS($C12-AA12)</f>
         <v>9031.3930264405808</v>
       </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="9">
-        <f t="shared" ref="AA12" si="42">ABS($C12-Z12)</f>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="9">
+        <f t="shared" ref="AE12" si="46">ABS($C12-AD12)</f>
         <v>9188.9600304608903</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>-76.273416119667402</v>
       </c>
@@ -4180,76 +4369,92 @@
         <f t="shared" si="1"/>
         <v>-8729.9510098459086</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="15">
         <f t="shared" si="2"/>
-        <v>-342.09366447866961</v>
+        <v>382.65279488405127</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="3"/>
+        <v>9105.6038047299626</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="5"/>
+        <v>8732.9510098459104</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="6"/>
+        <v>-342.09366447866961</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="7"/>
         <v>8380.8573453672416</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8">
-        <f t="shared" si="4"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="5"/>
+      <c r="M13" s="10">
+        <f t="shared" si="9"/>
         <v>8721.9510098459104</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="8">
-        <f t="shared" si="6"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="8">
+        <f t="shared" si="10"/>
         <v>-305.09366447866961</v>
       </c>
-      <c r="L13" s="9">
-        <f t="shared" si="7"/>
+      <c r="P13" s="9">
+        <f t="shared" si="11"/>
         <v>8417.8573453672416</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O13" s="9">
-        <f t="shared" si="7"/>
+      <c r="S13" s="9">
+        <f t="shared" si="11"/>
         <v>8722.9510098459104</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8">
-        <f t="shared" si="9"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="8">
+        <f t="shared" si="13"/>
         <v>-68.576369884148804</v>
       </c>
-      <c r="R13" s="9">
-        <f t="shared" ref="R13" si="43">ABS($C13-Q13)</f>
+      <c r="V13" s="9">
+        <f t="shared" ref="V13" si="47">ABS($C13-U13)</f>
         <v>8654.3746399617612</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="8">
+      <c r="W13" s="7"/>
+      <c r="X13" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U13" s="9">
-        <f t="shared" ref="U13" si="44">ABS($C13-T13)</f>
+      <c r="Y13" s="9">
+        <f t="shared" ref="Y13" si="48">ABS($C13-X13)</f>
         <v>8703.0015870861516</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="8">
+        <f t="shared" si="16"/>
         <v>-153.5468322393348</v>
       </c>
-      <c r="X13" s="9">
-        <f t="shared" ref="X13" si="45">ABS($C13-W13)</f>
+      <c r="AB13" s="9">
+        <f t="shared" ref="AB13" si="49">ABS($C13-AA13)</f>
         <v>8569.4041776065751</v>
       </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="9">
-        <f t="shared" ref="AA13" si="46">ABS($C13-Z13)</f>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="9">
+        <f t="shared" ref="AE13" si="50">ABS($C13-AD13)</f>
         <v>8722.9510098459104</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>-72.253793134267298</v>
       </c>
@@ -4260,76 +4465,92 @@
         <f t="shared" si="1"/>
         <v>-7834.4159334342385</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="15">
         <f t="shared" si="2"/>
-        <v>-326.01517253706919</v>
+        <v>362.55467995705078</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="3"/>
+        <v>8189.9706133912914</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="5"/>
+        <v>7837.4159334342403</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="6"/>
+        <v>-326.01517253706919</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="7"/>
         <v>7501.4007608971715</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8">
-        <f t="shared" si="4"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="5"/>
+      <c r="M14" s="10">
+        <f t="shared" si="9"/>
         <v>7826.4159334342403</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="8">
-        <f t="shared" si="6"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="8">
+        <f t="shared" si="10"/>
         <v>-289.01517253706919</v>
       </c>
-      <c r="L14" s="9">
-        <f t="shared" si="7"/>
+      <c r="P14" s="9">
+        <f t="shared" si="11"/>
         <v>7538.4007608971715</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O14" s="9">
-        <f t="shared" si="7"/>
+      <c r="S14" s="9">
+        <f t="shared" si="11"/>
         <v>7827.4159334342403</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="8">
-        <f t="shared" si="9"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="8">
+        <f t="shared" si="13"/>
         <v>-65.003371674904258</v>
       </c>
-      <c r="R14" s="9">
-        <f t="shared" ref="R14" si="47">ABS($C14-Q14)</f>
+      <c r="V14" s="9">
+        <f t="shared" ref="V14" si="51">ABS($C14-U14)</f>
         <v>7762.4125617593363</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="8">
+      <c r="W14" s="7"/>
+      <c r="X14" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U14" s="9">
-        <f t="shared" ref="U14" si="48">ABS($C14-T14)</f>
+      <c r="Y14" s="9">
+        <f t="shared" ref="Y14" si="52">ABS($C14-X14)</f>
         <v>7807.4665106744824</v>
       </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="8">
+        <f t="shared" si="16"/>
         <v>-145.5075862685346</v>
       </c>
-      <c r="X14" s="9">
-        <f t="shared" ref="X14" si="49">ABS($C14-W14)</f>
+      <c r="AB14" s="9">
+        <f t="shared" ref="AB14" si="53">ABS($C14-AA14)</f>
         <v>7681.9083471657059</v>
       </c>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="9">
-        <f t="shared" ref="AA14" si="50">ABS($C14-Z14)</f>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="9">
+        <f t="shared" ref="AE14" si="54">ABS($C14-AD14)</f>
         <v>7827.4159334342403</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>-63.386374562537199</v>
       </c>
@@ -4340,76 +4561,92 @@
         <f t="shared" si="1"/>
         <v>-6030.2487202733937</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="15">
         <f t="shared" si="2"/>
-        <v>-290.5454982501488</v>
+        <v>318.21758709840026</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="3"/>
+        <v>6341.4663073718102</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="5"/>
+        <v>6033.2487202734101</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="6"/>
+        <v>-290.5454982501488</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="7"/>
         <v>5732.7032220232613</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8">
-        <f t="shared" si="4"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="5"/>
+      <c r="M15" s="10">
+        <f t="shared" si="9"/>
         <v>6022.2487202734101</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="8">
-        <f t="shared" si="6"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="8">
+        <f t="shared" si="10"/>
         <v>-253.5454982501488</v>
       </c>
-      <c r="L15" s="9">
-        <f t="shared" si="7"/>
+      <c r="P15" s="9">
+        <f t="shared" si="11"/>
         <v>5769.7032220232613</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O15" s="9">
-        <f t="shared" si="7"/>
+      <c r="S15" s="9">
+        <f t="shared" si="11"/>
         <v>6023.2487202734101</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8">
-        <f t="shared" si="9"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8">
+        <f t="shared" si="13"/>
         <v>-57.121221833366398</v>
       </c>
-      <c r="R15" s="9">
-        <f t="shared" ref="R15" si="51">ABS($C15-Q15)</f>
+      <c r="V15" s="9">
+        <f t="shared" ref="V15" si="55">ABS($C15-U15)</f>
         <v>5966.1274984400434</v>
       </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="8">
+      <c r="W15" s="7"/>
+      <c r="X15" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U15" s="9">
-        <f t="shared" ref="U15" si="52">ABS($C15-T15)</f>
+      <c r="Y15" s="9">
+        <f t="shared" ref="Y15" si="56">ABS($C15-X15)</f>
         <v>6003.2992975136522</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="8">
+        <f t="shared" si="16"/>
         <v>-127.7727491250744</v>
       </c>
-      <c r="X15" s="9">
-        <f t="shared" ref="X15" si="53">ABS($C15-W15)</f>
+      <c r="AB15" s="9">
+        <f t="shared" ref="AB15" si="57">ABS($C15-AA15)</f>
         <v>5895.4759711483357</v>
       </c>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="9">
-        <f t="shared" ref="AA15" si="54">ABS($C15-Z15)</f>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="9">
+        <f t="shared" ref="AE15" si="58">ABS($C15-AD15)</f>
         <v>6023.2487202734101</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>-52.661720220185401</v>
       </c>
@@ -4420,76 +4657,92 @@
         <f t="shared" si="1"/>
         <v>-4163.3851648236259</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="15">
         <f t="shared" si="2"/>
-        <v>-247.64688088074161</v>
+        <v>264.59431538664131</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="3"/>
+        <v>4420.9794802102706</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="5"/>
+        <v>4166.3851648236296</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="6"/>
+        <v>-247.64688088074161</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="7"/>
         <v>3908.7382839428878</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8">
-        <f t="shared" si="4"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I16" s="10">
-        <f t="shared" si="5"/>
+      <c r="M16" s="10">
+        <f t="shared" si="9"/>
         <v>4155.3851648236296</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="8">
-        <f t="shared" si="6"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="8">
+        <f t="shared" si="10"/>
         <v>-210.64688088074161</v>
       </c>
-      <c r="L16" s="9">
-        <f t="shared" si="7"/>
+      <c r="P16" s="9">
+        <f t="shared" si="11"/>
         <v>3945.7382839428878</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O16" s="9">
-        <f t="shared" si="7"/>
+      <c r="S16" s="9">
+        <f t="shared" si="11"/>
         <v>4156.3851648236296</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="8">
-        <f t="shared" si="9"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="8">
+        <f t="shared" si="13"/>
         <v>-47.588195751275912</v>
       </c>
-      <c r="R16" s="9">
-        <f t="shared" ref="R16" si="55">ABS($C16-Q16)</f>
+      <c r="V16" s="9">
+        <f t="shared" ref="V16" si="59">ABS($C16-U16)</f>
         <v>4108.7969690723539</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="8">
+      <c r="W16" s="7"/>
+      <c r="X16" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U16" s="9">
-        <f t="shared" ref="U16" si="56">ABS($C16-T16)</f>
+      <c r="Y16" s="9">
+        <f t="shared" ref="Y16" si="60">ABS($C16-X16)</f>
         <v>4136.4357420638717</v>
       </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="8">
+        <f t="shared" si="16"/>
         <v>-106.3234404403708</v>
       </c>
-      <c r="X16" s="9">
-        <f t="shared" ref="X16" si="57">ABS($C16-W16)</f>
+      <c r="AB16" s="9">
+        <f t="shared" ref="AB16" si="61">ABS($C16-AA16)</f>
         <v>4050.0617243832589</v>
       </c>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="9">
-        <f t="shared" ref="AA16" si="58">ABS($C16-Z16)</f>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="9">
+        <f t="shared" ref="AE16" si="62">ABS($C16-AD16)</f>
         <v>4156.3851648236296</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>-15.7535982384133</v>
       </c>
@@ -4500,76 +4753,92 @@
         <f t="shared" si="1"/>
         <v>-375.76378618600791</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="15">
         <f t="shared" si="2"/>
-        <v>-100.0143929536532</v>
+        <v>80.053705477780795</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="3"/>
+        <v>448.8174916637908</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="5"/>
+        <v>378.76378618601001</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="6"/>
+        <v>-100.0143929536532</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="7"/>
         <v>268.74939323235679</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8">
-        <f t="shared" si="4"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I17" s="10">
-        <f t="shared" si="5"/>
+      <c r="M17" s="10">
+        <f t="shared" si="9"/>
         <v>367.76378618601001</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="8">
-        <f t="shared" si="6"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="8">
+        <f t="shared" si="10"/>
         <v>-63.0143929536532</v>
       </c>
-      <c r="L17" s="9">
-        <f t="shared" si="7"/>
+      <c r="P17" s="9">
+        <f t="shared" si="11"/>
         <v>305.74939323235679</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O17" s="9">
-        <f t="shared" si="7"/>
+      <c r="S17" s="9">
+        <f t="shared" si="11"/>
         <v>368.76378618601001</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8">
-        <f t="shared" si="9"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="8">
+        <f t="shared" si="13"/>
         <v>-14.780976211922933</v>
       </c>
-      <c r="R17" s="9">
-        <f t="shared" ref="R17" si="59">ABS($C17-Q17)</f>
+      <c r="V17" s="9">
+        <f t="shared" ref="V17" si="63">ABS($C17-U17)</f>
         <v>353.9828099740871</v>
       </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="8">
+      <c r="W17" s="7"/>
+      <c r="X17" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U17" s="9">
-        <f t="shared" ref="U17" si="60">ABS($C17-T17)</f>
+      <c r="Y17" s="9">
+        <f t="shared" ref="Y17" si="64">ABS($C17-X17)</f>
         <v>348.81436342625193</v>
       </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="8">
+        <f t="shared" si="16"/>
         <v>-32.5071964768266</v>
       </c>
-      <c r="X17" s="9">
-        <f t="shared" ref="X17" si="61">ABS($C17-W17)</f>
+      <c r="AB17" s="9">
+        <f t="shared" ref="AB17" si="65">ABS($C17-AA17)</f>
         <v>336.2565897091834</v>
       </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="9">
-        <f t="shared" ref="AA17" si="62">ABS($C17-Z17)</f>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="9">
+        <f t="shared" ref="AE17" si="66">ABS($C17-AD17)</f>
         <v>368.76378618601001</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>-8.1017851471143505</v>
       </c>
@@ -4580,76 +4849,92 @@
         <f t="shared" si="1"/>
         <v>-101.95838385500403</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="15">
         <f t="shared" si="2"/>
-        <v>-69.407140588457395</v>
+        <v>41.794640021286035</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="3"/>
+        <v>136.75302387629023</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="5"/>
+        <v>104.9583838550042</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="6"/>
+        <v>-69.407140588457395</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="7"/>
         <v>25.551243266546805</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8">
-        <f t="shared" si="4"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I18" s="10">
-        <f t="shared" si="5"/>
+      <c r="M18" s="10">
+        <f t="shared" si="9"/>
         <v>93.9583838550042</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="8">
-        <f t="shared" si="6"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="8">
+        <f t="shared" si="10"/>
         <v>-32.407140588457402</v>
       </c>
-      <c r="L18" s="9">
-        <f t="shared" si="7"/>
+      <c r="P18" s="9">
+        <f t="shared" si="11"/>
         <v>62.551243266546798</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O18" s="9">
-        <f t="shared" si="7"/>
+      <c r="S18" s="9">
+        <f t="shared" si="11"/>
         <v>94.9583838550042</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="8">
-        <f t="shared" si="9"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="8">
+        <f t="shared" si="13"/>
         <v>-7.979364575212756</v>
       </c>
-      <c r="R18" s="9">
-        <f t="shared" ref="R18" si="63">ABS($C18-Q18)</f>
+      <c r="V18" s="9">
+        <f t="shared" ref="V18" si="67">ABS($C18-U18)</f>
         <v>86.979019279791444</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="8">
+      <c r="W18" s="7"/>
+      <c r="X18" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U18" s="9">
-        <f t="shared" ref="U18" si="64">ABS($C18-T18)</f>
+      <c r="Y18" s="9">
+        <f t="shared" ref="Y18" si="68">ABS($C18-X18)</f>
         <v>75.008961095246093</v>
       </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="8">
+        <f t="shared" si="16"/>
         <v>-17.203570294228701</v>
       </c>
-      <c r="X18" s="9">
-        <f t="shared" ref="X18" si="65">ABS($C18-W18)</f>
+      <c r="AB18" s="9">
+        <f t="shared" ref="AB18" si="69">ABS($C18-AA18)</f>
         <v>77.754813560775503</v>
       </c>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="9">
-        <f t="shared" ref="AA18" si="66">ABS($C18-Z18)</f>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="9">
+        <f t="shared" ref="AE18" si="70">ABS($C18-AD18)</f>
         <v>94.9583838550042</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>-5.68584961602226</v>
       </c>
@@ -4660,76 +4945,92 @@
         <f t="shared" si="1"/>
         <v>-51.993328784030723</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="15">
         <f t="shared" si="2"/>
-        <v>-59.74339846408904</v>
+        <v>29.714962365825585</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="3"/>
+        <v>74.708291149856279</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="5"/>
+        <v>54.993328784030702</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="6"/>
+        <v>-59.74339846408904</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="7"/>
         <v>14.750069680058338</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8">
-        <f t="shared" si="4"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="5"/>
+      <c r="M19" s="10">
+        <f t="shared" si="9"/>
         <v>43.993328784030702</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="8">
-        <f t="shared" si="6"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="8">
+        <f t="shared" si="10"/>
         <v>-22.74339846408904</v>
       </c>
-      <c r="L19" s="9">
-        <f t="shared" si="7"/>
+      <c r="P19" s="9">
+        <f t="shared" si="11"/>
         <v>22.249930319941662</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O19" s="9">
-        <f t="shared" si="7"/>
+      <c r="S19" s="9">
+        <f t="shared" si="11"/>
         <v>44.993328784030702</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="8">
-        <f t="shared" si="9"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="8">
+        <f t="shared" si="13"/>
         <v>-5.8318663253531202</v>
       </c>
-      <c r="R19" s="9">
-        <f t="shared" ref="R19" si="67">ABS($C19-Q19)</f>
+      <c r="V19" s="9">
+        <f t="shared" ref="V19" si="71">ABS($C19-U19)</f>
         <v>39.161462458677583</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="8">
+      <c r="W19" s="7"/>
+      <c r="X19" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U19" s="9">
-        <f t="shared" ref="U19" si="68">ABS($C19-T19)</f>
+      <c r="Y19" s="9">
+        <f t="shared" ref="Y19" si="72">ABS($C19-X19)</f>
         <v>25.043906024272594</v>
       </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="8">
+        <f t="shared" si="16"/>
         <v>-12.37169923204452</v>
       </c>
-      <c r="X19" s="9">
-        <f t="shared" ref="X19" si="69">ABS($C19-W19)</f>
+      <c r="AB19" s="9">
+        <f t="shared" ref="AB19" si="73">ABS($C19-AA19)</f>
         <v>32.621629551986182</v>
       </c>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="9">
-        <f t="shared" ref="AA19" si="70">ABS($C19-Z19)</f>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="9">
+        <f t="shared" ref="AE19" si="74">ABS($C19-AD19)</f>
         <v>44.993328784030702</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>-5.4708554028021297</v>
       </c>
@@ -4740,76 +5041,92 @@
         <f t="shared" si="1"/>
         <v>-48.395388257553876</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="15">
         <f t="shared" si="2"/>
-        <v>-58.883421611208519</v>
+        <v>28.639991299724933</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="3"/>
+        <v>70.03537955727883</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="5"/>
+        <v>51.395388257553897</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="6"/>
+        <v>-58.883421611208519</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="7"/>
         <v>17.488033353654622</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8">
-        <f t="shared" si="4"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="5"/>
+      <c r="M20" s="10">
+        <f t="shared" si="9"/>
         <v>40.395388257553897</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="8">
-        <f t="shared" si="6"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="8">
+        <f t="shared" si="10"/>
         <v>-21.883421611208519</v>
       </c>
-      <c r="L20" s="9">
-        <f t="shared" si="7"/>
+      <c r="P20" s="9">
+        <f t="shared" si="11"/>
         <v>19.511966646345378</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O20" s="9">
-        <f t="shared" si="7"/>
+      <c r="S20" s="9">
+        <f t="shared" si="11"/>
         <v>41.395388257553897</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="8">
-        <f t="shared" si="9"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="8">
+        <f t="shared" si="13"/>
         <v>-5.6407603580463377</v>
       </c>
-      <c r="R20" s="9">
-        <f t="shared" ref="R20" si="71">ABS($C20-Q20)</f>
+      <c r="V20" s="9">
+        <f t="shared" ref="V20" si="75">ABS($C20-U20)</f>
         <v>35.754627899507561</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="8">
+      <c r="W20" s="7"/>
+      <c r="X20" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U20" s="9">
-        <f t="shared" ref="U20" si="72">ABS($C20-T20)</f>
+      <c r="Y20" s="9">
+        <f t="shared" ref="Y20" si="76">ABS($C20-X20)</f>
         <v>21.44596549779579</v>
       </c>
-      <c r="V20" s="7"/>
-      <c r="W20" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="8">
+        <f t="shared" si="16"/>
         <v>-11.941710805604259</v>
       </c>
-      <c r="X20" s="9">
-        <f t="shared" ref="X20" si="73">ABS($C20-W20)</f>
+      <c r="AB20" s="9">
+        <f t="shared" ref="AB20" si="77">ABS($C20-AA20)</f>
         <v>29.453677451949638</v>
       </c>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="9">
-        <f t="shared" ref="AA20" si="74">ABS($C20-Z20)</f>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="9">
+        <f t="shared" ref="AE20" si="78">ABS($C20-AD20)</f>
         <v>41.395388257553897</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>-4.7823057344506701</v>
       </c>
@@ -4820,76 +5137,92 @@
         <f t="shared" si="1"/>
         <v>-37.805672206639642</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="15">
         <f t="shared" si="2"/>
-        <v>-56.12922293780268</v>
+        <v>25.197242957967635</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="3"/>
+        <v>56.002915164607231</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="5"/>
+        <v>40.805672206639599</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="6"/>
+        <v>-56.12922293780268</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="7"/>
         <v>25.323550731163081</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8">
-        <f t="shared" si="4"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I21" s="10">
-        <f t="shared" si="5"/>
+      <c r="M21" s="10">
+        <f t="shared" si="9"/>
         <v>29.805672206639599</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="8">
-        <f t="shared" si="6"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="8">
+        <f t="shared" si="10"/>
         <v>-19.12922293780268</v>
       </c>
-      <c r="L21" s="9">
-        <f t="shared" si="7"/>
+      <c r="P21" s="9">
+        <f t="shared" si="11"/>
         <v>11.676449268836919</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O21" s="9">
-        <f t="shared" si="7"/>
+      <c r="S21" s="9">
+        <f t="shared" si="11"/>
         <v>30.805672206639599</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="8">
-        <f t="shared" si="9"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="8">
+        <f t="shared" si="13"/>
         <v>-5.0287162084005956</v>
       </c>
-      <c r="R21" s="9">
-        <f t="shared" ref="R21" si="75">ABS($C21-Q21)</f>
+      <c r="V21" s="9">
+        <f t="shared" ref="V21" si="79">ABS($C21-U21)</f>
         <v>25.776955998239004</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="8">
+      <c r="W21" s="7"/>
+      <c r="X21" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U21" s="9">
-        <f t="shared" ref="U21" si="76">ABS($C21-T21)</f>
+      <c r="Y21" s="9">
+        <f t="shared" ref="Y21" si="80">ABS($C21-X21)</f>
         <v>10.856249446881492</v>
       </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="8">
+        <f t="shared" si="16"/>
         <v>-10.56461146890134</v>
       </c>
-      <c r="X21" s="9">
-        <f t="shared" ref="X21" si="77">ABS($C21-W21)</f>
+      <c r="AB21" s="9">
+        <f t="shared" ref="AB21" si="81">ABS($C21-AA21)</f>
         <v>20.241060737738259</v>
       </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="9">
-        <f t="shared" ref="AA21" si="78">ABS($C21-Z21)</f>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="9">
+        <f t="shared" ref="AE21" si="82">ABS($C21-AD21)</f>
         <v>30.805672206639599</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>-3.48379131603282</v>
       </c>
@@ -4900,76 +5233,92 @@
         <f t="shared" si="1"/>
         <v>-21.705202900498531</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="15">
         <f t="shared" si="2"/>
-        <v>-50.935165264131278</v>
+        <v>18.704670865878384</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="3"/>
+        <v>33.409873766376982</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="5"/>
+        <v>24.705202900498598</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="6"/>
+        <v>-50.935165264131278</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="7"/>
         <v>36.22996236363268</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8">
-        <f t="shared" si="4"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" si="5"/>
+      <c r="M22" s="10">
+        <f t="shared" si="9"/>
         <v>13.7052029004986</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="8">
-        <f t="shared" si="6"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="8">
+        <f t="shared" si="10"/>
         <v>-13.93516526413128</v>
       </c>
-      <c r="L22" s="9">
-        <f t="shared" si="7"/>
+      <c r="P22" s="9">
+        <f t="shared" si="11"/>
         <v>0.77003763636732003</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O22" s="9">
-        <f t="shared" si="7"/>
+      <c r="S22" s="9">
+        <f t="shared" si="11"/>
         <v>14.7052029004986</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="8">
-        <f t="shared" si="9"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="8">
+        <f t="shared" si="13"/>
         <v>-3.874481169806951</v>
       </c>
-      <c r="R22" s="9">
-        <f t="shared" ref="R22" si="79">ABS($C22-Q22)</f>
+      <c r="V22" s="9">
+        <f t="shared" ref="V22" si="83">ABS($C22-U22)</f>
         <v>10.83072173069165</v>
       </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="8">
+      <c r="W22" s="7"/>
+      <c r="X22" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U22" s="9">
-        <f t="shared" ref="U22" si="80">ABS($C22-T22)</f>
+      <c r="Y22" s="9">
+        <f t="shared" ref="Y22" si="84">ABS($C22-X22)</f>
         <v>5.2442198592595073</v>
       </c>
-      <c r="V22" s="7"/>
-      <c r="W22" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="8">
+        <f t="shared" si="16"/>
         <v>-7.9675826320656391</v>
       </c>
-      <c r="X22" s="9">
-        <f t="shared" ref="X22" si="81">ABS($C22-W22)</f>
+      <c r="AB22" s="9">
+        <f t="shared" ref="AB22" si="85">ABS($C22-AA22)</f>
         <v>6.7376202684329609</v>
       </c>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="9">
-        <f t="shared" ref="AA22" si="82">ABS($C22-Z22)</f>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="9">
+        <f t="shared" ref="AE22" si="86">ABS($C22-AD22)</f>
         <v>14.7052029004986</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>-2.3980005154824799</v>
       </c>
@@ -4980,76 +5329,92 @@
         <f t="shared" si="1"/>
         <v>-12.125609708381358</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="15">
         <f t="shared" si="2"/>
-        <v>-46.592002061929918</v>
+        <v>13.275716863126686</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="3"/>
+        <v>18.401326571508044</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="5"/>
+        <v>15.12560970838136</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="6"/>
+        <v>-46.592002061929918</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="7"/>
         <v>41.466392353548557</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8">
-        <f t="shared" si="4"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" si="5"/>
+      <c r="M23" s="10">
+        <f t="shared" si="9"/>
         <v>4.1256097083813597</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="8">
-        <f t="shared" si="6"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="8">
+        <f t="shared" si="10"/>
         <v>-9.5920020619299198</v>
       </c>
-      <c r="L23" s="9">
-        <f t="shared" si="7"/>
+      <c r="P23" s="9">
+        <f t="shared" si="11"/>
         <v>4.4663923535485601</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O23" s="9">
-        <f t="shared" si="7"/>
+      <c r="S23" s="9">
+        <f t="shared" si="11"/>
         <v>5.1256097083813597</v>
       </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="8">
-        <f t="shared" si="9"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="8">
+        <f t="shared" si="13"/>
         <v>-2.9093337915399822</v>
       </c>
-      <c r="R23" s="9">
-        <f t="shared" ref="R23" si="83">ABS($C23-Q23)</f>
+      <c r="V23" s="9">
+        <f t="shared" ref="V23" si="87">ABS($C23-U23)</f>
         <v>2.2162759168413775</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="8">
+      <c r="W23" s="7"/>
+      <c r="X23" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U23" s="9">
-        <f t="shared" ref="U23" si="84">ABS($C23-T23)</f>
+      <c r="Y23" s="9">
+        <f t="shared" ref="Y23" si="88">ABS($C23-X23)</f>
         <v>14.823813051376748</v>
       </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="8">
+        <f t="shared" si="16"/>
         <v>-5.796001030964959</v>
       </c>
-      <c r="X23" s="9">
-        <f t="shared" ref="X23" si="85">ABS($C23-W23)</f>
+      <c r="AB23" s="9">
+        <f t="shared" ref="AB23" si="89">ABS($C23-AA23)</f>
         <v>0.67039132258359935</v>
       </c>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="9">
-        <f t="shared" ref="AA23" si="86">ABS($C23-Z23)</f>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="9">
+        <f t="shared" ref="AE23" si="90">ABS($C23-AD23)</f>
         <v>5.1256097083813597</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>-0.55550003640924595</v>
       </c>
@@ -5060,76 +5425,92 @@
         <f t="shared" si="1"/>
         <v>-3.9628704356760105</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="15">
         <f t="shared" si="2"/>
-        <v>-39.222000145636983</v>
+        <v>4.0632144677605151</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="3"/>
+        <v>1.0260849034365349</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="5"/>
+        <v>6.9628704356760203</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="6"/>
+        <v>-39.222000145636983</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="7"/>
         <v>42.259129709960966</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8">
-        <f t="shared" si="4"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="5"/>
+      <c r="M24" s="10">
+        <f t="shared" si="9"/>
         <v>4.0371295643239797</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="8">
-        <f t="shared" si="6"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="8">
+        <f t="shared" si="10"/>
         <v>-2.2220001456369838</v>
       </c>
-      <c r="L24" s="9">
-        <f t="shared" si="7"/>
+      <c r="P24" s="9">
+        <f t="shared" si="11"/>
         <v>5.2591297099609644</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O24" s="9">
-        <f t="shared" si="7"/>
+      <c r="S24" s="9">
+        <f t="shared" si="11"/>
         <v>3.0371295643239802</v>
       </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="8">
-        <f t="shared" si="9"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="8">
+        <f t="shared" si="13"/>
         <v>-1.2715555879193299</v>
       </c>
-      <c r="R24" s="9">
-        <f t="shared" ref="R24" si="87">ABS($C24-Q24)</f>
+      <c r="V24" s="9">
+        <f t="shared" ref="V24" si="91">ABS($C24-U24)</f>
         <v>4.3086851522433101</v>
       </c>
-      <c r="S24" s="7"/>
-      <c r="T24" s="8">
+      <c r="W24" s="7"/>
+      <c r="X24" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U24" s="9">
-        <f t="shared" ref="U24" si="88">ABS($C24-T24)</f>
+      <c r="Y24" s="9">
+        <f t="shared" ref="Y24" si="92">ABS($C24-X24)</f>
         <v>22.986552324082087</v>
       </c>
-      <c r="V24" s="7"/>
-      <c r="W24" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="8">
+        <f t="shared" si="16"/>
         <v>-2.1110000728184914</v>
       </c>
-      <c r="X24" s="9">
-        <f t="shared" ref="X24" si="89">ABS($C24-W24)</f>
+      <c r="AB24" s="9">
+        <f t="shared" ref="AB24" si="93">ABS($C24-AA24)</f>
         <v>5.1481296371424712</v>
       </c>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="9">
-        <f t="shared" ref="AA24" si="90">ABS($C24-Z24)</f>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="9">
+        <f t="shared" ref="AE24" si="94">ABS($C24-AD24)</f>
         <v>3.0371295643239802</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>0.49437461859044901</v>
       </c>
@@ -5140,76 +5521,92 @@
         <f t="shared" si="1"/>
         <v>-3.8666093952596778</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="15">
         <f t="shared" si="2"/>
-        <v>-35.022501525638205</v>
+        <v>-1.1861588072379592</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="3"/>
+        <v>4.3195494119782794</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="5"/>
+        <v>6.8666093952596796</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="6"/>
+        <v>-35.022501525638205</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="7"/>
         <v>38.155892130378525</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8">
-        <f t="shared" si="4"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I25" s="10">
-        <f t="shared" si="5"/>
+      <c r="M25" s="10">
+        <f t="shared" si="9"/>
         <v>4.1333906047403204</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="8">
-        <f t="shared" si="6"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="8">
+        <f t="shared" si="10"/>
         <v>1.977498474361796</v>
       </c>
-      <c r="L25" s="9">
-        <f t="shared" si="7"/>
+      <c r="P25" s="9">
+        <f t="shared" si="11"/>
         <v>1.1558921303785239</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O25" s="9">
-        <f t="shared" si="7"/>
+      <c r="S25" s="9">
+        <f t="shared" si="11"/>
         <v>3.1333906047403199</v>
       </c>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="8">
-        <f t="shared" si="9"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="8">
+        <f t="shared" si="13"/>
         <v>-0.33833367236404527</v>
       </c>
-      <c r="R25" s="9">
-        <f t="shared" ref="R25" si="91">ABS($C25-Q25)</f>
+      <c r="V25" s="9">
+        <f t="shared" ref="V25" si="95">ABS($C25-U25)</f>
         <v>3.4717242771043653</v>
       </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="8">
+      <c r="W25" s="7"/>
+      <c r="X25" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U25" s="9">
-        <f t="shared" ref="U25" si="92">ABS($C25-T25)</f>
+      <c r="Y25" s="9">
+        <f t="shared" ref="Y25" si="96">ABS($C25-X25)</f>
         <v>23.082813364498428</v>
       </c>
-      <c r="V25" s="7"/>
-      <c r="W25" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="8">
+        <f t="shared" si="16"/>
         <v>-1.1250762819102533E-2</v>
       </c>
-      <c r="X25" s="9">
-        <f t="shared" ref="X25" si="93">ABS($C25-W25)</f>
+      <c r="AB25" s="9">
+        <f t="shared" ref="AB25" si="97">ABS($C25-AA25)</f>
         <v>3.1446413675594225</v>
       </c>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="9">
-        <f t="shared" ref="AA25" si="94">ABS($C25-Z25)</f>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="9">
+        <f t="shared" ref="AE25" si="98">ABS($C25-AD25)</f>
         <v>3.1333906047403199</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>2.86325791483458</v>
       </c>
@@ -5220,76 +5617,92 @@
         <f t="shared" si="1"/>
         <v>-15.797368830294301</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="15">
         <f t="shared" si="2"/>
-        <v>-25.546968340661678</v>
+        <v>-13.030575288458614</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" si="3"/>
+        <v>4.2332064581642541</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="5"/>
+        <v>18.79736883029436</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="6"/>
+        <v>-25.546968340661678</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="7"/>
         <v>16.749599510367318</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8">
-        <f t="shared" si="4"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="5"/>
+      <c r="M26" s="10">
+        <f t="shared" si="9"/>
         <v>7.79736883029436</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="8">
-        <f t="shared" si="6"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="8">
+        <f t="shared" si="10"/>
         <v>11.45303165933832</v>
       </c>
-      <c r="L26" s="9">
-        <f t="shared" si="7"/>
+      <c r="P26" s="9">
+        <f t="shared" si="11"/>
         <v>20.250400489632682</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O26" s="9">
-        <f t="shared" si="7"/>
+      <c r="S26" s="9">
+        <f t="shared" si="11"/>
         <v>8.79736883029436</v>
       </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="8">
-        <f t="shared" si="9"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="8">
+        <f t="shared" si="13"/>
         <v>1.767340368741849</v>
       </c>
-      <c r="R26" s="9">
-        <f t="shared" ref="R26" si="95">ABS($C26-Q26)</f>
+      <c r="V26" s="9">
+        <f t="shared" ref="V26" si="99">ABS($C26-U26)</f>
         <v>10.564709199036209</v>
       </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="8">
+      <c r="W26" s="7"/>
+      <c r="X26" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U26" s="9">
-        <f t="shared" ref="U26" si="96">ABS($C26-T26)</f>
+      <c r="Y26" s="9">
+        <f t="shared" ref="Y26" si="100">ABS($C26-X26)</f>
         <v>11.152053929463747</v>
       </c>
-      <c r="V26" s="7"/>
-      <c r="W26" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="8">
+        <f t="shared" si="16"/>
         <v>4.726515829669161</v>
       </c>
-      <c r="X26" s="9">
-        <f t="shared" ref="X26" si="97">ABS($C26-W26)</f>
+      <c r="AB26" s="9">
+        <f t="shared" ref="AB26" si="101">ABS($C26-AA26)</f>
         <v>13.523884659963521</v>
       </c>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="9">
-        <f t="shared" ref="AA26" si="98">ABS($C26-Z26)</f>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="9">
+        <f t="shared" ref="AE26" si="102">ABS($C26-AD26)</f>
         <v>8.79736883029436</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>2.9624292580748901</v>
       </c>
@@ -5300,76 +5713,92 @@
         <f t="shared" si="1"/>
         <v>-16.663980663647216</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="15">
         <f t="shared" si="2"/>
-        <v>-25.150282967700441</v>
+        <v>-13.526432004660164</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="3"/>
+        <v>3.862451341012914</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="5"/>
+        <v>19.663980663647251</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="6"/>
+        <v>-25.150282967700441</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="7"/>
         <v>15.486302304053192</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8">
-        <f t="shared" si="4"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" si="5"/>
+      <c r="M27" s="10">
+        <f t="shared" si="9"/>
         <v>8.6639806636472496</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="8">
-        <f t="shared" si="6"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="8">
+        <f t="shared" si="10"/>
         <v>11.84971703229956</v>
       </c>
-      <c r="L27" s="9">
-        <f t="shared" si="7"/>
+      <c r="P27" s="9">
+        <f t="shared" si="11"/>
         <v>21.51369769594681</v>
       </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O27" s="9">
-        <f t="shared" si="7"/>
+      <c r="S27" s="9">
+        <f t="shared" si="11"/>
         <v>9.6639806636472496</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="8">
-        <f t="shared" si="9"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="8">
+        <f t="shared" si="13"/>
         <v>1.8554926738443469</v>
       </c>
-      <c r="R27" s="9">
-        <f t="shared" ref="R27" si="99">ABS($C27-Q27)</f>
+      <c r="V27" s="9">
+        <f t="shared" ref="V27" si="103">ABS($C27-U27)</f>
         <v>11.519473337491597</v>
       </c>
-      <c r="S27" s="7"/>
-      <c r="T27" s="8">
+      <c r="W27" s="7"/>
+      <c r="X27" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U27" s="9">
-        <f t="shared" ref="U27" si="100">ABS($C27-T27)</f>
+      <c r="Y27" s="9">
+        <f t="shared" ref="Y27" si="104">ABS($C27-X27)</f>
         <v>10.285442096110858</v>
       </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="8">
+        <f t="shared" si="16"/>
         <v>4.9248585161497793</v>
       </c>
-      <c r="X27" s="9">
-        <f t="shared" ref="X27" si="101">ABS($C27-W27)</f>
+      <c r="AB27" s="9">
+        <f t="shared" ref="AB27" si="105">ABS($C27-AA27)</f>
         <v>14.588839179797029</v>
       </c>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="9">
-        <f t="shared" ref="AA27" si="102">ABS($C27-Z27)</f>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="9">
+        <f t="shared" ref="AE27" si="106">ABS($C27-AD27)</f>
         <v>9.6639806636472496</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>3.3682869645854101</v>
       </c>
@@ -5380,76 +5809,92 @@
         <f t="shared" si="1"/>
         <v>-20.518035613693993</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="15">
         <f t="shared" si="2"/>
-        <v>-23.52685214165836</v>
+        <v>-15.555720537212762</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="3"/>
+        <v>2.0376849235187624</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="5"/>
+        <v>23.518035613694</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="6"/>
+        <v>-23.52685214165836</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="7"/>
         <v>10.00881652796436</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8">
-        <f t="shared" si="4"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I28" s="10">
-        <f t="shared" si="5"/>
+      <c r="M28" s="10">
+        <f t="shared" si="9"/>
         <v>12.518035613694</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="8">
-        <f t="shared" si="6"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="8">
+        <f t="shared" si="10"/>
         <v>13.47314785834164</v>
       </c>
-      <c r="L28" s="9">
-        <f t="shared" si="7"/>
+      <c r="P28" s="9">
+        <f t="shared" si="11"/>
         <v>26.99118347203564</v>
       </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O28" s="9">
-        <f t="shared" si="7"/>
+      <c r="S28" s="9">
+        <f t="shared" si="11"/>
         <v>13.518035613694</v>
       </c>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="8">
-        <f t="shared" si="9"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="8">
+        <f t="shared" si="13"/>
         <v>2.2162550796314759</v>
       </c>
-      <c r="R28" s="9">
-        <f t="shared" ref="R28" si="103">ABS($C28-Q28)</f>
+      <c r="V28" s="9">
+        <f t="shared" ref="V28" si="107">ABS($C28-U28)</f>
         <v>15.734290693325477</v>
       </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="8">
+      <c r="W28" s="7"/>
+      <c r="X28" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U28" s="9">
-        <f t="shared" ref="U28" si="104">ABS($C28-T28)</f>
+      <c r="Y28" s="9">
+        <f t="shared" ref="Y28" si="108">ABS($C28-X28)</f>
         <v>6.4313871460641074</v>
       </c>
-      <c r="V28" s="7"/>
-      <c r="W28" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="8">
+        <f t="shared" si="16"/>
         <v>5.7365739291708202</v>
       </c>
-      <c r="X28" s="9">
-        <f t="shared" ref="X28" si="105">ABS($C28-W28)</f>
+      <c r="AB28" s="9">
+        <f t="shared" ref="AB28" si="109">ABS($C28-AA28)</f>
         <v>19.25460954286482</v>
       </c>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="9">
-        <f t="shared" ref="AA28" si="106">ABS($C28-Z28)</f>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="9">
+        <f t="shared" ref="AE28" si="110">ABS($C28-AD28)</f>
         <v>13.518035613694</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>4.2010031786643802</v>
       </c>
@@ -5460,76 +5905,92 @@
         <f t="shared" si="1"/>
         <v>-29.972641560722337</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="15">
         <f t="shared" si="2"/>
-        <v>-20.195987285342479</v>
+        <v>-19.719301607607616</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" si="3"/>
+        <v>3.2533399531147857</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="5"/>
+        <v>32.972641560722401</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="6"/>
+        <v>-20.195987285342479</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="7"/>
         <v>2.7766542753799222</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8">
-        <f t="shared" si="4"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I29" s="10">
-        <f t="shared" si="5"/>
+      <c r="M29" s="10">
+        <f t="shared" si="9"/>
         <v>21.972641560722401</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="8">
-        <f t="shared" si="6"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="8">
+        <f t="shared" si="10"/>
         <v>16.804012714657521</v>
       </c>
-      <c r="L29" s="9">
-        <f t="shared" si="7"/>
+      <c r="P29" s="9">
+        <f t="shared" si="11"/>
         <v>39.776654275379926</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O29" s="9">
-        <f t="shared" si="7"/>
+      <c r="S29" s="9">
+        <f t="shared" si="11"/>
         <v>22.972641560722401</v>
       </c>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="8">
-        <f t="shared" si="9"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="8">
+        <f t="shared" si="13"/>
         <v>2.9564472699238937</v>
       </c>
-      <c r="R29" s="9">
-        <f t="shared" ref="R29" si="107">ABS($C29-Q29)</f>
+      <c r="V29" s="9">
+        <f t="shared" ref="V29" si="111">ABS($C29-U29)</f>
         <v>25.929088830646293</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="8">
+      <c r="W29" s="7"/>
+      <c r="X29" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U29" s="9">
-        <f t="shared" ref="U29" si="108">ABS($C29-T29)</f>
+      <c r="Y29" s="9">
+        <f t="shared" ref="Y29" si="112">ABS($C29-X29)</f>
         <v>3.023218800964294</v>
       </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="8">
+        <f t="shared" si="16"/>
         <v>7.4020063573287596</v>
       </c>
-      <c r="X29" s="9">
-        <f t="shared" ref="X29" si="109">ABS($C29-W29)</f>
+      <c r="AB29" s="9">
+        <f t="shared" ref="AB29" si="113">ABS($C29-AA29)</f>
         <v>30.37464791805116</v>
       </c>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="9">
-        <f t="shared" ref="AA29" si="110">ABS($C29-Z29)</f>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="9">
+        <f t="shared" ref="AE29" si="114">ABS($C29-AD29)</f>
         <v>22.972641560722401</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>4.2230395963185003</v>
       </c>
@@ -5540,76 +6001,92 @@
         <f t="shared" si="1"/>
         <v>-30.251095148110885</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="15">
         <f t="shared" si="2"/>
-        <v>-20.107841614725999</v>
+        <v>-19.829483695878217</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="3"/>
+        <v>3.4216114522325825</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="5"/>
+        <v>33.251095148110799</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="6"/>
+        <v>-20.107841614725999</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="7"/>
         <v>3.1432535333848008</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8">
-        <f t="shared" si="4"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I30" s="10">
-        <f t="shared" si="5"/>
+      <c r="M30" s="10">
+        <f t="shared" si="9"/>
         <v>22.251095148110799</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="8">
-        <f t="shared" si="6"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="8">
+        <f t="shared" si="10"/>
         <v>16.892158385274001</v>
       </c>
-      <c r="L30" s="9">
-        <f t="shared" si="7"/>
+      <c r="P30" s="9">
+        <f t="shared" si="11"/>
         <v>40.143253533384801</v>
       </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O30" s="9">
-        <f t="shared" si="7"/>
+      <c r="S30" s="9">
+        <f t="shared" si="11"/>
         <v>23.251095148110799</v>
       </c>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="8">
-        <f t="shared" si="9"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="8">
+        <f t="shared" si="13"/>
         <v>2.9760351967275556</v>
       </c>
-      <c r="R30" s="9">
-        <f t="shared" ref="R30" si="111">ABS($C30-Q30)</f>
+      <c r="V30" s="9">
+        <f t="shared" ref="V30" si="115">ABS($C30-U30)</f>
         <v>26.227130344838354</v>
       </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="8">
+      <c r="W30" s="7"/>
+      <c r="X30" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U30" s="9">
-        <f t="shared" ref="U30" si="112">ABS($C30-T30)</f>
+      <c r="Y30" s="9">
+        <f t="shared" ref="Y30" si="116">ABS($C30-X30)</f>
         <v>3.3016723883526922</v>
       </c>
-      <c r="V30" s="7"/>
-      <c r="W30" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="8">
+        <f t="shared" si="16"/>
         <v>7.4460791926370007</v>
       </c>
-      <c r="X30" s="9">
-        <f t="shared" ref="X30" si="113">ABS($C30-W30)</f>
+      <c r="AB30" s="9">
+        <f t="shared" ref="AB30" si="117">ABS($C30-AA30)</f>
         <v>30.6971743407478</v>
       </c>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="9">
-        <f t="shared" ref="AA30" si="114">ABS($C30-Z30)</f>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="9">
+        <f t="shared" ref="AE30" si="118">ABS($C30-AD30)</f>
         <v>23.251095148110799</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>5.6899462002511099</v>
       </c>
@@ -5620,76 +6097,92 @@
         <f t="shared" si="1"/>
         <v>-52.063231642628061</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="15">
         <f t="shared" si="2"/>
-        <v>-14.240215198995561</v>
+        <v>-27.164016715541266</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" si="3"/>
+        <v>17.899214927086831</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="5"/>
+        <v>55.063231642628097</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="6"/>
+        <v>-14.240215198995561</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="7"/>
         <v>30.823016443632536</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8">
-        <f t="shared" si="4"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I31" s="10">
-        <f t="shared" si="5"/>
+      <c r="M31" s="10">
+        <f t="shared" si="9"/>
         <v>44.063231642628097</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="8">
-        <f t="shared" si="6"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="8">
+        <f t="shared" si="10"/>
         <v>22.759784801004439</v>
       </c>
-      <c r="L31" s="9">
-        <f t="shared" si="7"/>
+      <c r="P31" s="9">
+        <f t="shared" si="11"/>
         <v>67.82301644363254</v>
       </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O31" s="9">
-        <f t="shared" si="7"/>
+      <c r="S31" s="9">
+        <f t="shared" si="11"/>
         <v>45.063231642628097</v>
       </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="8">
-        <f t="shared" si="9"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="8">
+        <f t="shared" si="13"/>
         <v>4.2799521780009862</v>
       </c>
-      <c r="R31" s="9">
-        <f t="shared" ref="R31" si="115">ABS($C31-Q31)</f>
+      <c r="V31" s="9">
+        <f t="shared" ref="V31" si="119">ABS($C31-U31)</f>
         <v>49.343183820629079</v>
       </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="8">
+      <c r="W31" s="7"/>
+      <c r="X31" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U31" s="9">
-        <f t="shared" ref="U31" si="116">ABS($C31-T31)</f>
+      <c r="Y31" s="9">
+        <f t="shared" ref="Y31" si="120">ABS($C31-X31)</f>
         <v>25.113808882869989</v>
       </c>
-      <c r="V31" s="7"/>
-      <c r="W31" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="8">
+        <f t="shared" si="16"/>
         <v>10.379892400502222</v>
       </c>
-      <c r="X31" s="9">
-        <f t="shared" ref="X31" si="117">ABS($C31-W31)</f>
+      <c r="AB31" s="9">
+        <f t="shared" ref="AB31" si="121">ABS($C31-AA31)</f>
         <v>55.443124043130318</v>
       </c>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="9">
-        <f t="shared" ref="AA31" si="118">ABS($C31-Z31)</f>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="9">
+        <f t="shared" ref="AE31" si="122">ABS($C31-AD31)</f>
         <v>45.063231642628097</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>9.5385069311135506</v>
       </c>
@@ -5700,76 +6193,92 @@
         <f t="shared" si="1"/>
         <v>-139.97467171235186</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="15">
         <f t="shared" si="2"/>
-        <v>1.1540277244542025</v>
+        <v>-46.40682036985347</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" si="3"/>
+        <v>86.567851342498528</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="5"/>
+        <v>142.97467171235201</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="6"/>
+        <v>1.1540277244542025</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="7"/>
         <v>134.12869943680622</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8">
-        <f t="shared" si="4"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I32" s="10">
-        <f t="shared" si="5"/>
+      <c r="M32" s="10">
+        <f t="shared" si="9"/>
         <v>131.97467171235201</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="8">
-        <f t="shared" si="6"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="8">
+        <f t="shared" si="10"/>
         <v>38.154027724454203</v>
       </c>
-      <c r="L32" s="9">
-        <f t="shared" si="7"/>
+      <c r="P32" s="9">
+        <f t="shared" si="11"/>
         <v>171.12869943680622</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O32" s="9">
-        <f t="shared" si="7"/>
+      <c r="S32" s="9">
+        <f t="shared" si="11"/>
         <v>132.97467171235201</v>
       </c>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="8">
-        <f t="shared" si="9"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="8">
+        <f t="shared" si="13"/>
         <v>7.7008950498787119</v>
       </c>
-      <c r="R32" s="9">
-        <f t="shared" ref="R32" si="119">ABS($C32-Q32)</f>
+      <c r="V32" s="9">
+        <f t="shared" ref="V32" si="123">ABS($C32-U32)</f>
         <v>140.67556676223072</v>
       </c>
-      <c r="S32" s="7"/>
-      <c r="T32" s="8">
+      <c r="W32" s="7"/>
+      <c r="X32" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U32" s="9">
-        <f t="shared" ref="U32" si="120">ABS($C32-T32)</f>
+      <c r="Y32" s="9">
+        <f t="shared" ref="Y32" si="124">ABS($C32-X32)</f>
         <v>113.0252489525939</v>
       </c>
-      <c r="V32" s="7"/>
-      <c r="W32" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="8">
+        <f t="shared" si="16"/>
         <v>18.077013862227101</v>
       </c>
-      <c r="X32" s="9">
-        <f t="shared" ref="X32" si="121">ABS($C32-W32)</f>
+      <c r="AB32" s="9">
+        <f t="shared" ref="AB32" si="125">ABS($C32-AA32)</f>
         <v>151.0516855745791</v>
       </c>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="9">
-        <f t="shared" ref="AA32" si="122">ABS($C32-Z32)</f>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="9">
+        <f t="shared" ref="AE32" si="126">ABS($C32-AD32)</f>
         <v>132.97467171235201</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>22.482269506799302</v>
       </c>
@@ -5780,76 +6289,92 @@
         <f t="shared" si="1"/>
         <v>-761.67866326453657</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="15">
         <f t="shared" si="2"/>
-        <v>52.929078027197207</v>
+        <v>-111.12563324828221</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" si="3"/>
+        <v>643.55303001625475</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="5"/>
+        <v>764.67866326453702</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="6"/>
+        <v>52.929078027197207</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="7"/>
         <v>807.60774129173421</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8">
-        <f t="shared" si="4"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I33" s="10">
-        <f t="shared" si="5"/>
+      <c r="M33" s="10">
+        <f t="shared" si="9"/>
         <v>753.67866326453702</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="8">
-        <f t="shared" si="6"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="8">
+        <f t="shared" si="10"/>
         <v>89.929078027197207</v>
       </c>
-      <c r="L33" s="9">
-        <f t="shared" si="7"/>
+      <c r="P33" s="9">
+        <f t="shared" si="11"/>
         <v>844.60774129173421</v>
       </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O33" s="9">
-        <f t="shared" si="7"/>
+      <c r="S33" s="9">
+        <f t="shared" si="11"/>
         <v>754.67866326453702</v>
       </c>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="8">
-        <f t="shared" si="9"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="8">
+        <f t="shared" si="13"/>
         <v>19.206461783821602</v>
       </c>
-      <c r="R33" s="9">
-        <f t="shared" ref="R33" si="123">ABS($C33-Q33)</f>
+      <c r="V33" s="9">
+        <f t="shared" ref="V33" si="127">ABS($C33-U33)</f>
         <v>773.88512504835865</v>
       </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="8">
+      <c r="W33" s="7"/>
+      <c r="X33" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U33" s="9">
-        <f t="shared" ref="U33" si="124">ABS($C33-T33)</f>
+      <c r="Y33" s="9">
+        <f t="shared" ref="Y33" si="128">ABS($C33-X33)</f>
         <v>734.72924050477889</v>
       </c>
-      <c r="V33" s="7"/>
-      <c r="W33" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="8">
+        <f t="shared" si="16"/>
         <v>43.964539013598603</v>
       </c>
-      <c r="X33" s="9">
-        <f t="shared" ref="X33" si="125">ABS($C33-W33)</f>
+      <c r="AB33" s="9">
+        <f t="shared" ref="AB33" si="129">ABS($C33-AA33)</f>
         <v>798.64320227813562</v>
       </c>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="9">
-        <f t="shared" ref="AA33" si="126">ABS($C33-Z33)</f>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="9">
+        <f t="shared" ref="AE33" si="130">ABS($C33-AD33)</f>
         <v>754.67866326453702</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>25.203823953836299</v>
       </c>
@@ -5860,76 +6385,92 @@
         <f t="shared" si="1"/>
         <v>-956.34911284395855</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="15">
         <f t="shared" si="2"/>
-        <v>63.815295815345195</v>
+        <v>-124.73340548346719</v>
       </c>
       <c r="F34" s="9">
         <f t="shared" si="3"/>
+        <v>824.61570736049578</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="5"/>
+        <v>959.34911284396298</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="6"/>
+        <v>63.815295815345195</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="7"/>
         <v>1013.1644086593082</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8">
-        <f t="shared" si="4"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="5"/>
+      <c r="M34" s="10">
+        <f t="shared" si="9"/>
         <v>948.34911284396298</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="8">
-        <f t="shared" si="6"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="8">
+        <f t="shared" si="10"/>
         <v>100.81529581534519</v>
       </c>
-      <c r="L34" s="9">
-        <f t="shared" si="7"/>
+      <c r="P34" s="9">
+        <f t="shared" si="11"/>
         <v>1050.1644086593083</v>
       </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O34" s="9">
-        <f t="shared" si="7"/>
+      <c r="S34" s="9">
+        <f t="shared" si="11"/>
         <v>949.34911284396298</v>
       </c>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="8">
-        <f t="shared" si="9"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="8">
+        <f t="shared" si="13"/>
         <v>21.625621292298931</v>
       </c>
-      <c r="R34" s="9">
-        <f t="shared" ref="R34" si="127">ABS($C34-Q34)</f>
+      <c r="V34" s="9">
+        <f t="shared" ref="V34" si="131">ABS($C34-U34)</f>
         <v>970.97473413626187</v>
       </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="8">
+      <c r="W34" s="7"/>
+      <c r="X34" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U34" s="9">
-        <f t="shared" ref="U34" si="128">ABS($C34-T34)</f>
+      <c r="Y34" s="9">
+        <f t="shared" ref="Y34" si="132">ABS($C34-X34)</f>
         <v>929.39969008420485</v>
       </c>
-      <c r="V34" s="7"/>
-      <c r="W34" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="8">
+        <f t="shared" si="16"/>
         <v>49.407647907672597</v>
       </c>
-      <c r="X34" s="9">
-        <f t="shared" ref="X34" si="129">ABS($C34-W34)</f>
+      <c r="AB34" s="9">
+        <f t="shared" ref="AB34" si="133">ABS($C34-AA34)</f>
         <v>998.75676075163562</v>
       </c>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="9">
-        <f t="shared" ref="AA34" si="130">ABS($C34-Z34)</f>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="9">
+        <f t="shared" ref="AE34" si="134">ABS($C34-AD34)</f>
         <v>949.34911284396298</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>32.009282463433998</v>
       </c>
@@ -5940,76 +6481,92 @@
         <f t="shared" si="1"/>
         <v>-1540.3912457358549</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="15">
         <f t="shared" si="2"/>
-        <v>91.037129853735991</v>
+        <v>-158.76069803145572</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" si="3"/>
+        <v>1374.6305477043943</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="5"/>
+        <v>1543.3912457358499</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="6"/>
+        <v>91.037129853735991</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="7"/>
         <v>1624.4283755895858</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8">
-        <f t="shared" si="4"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I35" s="10">
-        <f t="shared" si="5"/>
+      <c r="M35" s="10">
+        <f t="shared" si="9"/>
         <v>1532.3912457358499</v>
       </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="8">
-        <f t="shared" si="6"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="8">
+        <f t="shared" si="10"/>
         <v>128.03712985373599</v>
       </c>
-      <c r="L35" s="9">
-        <f t="shared" si="7"/>
+      <c r="P35" s="9">
+        <f t="shared" si="11"/>
         <v>1661.4283755895858</v>
       </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O35" s="9">
-        <f t="shared" si="7"/>
+      <c r="S35" s="9">
+        <f t="shared" si="11"/>
         <v>1533.3912457358499</v>
       </c>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="8">
-        <f t="shared" si="9"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="8">
+        <f t="shared" si="13"/>
         <v>27.674917745274666</v>
       </c>
-      <c r="R35" s="9">
-        <f t="shared" ref="R35" si="131">ABS($C35-Q35)</f>
+      <c r="V35" s="9">
+        <f t="shared" ref="V35" si="135">ABS($C35-U35)</f>
         <v>1561.0661634811245</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="8">
+      <c r="W35" s="7"/>
+      <c r="X35" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U35" s="9">
-        <f t="shared" ref="U35" si="132">ABS($C35-T35)</f>
+      <c r="Y35" s="9">
+        <f t="shared" ref="Y35" si="136">ABS($C35-X35)</f>
         <v>1513.4418229760918</v>
       </c>
-      <c r="V35" s="7"/>
-      <c r="W35" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="8">
+        <f t="shared" si="16"/>
         <v>63.018564926867995</v>
       </c>
-      <c r="X35" s="9">
-        <f t="shared" ref="X35" si="133">ABS($C35-W35)</f>
+      <c r="AB35" s="9">
+        <f t="shared" ref="AB35" si="137">ABS($C35-AA35)</f>
         <v>1596.409810662718</v>
       </c>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="9">
-        <f t="shared" ref="AA35" si="134">ABS($C35-Z35)</f>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="9">
+        <f t="shared" ref="AE35" si="138">ABS($C35-AD35)</f>
         <v>1533.3912457358499</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>44.165979696225399</v>
       </c>
@@ -6020,76 +6577,92 @@
         <f t="shared" si="1"/>
         <v>-2929.4506437910914</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="15">
         <f t="shared" si="2"/>
-        <v>139.6639187849016</v>
+        <v>-219.54418419541273</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" si="3"/>
+        <v>2702.9064595956875</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="5"/>
+        <v>2932.4506437911</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="6"/>
+        <v>139.6639187849016</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="7"/>
         <v>3062.1145625760014</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8">
-        <f t="shared" si="4"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I36" s="10">
-        <f t="shared" si="5"/>
+      <c r="M36" s="10">
+        <f t="shared" si="9"/>
         <v>2921.4506437911</v>
       </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="8">
-        <f t="shared" si="6"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="8">
+        <f t="shared" si="10"/>
         <v>176.6639187849016</v>
       </c>
-      <c r="L36" s="9">
-        <f t="shared" si="7"/>
+      <c r="P36" s="9">
+        <f t="shared" si="11"/>
         <v>3099.1145625760014</v>
       </c>
-      <c r="M36" s="7"/>
-      <c r="N36" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O36" s="9">
-        <f t="shared" si="7"/>
+      <c r="S36" s="9">
+        <f t="shared" si="11"/>
         <v>2922.4506437911</v>
       </c>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="8">
-        <f t="shared" si="9"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="8">
+        <f t="shared" si="13"/>
         <v>38.480870841089242</v>
       </c>
-      <c r="R36" s="9">
-        <f t="shared" ref="R36" si="135">ABS($C36-Q36)</f>
+      <c r="V36" s="9">
+        <f t="shared" ref="V36" si="139">ABS($C36-U36)</f>
         <v>2960.9315146321892</v>
       </c>
-      <c r="S36" s="7"/>
-      <c r="T36" s="8">
+      <c r="W36" s="7"/>
+      <c r="X36" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U36" s="9">
-        <f t="shared" ref="U36" si="136">ABS($C36-T36)</f>
+      <c r="Y36" s="9">
+        <f t="shared" ref="Y36" si="140">ABS($C36-X36)</f>
         <v>2902.5012210313421</v>
       </c>
-      <c r="V36" s="7"/>
-      <c r="W36" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="8">
+        <f t="shared" si="16"/>
         <v>87.331959392450798</v>
       </c>
-      <c r="X36" s="9">
-        <f t="shared" ref="X36" si="137">ABS($C36-W36)</f>
+      <c r="AB36" s="9">
+        <f t="shared" ref="AB36" si="141">ABS($C36-AA36)</f>
         <v>3009.7826031835507</v>
       </c>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="9">
-        <f t="shared" ref="AA36" si="138">ABS($C36-Z36)</f>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="9">
+        <f t="shared" ref="AE36" si="142">ABS($C36-AD36)</f>
         <v>2922.4506437911</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>77.565534442329096</v>
       </c>
@@ -6100,76 +6673,92 @@
         <f t="shared" si="1"/>
         <v>-9028.118199986211</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="15">
         <f t="shared" si="2"/>
-        <v>273.26213776931638</v>
+        <v>-386.54195792593117</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" si="3"/>
+        <v>8634.5762420602787</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="5"/>
+        <v>9031.1181999862092</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="6"/>
+        <v>273.26213776931638</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="7"/>
         <v>9294.380337755525</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8">
-        <f t="shared" si="4"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I37" s="10">
-        <f t="shared" si="5"/>
+      <c r="M37" s="10">
+        <f t="shared" si="9"/>
         <v>9020.1181999862092</v>
       </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="8">
-        <f t="shared" si="6"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="8">
+        <f t="shared" si="10"/>
         <v>310.26213776931638</v>
       </c>
-      <c r="L37" s="9">
-        <f t="shared" si="7"/>
+      <c r="P37" s="9">
+        <f t="shared" si="11"/>
         <v>9331.380337755525</v>
       </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O37" s="9">
-        <f t="shared" si="7"/>
+      <c r="S37" s="9">
+        <f t="shared" si="11"/>
         <v>9021.1181999862092</v>
       </c>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="8">
-        <f t="shared" si="9"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="8">
+        <f t="shared" si="13"/>
         <v>68.169363948736972</v>
       </c>
-      <c r="R37" s="9">
-        <f t="shared" ref="R37" si="139">ABS($C37-Q37)</f>
+      <c r="V37" s="9">
+        <f t="shared" ref="V37" si="143">ABS($C37-U37)</f>
         <v>9089.2875639349459</v>
       </c>
-      <c r="S37" s="7"/>
-      <c r="T37" s="8">
+      <c r="W37" s="7"/>
+      <c r="X37" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U37" s="9">
-        <f t="shared" ref="U37" si="140">ABS($C37-T37)</f>
+      <c r="Y37" s="9">
+        <f t="shared" ref="Y37" si="144">ABS($C37-X37)</f>
         <v>9001.1687772264504</v>
       </c>
-      <c r="V37" s="7"/>
-      <c r="W37" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="8">
+        <f t="shared" si="16"/>
         <v>154.13106888465819</v>
       </c>
-      <c r="X37" s="9">
-        <f t="shared" ref="X37" si="141">ABS($C37-W37)</f>
+      <c r="AB37" s="9">
+        <f t="shared" ref="AB37" si="145">ABS($C37-AA37)</f>
         <v>9175.249268870868</v>
       </c>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="9">
-        <f t="shared" ref="AA37" si="142">ABS($C37-Z37)</f>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="9">
+        <f t="shared" ref="AE37" si="146">ABS($C37-AD37)</f>
         <v>9021.1181999862092</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>86.025749684104099</v>
       </c>
@@ -6180,76 +6769,92 @@
         <f t="shared" si="1"/>
         <v>-11104.144413068205</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="15">
         <f t="shared" si="2"/>
-        <v>307.1029987364164</v>
+        <v>-428.8430341348062</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" si="3"/>
+        <v>10668.301378933393</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="5"/>
+        <v>11107.144413068199</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="6"/>
+        <v>307.1029987364164</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="7"/>
         <v>11404.247411804616</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8">
-        <f t="shared" si="4"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I38" s="10">
-        <f t="shared" si="5"/>
+      <c r="M38" s="10">
+        <f t="shared" si="9"/>
         <v>11096.144413068199</v>
       </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="8">
-        <f t="shared" si="6"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="8">
+        <f t="shared" si="10"/>
         <v>344.1029987364164</v>
       </c>
-      <c r="L38" s="9">
-        <f t="shared" si="7"/>
+      <c r="P38" s="9">
+        <f t="shared" si="11"/>
         <v>11441.247411804616</v>
       </c>
-      <c r="M38" s="7"/>
-      <c r="N38" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O38" s="9">
-        <f t="shared" si="7"/>
+      <c r="S38" s="9">
+        <f t="shared" si="11"/>
         <v>11097.144413068199</v>
       </c>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="8">
-        <f t="shared" si="9"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="8">
+        <f t="shared" si="13"/>
         <v>75.689555274759201</v>
       </c>
-      <c r="R38" s="9">
-        <f t="shared" ref="R38" si="143">ABS($C38-Q38)</f>
+      <c r="V38" s="9">
+        <f t="shared" ref="V38" si="147">ABS($C38-U38)</f>
         <v>11172.833968342959</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="8">
+      <c r="W38" s="7"/>
+      <c r="X38" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U38" s="9">
-        <f t="shared" ref="U38" si="144">ABS($C38-T38)</f>
+      <c r="Y38" s="9">
+        <f t="shared" ref="Y38" si="148">ABS($C38-X38)</f>
         <v>11077.194990308441</v>
       </c>
-      <c r="V38" s="7"/>
-      <c r="W38" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="8">
+        <f t="shared" si="16"/>
         <v>171.0514993682082</v>
       </c>
-      <c r="X38" s="9">
-        <f t="shared" ref="X38" si="145">ABS($C38-W38)</f>
+      <c r="AB38" s="9">
+        <f t="shared" ref="AB38" si="149">ABS($C38-AA38)</f>
         <v>11268.195912436408</v>
       </c>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="9">
-        <f t="shared" ref="AA38" si="146">ABS($C38-Z38)</f>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="9">
+        <f t="shared" ref="AE38" si="150">ABS($C38-AD38)</f>
         <v>11097.144413068199</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>99.274867572372898</v>
       </c>
@@ -6260,76 +6865,92 @@
         <f t="shared" si="1"/>
         <v>-14786.748997268263</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="15">
         <f t="shared" si="2"/>
-        <v>360.09947028949159</v>
+        <v>-495.08862357615021</v>
       </c>
       <c r="F39" s="9">
         <f t="shared" si="3"/>
+        <v>14284.66037369205</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="5"/>
+        <v>14789.7489972682</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="6"/>
+        <v>360.09947028949159</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="7"/>
         <v>15139.848467557691</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8">
-        <f t="shared" si="4"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I39" s="10">
-        <f t="shared" si="5"/>
+      <c r="M39" s="10">
+        <f t="shared" si="9"/>
         <v>14778.7489972682</v>
       </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="8">
-        <f t="shared" si="6"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="8">
+        <f t="shared" si="10"/>
         <v>397.09947028949159</v>
       </c>
-      <c r="L39" s="9">
-        <f t="shared" si="7"/>
+      <c r="P39" s="9">
+        <f t="shared" si="11"/>
         <v>15176.848467557691</v>
       </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O39" s="9">
-        <f t="shared" si="7"/>
+      <c r="S39" s="9">
+        <f t="shared" si="11"/>
         <v>14779.7489972682</v>
       </c>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="8">
-        <f t="shared" si="9"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="8">
+        <f t="shared" si="13"/>
         <v>87.466548953220354</v>
       </c>
-      <c r="R39" s="9">
-        <f t="shared" ref="R39" si="147">ABS($C39-Q39)</f>
+      <c r="V39" s="9">
+        <f t="shared" ref="V39" si="151">ABS($C39-U39)</f>
         <v>14867.21554622142</v>
       </c>
-      <c r="S39" s="7"/>
-      <c r="T39" s="8">
+      <c r="W39" s="7"/>
+      <c r="X39" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U39" s="9">
-        <f t="shared" ref="U39" si="148">ABS($C39-T39)</f>
+      <c r="Y39" s="9">
+        <f t="shared" ref="Y39" si="152">ABS($C39-X39)</f>
         <v>14759.799574508441</v>
       </c>
-      <c r="V39" s="7"/>
-      <c r="W39" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="8">
+        <f t="shared" si="16"/>
         <v>197.5497351447458</v>
       </c>
-      <c r="X39" s="9">
-        <f t="shared" ref="X39" si="149">ABS($C39-W39)</f>
+      <c r="AB39" s="9">
+        <f t="shared" ref="AB39" si="153">ABS($C39-AA39)</f>
         <v>14977.298732412946</v>
       </c>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="9">
-        <f t="shared" ref="AA39" si="150">ABS($C39-Z39)</f>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="9">
+        <f t="shared" ref="AE39" si="154">ABS($C39-AD39)</f>
         <v>14779.7489972682</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <v>134.37245324912399</v>
       </c>
@@ -6340,76 +6961,92 @@
         <f t="shared" si="1"/>
         <v>-27087.43428828202</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="15">
         <f t="shared" si="2"/>
-        <v>500.48981299649597</v>
+        <v>-670.5765519599056</v>
       </c>
       <c r="F40" s="9">
         <f t="shared" si="3"/>
+        <v>26409.857736322094</v>
+      </c>
+      <c r="G40" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="5"/>
+        <v>27090.434288281998</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="6"/>
+        <v>500.48981299649597</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="7"/>
         <v>27580.924101278495</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8">
-        <f t="shared" si="4"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="5"/>
+      <c r="M40" s="10">
+        <f t="shared" si="9"/>
         <v>27079.434288281998</v>
       </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="8">
-        <f t="shared" si="6"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="8">
+        <f t="shared" si="10"/>
         <v>537.48981299649597</v>
       </c>
-      <c r="L40" s="9">
-        <f t="shared" si="7"/>
+      <c r="P40" s="9">
+        <f t="shared" si="11"/>
         <v>27617.924101278495</v>
       </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O40" s="9">
-        <f t="shared" si="7"/>
+      <c r="S40" s="9">
+        <f t="shared" si="11"/>
         <v>27080.434288281998</v>
       </c>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="8">
-        <f t="shared" si="9"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="8">
+        <f t="shared" si="13"/>
         <v>118.66440288811022</v>
       </c>
-      <c r="R40" s="9">
-        <f t="shared" ref="R40" si="151">ABS($C40-Q40)</f>
+      <c r="V40" s="9">
+        <f t="shared" ref="V40" si="155">ABS($C40-U40)</f>
         <v>27199.098691170107</v>
       </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="8">
+      <c r="W40" s="7"/>
+      <c r="X40" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U40" s="9">
-        <f t="shared" ref="U40" si="152">ABS($C40-T40)</f>
+      <c r="Y40" s="9">
+        <f t="shared" ref="Y40" si="156">ABS($C40-X40)</f>
         <v>27060.484865522241</v>
       </c>
-      <c r="V40" s="7"/>
-      <c r="W40" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="8">
+        <f t="shared" si="16"/>
         <v>267.74490649824799</v>
       </c>
-      <c r="X40" s="9">
-        <f t="shared" ref="X40" si="153">ABS($C40-W40)</f>
+      <c r="AB40" s="9">
+        <f t="shared" ref="AB40" si="157">ABS($C40-AA40)</f>
         <v>27348.179194780245</v>
       </c>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="9">
-        <f t="shared" ref="AA40" si="154">ABS($C40-Z40)</f>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="9">
+        <f t="shared" ref="AE40" si="158">ABS($C40-AD40)</f>
         <v>27080.434288281998</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>293.99599273640399</v>
       </c>
@@ -6420,76 +7057,92 @@
         <f t="shared" si="1"/>
         <v>-129653.96561759556</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="15">
         <f t="shared" si="2"/>
-        <v>1138.983970945616</v>
+        <v>-1468.6942493963056</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" si="3"/>
+        <v>128178.27136819869</v>
+      </c>
+      <c r="G41" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="5"/>
+        <v>129656.96561759499</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="6"/>
+        <v>1138.983970945616</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="7"/>
         <v>130785.94958854061</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8">
-        <f t="shared" si="4"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I41" s="10">
-        <f t="shared" si="5"/>
+      <c r="M41" s="10">
+        <f t="shared" si="9"/>
         <v>129645.96561759499</v>
       </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="8">
-        <f t="shared" si="6"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="8">
+        <f t="shared" si="10"/>
         <v>1175.983970945616</v>
       </c>
-      <c r="L41" s="9">
-        <f t="shared" si="7"/>
+      <c r="P41" s="9">
+        <f t="shared" si="11"/>
         <v>130822.94958854061</v>
       </c>
-      <c r="M41" s="7"/>
-      <c r="N41" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O41" s="9">
-        <f t="shared" si="7"/>
+      <c r="S41" s="9">
+        <f t="shared" si="11"/>
         <v>129646.96561759499</v>
       </c>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="8">
-        <f t="shared" si="9"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="8">
+        <f t="shared" si="13"/>
         <v>260.55199354347019</v>
       </c>
-      <c r="R41" s="9">
-        <f t="shared" ref="R41" si="155">ABS($C41-Q41)</f>
+      <c r="V41" s="9">
+        <f t="shared" ref="V41" si="159">ABS($C41-U41)</f>
         <v>129907.51761113846</v>
       </c>
-      <c r="S41" s="7"/>
-      <c r="T41" s="8">
+      <c r="W41" s="7"/>
+      <c r="X41" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U41" s="9">
-        <f t="shared" ref="U41" si="156">ABS($C41-T41)</f>
+      <c r="Y41" s="9">
+        <f t="shared" ref="Y41" si="160">ABS($C41-X41)</f>
         <v>129627.01619483523</v>
       </c>
-      <c r="V41" s="7"/>
-      <c r="W41" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="8">
+        <f t="shared" si="16"/>
         <v>586.99198547280798</v>
       </c>
-      <c r="X41" s="9">
-        <f t="shared" ref="X41" si="157">ABS($C41-W41)</f>
+      <c r="AB41" s="9">
+        <f t="shared" ref="AB41" si="161">ABS($C41-AA41)</f>
         <v>130233.9576030678</v>
       </c>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="9">
-        <f t="shared" ref="AA41" si="158">ABS($C41-Z41)</f>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="9">
+        <f t="shared" ref="AE41" si="162">ABS($C41-AD41)</f>
         <v>129646.96561759499</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <v>364.32872056922901</v>
       </c>
@@ -6500,76 +7153,92 @@
         <f t="shared" si="1"/>
         <v>-199106.62494741703</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="15">
         <f t="shared" si="2"/>
-        <v>1420.314882276916</v>
+        <v>-1820.3578885604309</v>
       </c>
       <c r="F42" s="9">
         <f t="shared" si="3"/>
+        <v>197279.26705885658</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="5"/>
+        <v>199109.624947417</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="6"/>
+        <v>1420.314882276916</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="7"/>
         <v>200519.93982969393</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8">
-        <f t="shared" si="4"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I42" s="10">
-        <f t="shared" si="5"/>
+      <c r="M42" s="10">
+        <f t="shared" si="9"/>
         <v>199098.624947417</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="8">
-        <f t="shared" si="6"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="8">
+        <f t="shared" si="10"/>
         <v>1457.314882276916</v>
       </c>
-      <c r="L42" s="9">
-        <f t="shared" si="7"/>
+      <c r="P42" s="9">
+        <f t="shared" si="11"/>
         <v>200556.93982969393</v>
       </c>
-      <c r="M42" s="7"/>
-      <c r="N42" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O42" s="9">
-        <f t="shared" si="7"/>
+      <c r="S42" s="9">
+        <f t="shared" si="11"/>
         <v>199099.624947417</v>
       </c>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="8">
-        <f t="shared" si="9"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="8">
+        <f t="shared" si="13"/>
         <v>323.06997383931468</v>
       </c>
-      <c r="R42" s="9">
-        <f t="shared" ref="R42" si="159">ABS($C42-Q42)</f>
+      <c r="V42" s="9">
+        <f t="shared" ref="V42" si="163">ABS($C42-U42)</f>
         <v>199422.6949212563</v>
       </c>
-      <c r="S42" s="7"/>
-      <c r="T42" s="8">
+      <c r="W42" s="7"/>
+      <c r="X42" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U42" s="9">
-        <f t="shared" ref="U42" si="160">ABS($C42-T42)</f>
+      <c r="Y42" s="9">
+        <f t="shared" ref="Y42" si="164">ABS($C42-X42)</f>
         <v>199079.67552465724</v>
       </c>
-      <c r="V42" s="7"/>
-      <c r="W42" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="8">
+        <f t="shared" si="16"/>
         <v>727.65744113845801</v>
       </c>
-      <c r="X42" s="9">
-        <f t="shared" ref="X42" si="161">ABS($C42-W42)</f>
+      <c r="AB42" s="9">
+        <f t="shared" ref="AB42" si="165">ABS($C42-AA42)</f>
         <v>199827.28238855547</v>
       </c>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="9">
-        <f t="shared" ref="AA42" si="162">ABS($C42-Z42)</f>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="9">
+        <f t="shared" ref="AE42" si="166">ABS($C42-AD42)</f>
         <v>199099.624947417</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>423.53104421113699</v>
       </c>
@@ -6580,76 +7249,92 @@
         <f t="shared" si="1"/>
         <v>-269071.31811586412</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="15">
         <f t="shared" si="2"/>
-        <v>1657.1241768445479</v>
+        <v>-2116.3695067699705</v>
       </c>
       <c r="F43" s="9">
         <f t="shared" si="3"/>
+        <v>266947.94860909501</v>
+      </c>
+      <c r="G43" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="5"/>
+        <v>269074.318115865</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="6"/>
+        <v>1657.1241768445479</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="7"/>
         <v>270721.44229270954</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8">
-        <f t="shared" si="4"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I43" s="10">
-        <f t="shared" si="5"/>
+      <c r="M43" s="10">
+        <f t="shared" si="9"/>
         <v>269063.318115865</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="8">
-        <f t="shared" si="6"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="8">
+        <f t="shared" si="10"/>
         <v>1694.1241768445479</v>
       </c>
-      <c r="L43" s="9">
-        <f t="shared" si="7"/>
+      <c r="P43" s="9">
+        <f t="shared" si="11"/>
         <v>270758.44229270954</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O43" s="9">
-        <f t="shared" si="7"/>
+      <c r="S43" s="9">
+        <f t="shared" si="11"/>
         <v>269064.318115865</v>
       </c>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="8">
-        <f t="shared" si="9"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8">
+        <f t="shared" si="13"/>
         <v>375.69426152101067</v>
       </c>
-      <c r="R43" s="9">
-        <f t="shared" ref="R43" si="163">ABS($C43-Q43)</f>
+      <c r="V43" s="9">
+        <f t="shared" ref="V43" si="167">ABS($C43-U43)</f>
         <v>269440.01237738598</v>
       </c>
-      <c r="S43" s="7"/>
-      <c r="T43" s="8">
+      <c r="W43" s="7"/>
+      <c r="X43" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U43" s="9">
-        <f t="shared" ref="U43" si="164">ABS($C43-T43)</f>
+      <c r="Y43" s="9">
+        <f t="shared" ref="Y43" si="168">ABS($C43-X43)</f>
         <v>269044.36869310524</v>
       </c>
-      <c r="V43" s="7"/>
-      <c r="W43" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="8">
+        <f t="shared" si="16"/>
         <v>846.06208842227397</v>
       </c>
-      <c r="X43" s="9">
-        <f t="shared" ref="X43" si="165">ABS($C43-W43)</f>
+      <c r="AB43" s="9">
+        <f t="shared" ref="AB43" si="169">ABS($C43-AA43)</f>
         <v>269910.3802042873</v>
       </c>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="9">
-        <f t="shared" ref="AA43" si="166">ABS($C43-Z43)</f>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="9">
+        <f t="shared" ref="AE43" si="170">ABS($C43-AD43)</f>
         <v>269064.318115865</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <v>451.12387459284798</v>
       </c>
@@ -6660,76 +7345,92 @@
         <f t="shared" si="1"/>
         <v>-305272.62534149544</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="15">
         <f t="shared" si="2"/>
-        <v>1767.4954983713919</v>
+        <v>-2254.3336586785258</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" si="3"/>
+        <v>303011.29168281646</v>
+      </c>
+      <c r="G44" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="5"/>
+        <v>305275.62534149498</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="6"/>
+        <v>1767.4954983713919</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="7"/>
         <v>307033.12083986634</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8">
-        <f t="shared" si="4"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I44" s="10">
-        <f t="shared" si="5"/>
+      <c r="M44" s="10">
+        <f t="shared" si="9"/>
         <v>305264.62534149498</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="8">
-        <f t="shared" si="6"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="8">
+        <f t="shared" si="10"/>
         <v>1804.4954983713919</v>
       </c>
-      <c r="L44" s="9">
-        <f t="shared" si="7"/>
+      <c r="P44" s="9">
+        <f t="shared" si="11"/>
         <v>307070.12083986634</v>
       </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O44" s="9">
-        <f t="shared" si="7"/>
+      <c r="S44" s="9">
+        <f t="shared" si="11"/>
         <v>305265.62534149498</v>
       </c>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="8">
-        <f t="shared" si="9"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="8">
+        <f t="shared" si="13"/>
         <v>400.2212218603093</v>
       </c>
-      <c r="R44" s="9">
-        <f t="shared" ref="R44" si="167">ABS($C44-Q44)</f>
+      <c r="V44" s="9">
+        <f t="shared" ref="V44" si="171">ABS($C44-U44)</f>
         <v>305665.8465633553</v>
       </c>
-      <c r="S44" s="7"/>
-      <c r="T44" s="8">
+      <c r="W44" s="7"/>
+      <c r="X44" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U44" s="9">
-        <f t="shared" ref="U44" si="168">ABS($C44-T44)</f>
+      <c r="Y44" s="9">
+        <f t="shared" ref="Y44" si="172">ABS($C44-X44)</f>
         <v>305245.67591873521</v>
       </c>
-      <c r="V44" s="7"/>
-      <c r="W44" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="8">
+        <f t="shared" si="16"/>
         <v>901.24774918569597</v>
       </c>
-      <c r="X44" s="9">
-        <f t="shared" ref="X44" si="169">ABS($C44-W44)</f>
+      <c r="AB44" s="9">
+        <f t="shared" ref="AB44" si="173">ABS($C44-AA44)</f>
         <v>306166.87309068069</v>
       </c>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="9">
-        <f t="shared" ref="AA44" si="170">ABS($C44-Z44)</f>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="9">
+        <f t="shared" ref="AE44" si="174">ABS($C44-AD44)</f>
         <v>305265.62534149498</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>785.33189978552696</v>
       </c>
@@ -6740,76 +7441,92 @@
         <f t="shared" si="1"/>
         <v>-925122.78923111735</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="15">
         <f t="shared" si="2"/>
-        <v>3104.3275991421078</v>
+        <v>-3925.3737846419203</v>
       </c>
       <c r="F45" s="9">
         <f t="shared" si="3"/>
+        <v>921190.41544647701</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="5"/>
+        <v>925125.78923111898</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="6"/>
+        <v>3104.3275991421078</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="7"/>
         <v>928220.11683026107</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8">
-        <f t="shared" si="4"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I45" s="10">
-        <f t="shared" si="5"/>
+      <c r="M45" s="10">
+        <f t="shared" si="9"/>
         <v>925114.78923111898</v>
       </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="8">
-        <f t="shared" si="6"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="8">
+        <f t="shared" si="10"/>
         <v>3141.3275991421078</v>
       </c>
-      <c r="L45" s="9">
-        <f t="shared" si="7"/>
+      <c r="P45" s="9">
+        <f t="shared" si="11"/>
         <v>928257.11683026107</v>
       </c>
-      <c r="M45" s="7"/>
-      <c r="N45" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O45" s="9">
-        <f t="shared" si="7"/>
+      <c r="S45" s="9">
+        <f t="shared" si="11"/>
         <v>925115.78923111898</v>
       </c>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="8">
-        <f t="shared" si="9"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="8">
+        <f t="shared" si="13"/>
         <v>697.29502203157949</v>
       </c>
-      <c r="R45" s="9">
-        <f t="shared" ref="R45" si="171">ABS($C45-Q45)</f>
+      <c r="V45" s="9">
+        <f t="shared" ref="V45" si="175">ABS($C45-U45)</f>
         <v>925813.0842531505</v>
       </c>
-      <c r="S45" s="7"/>
-      <c r="T45" s="8">
+      <c r="W45" s="7"/>
+      <c r="X45" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U45" s="9">
-        <f t="shared" ref="U45" si="172">ABS($C45-T45)</f>
+      <c r="Y45" s="9">
+        <f t="shared" ref="Y45" si="176">ABS($C45-X45)</f>
         <v>925095.83980835928</v>
       </c>
-      <c r="V45" s="7"/>
-      <c r="W45" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="8">
+        <f t="shared" si="16"/>
         <v>1569.6637995710539</v>
       </c>
-      <c r="X45" s="9">
-        <f t="shared" ref="X45" si="173">ABS($C45-W45)</f>
+      <c r="AB45" s="9">
+        <f t="shared" ref="AB45" si="177">ABS($C45-AA45)</f>
         <v>926685.45303069009</v>
       </c>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="9">
-        <f t="shared" ref="AA45" si="174">ABS($C45-Z45)</f>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="9">
+        <f t="shared" ref="AE45" si="178">ABS($C45-AD45)</f>
         <v>925115.78923111898</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>919.53028060027702</v>
       </c>
@@ -6820,76 +7537,92 @@
         <f t="shared" si="1"/>
         <v>-1268307.4054112362</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="15">
         <f t="shared" si="2"/>
-        <v>3641.1211224011081</v>
+        <v>-4596.3656887156703</v>
       </c>
       <c r="F46" s="9">
         <f t="shared" si="3"/>
+        <v>1263704.0397225143</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="5"/>
+        <v>1268310.4054112299</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="6"/>
+        <v>3641.1211224011081</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="7"/>
         <v>1271941.5265336311</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8">
-        <f t="shared" si="4"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I46" s="10">
-        <f t="shared" si="5"/>
+      <c r="M46" s="10">
+        <f t="shared" si="9"/>
         <v>1268299.4054112299</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="8">
-        <f t="shared" si="6"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="8">
+        <f t="shared" si="10"/>
         <v>3678.1211224011081</v>
       </c>
-      <c r="L46" s="9">
-        <f t="shared" si="7"/>
+      <c r="P46" s="9">
+        <f t="shared" si="11"/>
         <v>1271978.5265336311</v>
       </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O46" s="9">
-        <f t="shared" si="7"/>
+      <c r="S46" s="9">
+        <f t="shared" si="11"/>
         <v>1268300.4054112299</v>
       </c>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="8">
-        <f t="shared" si="9"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="8">
+        <f t="shared" si="13"/>
         <v>816.58247164469071</v>
       </c>
-      <c r="R46" s="9">
-        <f t="shared" ref="R46" si="175">ABS($C46-Q46)</f>
+      <c r="V46" s="9">
+        <f t="shared" ref="V46" si="179">ABS($C46-U46)</f>
         <v>1269116.9878828747</v>
       </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="8">
+      <c r="W46" s="7"/>
+      <c r="X46" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U46" s="9">
-        <f t="shared" ref="U46" si="176">ABS($C46-T46)</f>
+      <c r="Y46" s="9">
+        <f t="shared" ref="Y46" si="180">ABS($C46-X46)</f>
         <v>1268280.4559884702</v>
       </c>
-      <c r="V46" s="7"/>
-      <c r="W46" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="8">
+        <f t="shared" si="16"/>
         <v>1838.060561200554</v>
       </c>
-      <c r="X46" s="9">
-        <f t="shared" ref="X46" si="177">ABS($C46-W46)</f>
+      <c r="AB46" s="9">
+        <f t="shared" ref="AB46" si="181">ABS($C46-AA46)</f>
         <v>1270138.4659724305</v>
       </c>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="9">
-        <f t="shared" ref="AA46" si="178">ABS($C46-Z46)</f>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="9">
+        <f t="shared" ref="AE46" si="182">ABS($C46-AD46)</f>
         <v>1268300.4054112299</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>969.50236485882294</v>
       </c>
@@ -6900,76 +7633,92 @@
         <f t="shared" si="1"/>
         <v>-1409905.7532002754</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="15">
         <f t="shared" si="2"/>
-        <v>3841.0094594352918</v>
+        <v>-4846.2261100083997</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" si="3"/>
+        <v>1405052.5270902617</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="5"/>
+        <v>1409908.75320027</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="6"/>
+        <v>3841.0094594352918</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="7"/>
         <v>1413739.7626597052</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8">
-        <f t="shared" si="4"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I47" s="10">
-        <f t="shared" si="5"/>
+      <c r="M47" s="10">
+        <f t="shared" si="9"/>
         <v>1409897.75320027</v>
       </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="8">
-        <f t="shared" si="6"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="8">
+        <f t="shared" si="10"/>
         <v>3878.0094594352918</v>
       </c>
-      <c r="L47" s="9">
-        <f t="shared" si="7"/>
+      <c r="P47" s="9">
+        <f t="shared" si="11"/>
         <v>1413776.7626597052</v>
       </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O47" s="9">
-        <f t="shared" si="7"/>
+      <c r="S47" s="9">
+        <f t="shared" si="11"/>
         <v>1409898.75320027</v>
       </c>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="8">
-        <f t="shared" si="9"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="8">
+        <f t="shared" si="13"/>
         <v>861.00210209673151</v>
       </c>
-      <c r="R47" s="9">
-        <f t="shared" ref="R47" si="179">ABS($C47-Q47)</f>
+      <c r="V47" s="9">
+        <f t="shared" ref="V47" si="183">ABS($C47-U47)</f>
         <v>1410759.7553023668</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="8">
+      <c r="W47" s="7"/>
+      <c r="X47" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U47" s="9">
-        <f t="shared" ref="U47" si="180">ABS($C47-T47)</f>
+      <c r="Y47" s="9">
+        <f t="shared" ref="Y47" si="184">ABS($C47-X47)</f>
         <v>1409878.8037775103</v>
       </c>
-      <c r="V47" s="7"/>
-      <c r="W47" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="8">
+        <f t="shared" si="16"/>
         <v>1938.0047297176459</v>
       </c>
-      <c r="X47" s="9">
-        <f t="shared" ref="X47" si="181">ABS($C47-W47)</f>
+      <c r="AB47" s="9">
+        <f t="shared" ref="AB47" si="185">ABS($C47-AA47)</f>
         <v>1411836.7579299877</v>
       </c>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="9">
-        <f t="shared" ref="AA47" si="182">ABS($C47-Z47)</f>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="9">
+        <f t="shared" ref="AE47" si="186">ABS($C47-AD47)</f>
         <v>1409898.75320027</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
         <v>976.50004884776502</v>
       </c>
@@ -6980,76 +7729,92 @@
         <f t="shared" si="1"/>
         <v>-1430332.0180995311</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="15">
         <f t="shared" si="2"/>
-        <v>3869.0001953910601</v>
+        <v>-4881.2145299531103</v>
       </c>
       <c r="F48" s="9">
         <f t="shared" si="3"/>
+        <v>1425443.8035695767</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="5"/>
+        <v>1430335.0180995299</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="6"/>
+        <v>3869.0001953910601</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="7"/>
         <v>1434194.0182949209</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8">
-        <f t="shared" si="4"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I48" s="10">
-        <f t="shared" si="5"/>
+      <c r="M48" s="10">
+        <f t="shared" si="9"/>
         <v>1430324.0180995299</v>
       </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="8">
-        <f t="shared" si="6"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="8">
+        <f t="shared" si="10"/>
         <v>3906.0001953910601</v>
       </c>
-      <c r="L48" s="9">
-        <f t="shared" si="7"/>
+      <c r="P48" s="9">
+        <f t="shared" si="11"/>
         <v>1434231.0182949209</v>
       </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O48" s="9">
-        <f t="shared" si="7"/>
+      <c r="S48" s="9">
+        <f t="shared" si="11"/>
         <v>1430325.0180995299</v>
       </c>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="8">
-        <f t="shared" si="9"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="8">
+        <f t="shared" si="13"/>
         <v>867.22226564245784</v>
       </c>
-      <c r="R48" s="9">
-        <f t="shared" ref="R48" si="183">ABS($C48-Q48)</f>
+      <c r="V48" s="9">
+        <f t="shared" ref="V48" si="187">ABS($C48-U48)</f>
         <v>1431192.2403651723</v>
       </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="8">
+      <c r="W48" s="7"/>
+      <c r="X48" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U48" s="9">
-        <f t="shared" ref="U48" si="184">ABS($C48-T48)</f>
+      <c r="Y48" s="9">
+        <f t="shared" ref="Y48" si="188">ABS($C48-X48)</f>
         <v>1430305.0686767702</v>
       </c>
-      <c r="V48" s="7"/>
-      <c r="W48" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="8">
+        <f t="shared" si="16"/>
         <v>1952.00009769553</v>
       </c>
-      <c r="X48" s="9">
-        <f t="shared" ref="X48" si="185">ABS($C48-W48)</f>
+      <c r="AB48" s="9">
+        <f t="shared" ref="AB48" si="189">ABS($C48-AA48)</f>
         <v>1432277.0181972254</v>
       </c>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="9">
-        <f t="shared" ref="AA48" si="186">ABS($C48-Z48)</f>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="9">
+        <f t="shared" ref="AE48" si="190">ABS($C48-AD48)</f>
         <v>1430325.0180995299</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="5">
         <v>982.85888045276999</v>
       </c>
@@ -7060,120 +7825,146 @@
         <f t="shared" si="1"/>
         <v>-1449020.8683273084</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="15">
         <f t="shared" si="2"/>
-        <v>3894.43552181108</v>
+        <v>-4913.0086879781356</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="3"/>
+        <v>1444100.8596393319</v>
+      </c>
+      <c r="G49" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="5"/>
+        <v>1449023.8683273101</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="6"/>
+        <v>3894.43552181108</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="7"/>
         <v>1452908.3038491211</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8">
-        <f t="shared" si="4"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I49" s="10">
-        <f t="shared" si="5"/>
+      <c r="M49" s="10">
+        <f t="shared" si="9"/>
         <v>1449012.8683273101</v>
       </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="8">
-        <f t="shared" si="6"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="8">
+        <f t="shared" si="10"/>
         <v>3931.43552181108</v>
       </c>
-      <c r="L49" s="9">
-        <f t="shared" si="7"/>
+      <c r="P49" s="9">
+        <f t="shared" si="11"/>
         <v>1452945.3038491211</v>
       </c>
-      <c r="M49" s="7"/>
-      <c r="N49" s="8">
-        <f t="shared" si="8"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O49" s="9">
-        <f t="shared" si="7"/>
+      <c r="S49" s="9">
+        <f t="shared" si="11"/>
         <v>1449013.8683273101</v>
       </c>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="8">
-        <f t="shared" si="9"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="8">
+        <f t="shared" si="13"/>
         <v>872.87456040246218</v>
       </c>
-      <c r="R49" s="9">
-        <f t="shared" ref="R49" si="187">ABS($C49-Q49)</f>
+      <c r="V49" s="9">
+        <f t="shared" ref="V49" si="191">ABS($C49-U49)</f>
         <v>1449886.7428877125</v>
       </c>
-      <c r="S49" s="7"/>
-      <c r="T49" s="8">
+      <c r="W49" s="7"/>
+      <c r="X49" s="8">
         <f t="shared" si="0"/>
         <v>-19.949422759758107</v>
       </c>
-      <c r="U49" s="9">
-        <f t="shared" ref="U49" si="188">ABS($C49-T49)</f>
+      <c r="Y49" s="9">
+        <f t="shared" ref="Y49" si="192">ABS($C49-X49)</f>
         <v>1448993.9189045504</v>
       </c>
-      <c r="V49" s="7"/>
-      <c r="W49" s="8">
-        <f t="shared" si="12"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="8">
+        <f t="shared" si="16"/>
         <v>1964.71776090554</v>
       </c>
-      <c r="X49" s="9">
-        <f t="shared" ref="X49" si="189">ABS($C49-W49)</f>
+      <c r="AB49" s="9">
+        <f t="shared" ref="AB49" si="193">ABS($C49-AA49)</f>
         <v>1450978.5860882157</v>
       </c>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="9">
-        <f t="shared" ref="AA49" si="190">ABS($C49-Z49)</f>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="9">
+        <f t="shared" ref="AE49" si="194">ABS($C49-AD49)</f>
         <v>1449013.8683273101</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F50" s="22">
-        <f>SUM(F5:F49)</f>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E50" s="26"/>
+      <c r="F50" s="26">
+        <f>SUM(F4:F49)</f>
+        <v>10587220.803357307</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26">
+        <f>SUM(H4:H49)</f>
+        <v>10604471.427887773</v>
+      </c>
+      <c r="J50" s="22">
+        <f>SUM(J5:J49)</f>
         <v>10616356.201922607</v>
       </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="22">
-        <f>SUM(I5:I49)</f>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="22">
+        <f>SUM(M5:M49)</f>
         <v>10603977.768928111</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="23">
-        <f>SUM(L5:L49)</f>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="23">
+        <f>SUM(P5:P49)</f>
         <v>10617527.129253665</v>
       </c>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="23">
-        <f>SUM(O5:O49)</f>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="23">
+        <f>SUM(S5:S49)</f>
         <v>10604018.768928111</v>
       </c>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="23">
-        <f>SUM(R5:R49)</f>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="23">
+        <f>SUM(V5:V49)</f>
         <v>10606986.752826078</v>
       </c>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="23">
-        <f>SUM(U5:U49)</f>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="23">
+        <f>SUM(Y5:Y49)</f>
         <v>10603296.716427125</v>
       </c>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="23">
-        <f>SUM(X5:X49)</f>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="23">
+        <f>SUM(AB5:AB49)</f>
         <v>10610728.823481183</v>
       </c>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="14"/>
-      <c r="AA50" s="23">
-        <f>SUM(AA5:AA49)</f>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="23">
+        <f>SUM(AE5:AE49)</f>
         <v>10604018.768928111</v>
       </c>
     </row>
@@ -7183,7 +7974,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="H4" formula="1"/>
+    <ignoredError sqref="L4" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7259,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:B74"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestRuns/FunctionalTestRunsFitness.xlsx
+++ b/TestRuns/FunctionalTestRunsFitness.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="495" windowWidth="14355" windowHeight="8250" tabRatio="918"/>
+    <workbookView xWindow="2475" yWindow="495" windowWidth="14355" windowHeight="8250" tabRatio="918" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Fitness Evaluator" sheetId="7" r:id="rId1"/>
-    <sheet name="12-13 F1 715 Raw" sheetId="12" r:id="rId2"/>
-    <sheet name="raw result with mutation" sheetId="11" r:id="rId3"/>
-    <sheet name="Raw Output" sheetId="6" r:id="rId4"/>
-    <sheet name="diff training data1 " sheetId="9" r:id="rId5"/>
-    <sheet name="diff training data2" sheetId="10" r:id="rId6"/>
-    <sheet name="worksheet and one test run 0" sheetId="2" r:id="rId7"/>
-    <sheet name="worksheet and one test run 1" sheetId="3" r:id="rId8"/>
-    <sheet name="worksheet and one test run" sheetId="4" r:id="rId9"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId10"/>
+    <sheet name="FitnessTesterTemplate" sheetId="13" r:id="rId1"/>
+    <sheet name="Fitness Evaluator" sheetId="7" r:id="rId2"/>
+    <sheet name="12-13 F1 715 Raw" sheetId="12" r:id="rId3"/>
+    <sheet name="raw result with mutation" sheetId="11" r:id="rId4"/>
+    <sheet name="Raw Output" sheetId="6" r:id="rId5"/>
+    <sheet name="diff training data1 " sheetId="9" r:id="rId6"/>
+    <sheet name="diff training data2" sheetId="10" r:id="rId7"/>
+    <sheet name="worksheet and one test run 0" sheetId="2" r:id="rId8"/>
+    <sheet name="worksheet and one test run 1" sheetId="3" r:id="rId9"/>
+    <sheet name="worksheet and one test run" sheetId="4" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="938">
   <si>
     <t>1108.1501149878043   ((6*(((6/9)/(9-4))/0))-((2/((3*3)-1))+(1*(2+x))))</t>
   </si>
@@ -2834,6 +2835,9 @@
   </si>
   <si>
     <t>9+1</t>
+  </si>
+  <si>
+    <t>(1*((((5-2)+2)/3)+(x/((1-9)-(x/5)))))</t>
   </si>
 </sst>
 </file>
@@ -3339,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3610,7 @@
         <v>4429.5471222331998</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" ref="F5:H49" si="3">ABS($C5-E5)</f>
+        <f t="shared" ref="F5:F49" si="3">ABS($C5-E5)</f>
         <v>1180995.9929492534</v>
       </c>
       <c r="G5" s="15">
@@ -3658,7 +3662,7 @@
         <v>-788.02425030177506</v>
       </c>
       <c r="V5" s="9">
-        <f t="shared" ref="V5" si="14">ABS($C5-U5)</f>
+        <f t="shared" ref="V5:V49" si="14">ABS($C5-U5)</f>
         <v>1175778.4215767183</v>
       </c>
       <c r="W5" s="7"/>
@@ -3667,7 +3671,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" ref="Y5" si="15">ABS($C5-X5)</f>
+        <f t="shared" ref="Y5:Y49" si="15">ABS($C5-X5)</f>
         <v>1176546.4964042604</v>
       </c>
       <c r="Z5" s="7"/>
@@ -3676,13 +3680,13 @@
         <v>-1772.3045631789939</v>
       </c>
       <c r="AB5" s="9">
-        <f t="shared" ref="AB5" si="17">ABS($C5-AA5)</f>
+        <f t="shared" ref="AB5:AB49" si="17">ABS($C5-AA5)</f>
         <v>1174794.1412638412</v>
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="9">
-        <f t="shared" ref="AE5" si="18">ABS($C5-AD5)</f>
+        <f t="shared" ref="AE5:AE49" si="18">ABS($C5-AD5)</f>
         <v>1176566.4458270201</v>
       </c>
     </row>
@@ -3754,7 +3758,7 @@
         <v>-713.19985662794852</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" ref="V6" si="19">ABS($C6-U6)</f>
+        <f t="shared" si="14"/>
         <v>962826.175762648</v>
       </c>
       <c r="W6" s="7"/>
@@ -3763,7 +3767,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y6" s="9">
-        <f t="shared" ref="Y6" si="20">ABS($C6-X6)</f>
+        <f t="shared" si="15"/>
         <v>963519.42619651626</v>
       </c>
       <c r="Z6" s="7"/>
@@ -3772,13 +3776,13 @@
         <v>-1603.9496774128841</v>
       </c>
       <c r="AB6" s="9">
-        <f t="shared" ref="AB6" si="21">ABS($C6-AA6)</f>
+        <f t="shared" si="17"/>
         <v>961935.4259418631</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="9">
-        <f t="shared" ref="AE6" si="22">ABS($C6-AD6)</f>
+        <f t="shared" si="18"/>
         <v>963539.37561927596</v>
       </c>
     </row>
@@ -3850,7 +3854,7 @@
         <v>-666.47983552232972</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" ref="V7" si="23">ABS($C7-U7)</f>
+        <f t="shared" si="14"/>
         <v>840640.12027022359</v>
       </c>
       <c r="W7" s="7"/>
@@ -3859,7 +3863,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y7" s="9">
-        <f t="shared" ref="Y7" si="24">ABS($C7-X7)</f>
+        <f t="shared" si="15"/>
         <v>841286.65068298625</v>
       </c>
       <c r="Z7" s="7"/>
@@ -3868,13 +3872,13 @@
         <v>-1498.829629925242</v>
       </c>
       <c r="AB7" s="9">
-        <f t="shared" ref="AB7" si="25">ABS($C7-AA7)</f>
+        <f t="shared" si="17"/>
         <v>839807.77047582075</v>
       </c>
       <c r="AC7" s="7"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="9">
-        <f t="shared" ref="AE7" si="26">ABS($C7-AD7)</f>
+        <f t="shared" si="18"/>
         <v>841306.60010574595</v>
       </c>
     </row>
@@ -3946,7 +3950,7 @@
         <v>-225.57074497691201</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" ref="V8" si="27">ABS($C8-U8)</f>
+        <f t="shared" si="14"/>
         <v>95702.54158965149</v>
       </c>
       <c r="W8" s="7"/>
@@ -3955,7 +3959,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y8" s="9">
-        <f t="shared" ref="Y8" si="28">ABS($C8-X8)</f>
+        <f t="shared" si="15"/>
         <v>95908.16291186864</v>
       </c>
       <c r="Z8" s="7"/>
@@ -3964,13 +3968,13 @@
         <v>-506.78417619805202</v>
       </c>
       <c r="AB8" s="9">
-        <f t="shared" ref="AB8" si="29">ABS($C8-AA8)</f>
+        <f t="shared" si="17"/>
         <v>95421.328158430348</v>
       </c>
       <c r="AC8" s="7"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="9">
-        <f t="shared" ref="AE8" si="30">ABS($C8-AD8)</f>
+        <f t="shared" si="18"/>
         <v>95928.1123346284</v>
       </c>
     </row>
@@ -4042,7 +4046,7 @@
         <v>-82.858866561095113</v>
       </c>
       <c r="V9" s="9">
-        <f t="shared" ref="V9" si="31">ABS($C9-U9)</f>
+        <f t="shared" si="14"/>
         <v>12703.993852288206</v>
       </c>
       <c r="W9" s="7"/>
@@ -4051,7 +4055,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y9" s="9">
-        <f t="shared" ref="Y9" si="32">ABS($C9-X9)</f>
+        <f t="shared" si="15"/>
         <v>12766.903296089542</v>
       </c>
       <c r="Z9" s="7"/>
@@ -4060,13 +4064,13 @@
         <v>-185.68244976246399</v>
       </c>
       <c r="AB9" s="9">
-        <f t="shared" ref="AB9" si="33">ABS($C9-AA9)</f>
+        <f t="shared" si="17"/>
         <v>12601.170269086837</v>
       </c>
       <c r="AC9" s="7"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="9">
-        <f t="shared" ref="AE9" si="34">ABS($C9-AD9)</f>
+        <f t="shared" si="18"/>
         <v>12786.852718849301</v>
       </c>
     </row>
@@ -4138,7 +4142,7 @@
         <v>-80.056400902398138</v>
       </c>
       <c r="V10" s="9">
-        <f t="shared" ref="V10" si="35">ABS($C10-U10)</f>
+        <f t="shared" si="14"/>
         <v>11848.313290833101</v>
       </c>
       <c r="W10" s="7"/>
@@ -4147,7 +4151,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y10" s="9">
-        <f t="shared" ref="Y10" si="36">ABS($C10-X10)</f>
+        <f t="shared" si="15"/>
         <v>11908.42026897574</v>
       </c>
       <c r="Z10" s="7"/>
@@ -4156,13 +4160,13 @@
         <v>-179.3769020303958</v>
       </c>
       <c r="AB10" s="9">
-        <f t="shared" ref="AB10" si="37">ABS($C10-AA10)</f>
+        <f t="shared" si="17"/>
         <v>11748.992789705104</v>
       </c>
       <c r="AC10" s="7"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="9">
-        <f t="shared" ref="AE10" si="38">ABS($C10-AD10)</f>
+        <f t="shared" si="18"/>
         <v>11928.369691735499</v>
       </c>
     </row>
@@ -4234,7 +4238,7 @@
         <v>-77.982298846131116</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" ref="V11" si="39">ABS($C11-U11)</f>
+        <f t="shared" si="14"/>
         <v>11234.226699862369</v>
       </c>
       <c r="W11" s="7"/>
@@ -4243,7 +4247,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y11" s="9">
-        <f t="shared" ref="Y11" si="40">ABS($C11-X11)</f>
+        <f t="shared" si="15"/>
         <v>11292.259575948741</v>
       </c>
       <c r="Z11" s="7"/>
@@ -4252,13 +4256,13 @@
         <v>-174.71017240379501</v>
       </c>
       <c r="AB11" s="9">
-        <f t="shared" ref="AB11" si="41">ABS($C11-AA11)</f>
+        <f t="shared" si="17"/>
         <v>11137.498826304705</v>
       </c>
       <c r="AC11" s="7"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="9">
-        <f t="shared" ref="AE11" si="42">ABS($C11-AD11)</f>
+        <f t="shared" si="18"/>
         <v>11312.2089987085</v>
       </c>
     </row>
@@ -4330,7 +4334,7 @@
         <v>-70.363112897915471</v>
       </c>
       <c r="V12" s="9">
-        <f t="shared" ref="V12" si="43">ABS($C12-U12)</f>
+        <f t="shared" si="14"/>
         <v>9118.5969175629743</v>
       </c>
       <c r="W12" s="7"/>
@@ -4339,7 +4343,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y12" s="9">
-        <f t="shared" ref="Y12" si="44">ABS($C12-X12)</f>
+        <f t="shared" si="15"/>
         <v>9169.0106077011314</v>
       </c>
       <c r="Z12" s="7"/>
@@ -4348,13 +4352,13 @@
         <v>-157.56700402030981</v>
       </c>
       <c r="AB12" s="9">
-        <f t="shared" ref="AB12" si="45">ABS($C12-AA12)</f>
+        <f t="shared" si="17"/>
         <v>9031.3930264405808</v>
       </c>
       <c r="AC12" s="7"/>
       <c r="AD12" s="8"/>
       <c r="AE12" s="9">
-        <f t="shared" ref="AE12" si="46">ABS($C12-AD12)</f>
+        <f t="shared" si="18"/>
         <v>9188.9600304608903</v>
       </c>
     </row>
@@ -4426,7 +4430,7 @@
         <v>-68.576369884148804</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" ref="V13" si="47">ABS($C13-U13)</f>
+        <f t="shared" si="14"/>
         <v>8654.3746399617612</v>
       </c>
       <c r="W13" s="7"/>
@@ -4435,7 +4439,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y13" s="9">
-        <f t="shared" ref="Y13" si="48">ABS($C13-X13)</f>
+        <f t="shared" si="15"/>
         <v>8703.0015870861516</v>
       </c>
       <c r="Z13" s="7"/>
@@ -4444,13 +4448,13 @@
         <v>-153.5468322393348</v>
       </c>
       <c r="AB13" s="9">
-        <f t="shared" ref="AB13" si="49">ABS($C13-AA13)</f>
+        <f t="shared" si="17"/>
         <v>8569.4041776065751</v>
       </c>
       <c r="AC13" s="7"/>
       <c r="AD13" s="8"/>
       <c r="AE13" s="9">
-        <f t="shared" ref="AE13" si="50">ABS($C13-AD13)</f>
+        <f t="shared" si="18"/>
         <v>8722.9510098459104</v>
       </c>
     </row>
@@ -4522,7 +4526,7 @@
         <v>-65.003371674904258</v>
       </c>
       <c r="V14" s="9">
-        <f t="shared" ref="V14" si="51">ABS($C14-U14)</f>
+        <f t="shared" si="14"/>
         <v>7762.4125617593363</v>
       </c>
       <c r="W14" s="7"/>
@@ -4531,7 +4535,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y14" s="9">
-        <f t="shared" ref="Y14" si="52">ABS($C14-X14)</f>
+        <f t="shared" si="15"/>
         <v>7807.4665106744824</v>
       </c>
       <c r="Z14" s="7"/>
@@ -4540,13 +4544,13 @@
         <v>-145.5075862685346</v>
       </c>
       <c r="AB14" s="9">
-        <f t="shared" ref="AB14" si="53">ABS($C14-AA14)</f>
+        <f t="shared" si="17"/>
         <v>7681.9083471657059</v>
       </c>
       <c r="AC14" s="7"/>
       <c r="AD14" s="8"/>
       <c r="AE14" s="9">
-        <f t="shared" ref="AE14" si="54">ABS($C14-AD14)</f>
+        <f t="shared" si="18"/>
         <v>7827.4159334342403</v>
       </c>
     </row>
@@ -4618,7 +4622,7 @@
         <v>-57.121221833366398</v>
       </c>
       <c r="V15" s="9">
-        <f t="shared" ref="V15" si="55">ABS($C15-U15)</f>
+        <f t="shared" si="14"/>
         <v>5966.1274984400434</v>
       </c>
       <c r="W15" s="7"/>
@@ -4627,7 +4631,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y15" s="9">
-        <f t="shared" ref="Y15" si="56">ABS($C15-X15)</f>
+        <f t="shared" si="15"/>
         <v>6003.2992975136522</v>
       </c>
       <c r="Z15" s="7"/>
@@ -4636,13 +4640,13 @@
         <v>-127.7727491250744</v>
       </c>
       <c r="AB15" s="9">
-        <f t="shared" ref="AB15" si="57">ABS($C15-AA15)</f>
+        <f t="shared" si="17"/>
         <v>5895.4759711483357</v>
       </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="8"/>
       <c r="AE15" s="9">
-        <f t="shared" ref="AE15" si="58">ABS($C15-AD15)</f>
+        <f t="shared" si="18"/>
         <v>6023.2487202734101</v>
       </c>
     </row>
@@ -4714,7 +4718,7 @@
         <v>-47.588195751275912</v>
       </c>
       <c r="V16" s="9">
-        <f t="shared" ref="V16" si="59">ABS($C16-U16)</f>
+        <f t="shared" si="14"/>
         <v>4108.7969690723539</v>
       </c>
       <c r="W16" s="7"/>
@@ -4723,7 +4727,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y16" s="9">
-        <f t="shared" ref="Y16" si="60">ABS($C16-X16)</f>
+        <f t="shared" si="15"/>
         <v>4136.4357420638717</v>
       </c>
       <c r="Z16" s="7"/>
@@ -4732,13 +4736,13 @@
         <v>-106.3234404403708</v>
       </c>
       <c r="AB16" s="9">
-        <f t="shared" ref="AB16" si="61">ABS($C16-AA16)</f>
+        <f t="shared" si="17"/>
         <v>4050.0617243832589</v>
       </c>
       <c r="AC16" s="7"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="9">
-        <f t="shared" ref="AE16" si="62">ABS($C16-AD16)</f>
+        <f t="shared" si="18"/>
         <v>4156.3851648236296</v>
       </c>
     </row>
@@ -4810,7 +4814,7 @@
         <v>-14.780976211922933</v>
       </c>
       <c r="V17" s="9">
-        <f t="shared" ref="V17" si="63">ABS($C17-U17)</f>
+        <f t="shared" si="14"/>
         <v>353.9828099740871</v>
       </c>
       <c r="W17" s="7"/>
@@ -4819,7 +4823,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y17" s="9">
-        <f t="shared" ref="Y17" si="64">ABS($C17-X17)</f>
+        <f t="shared" si="15"/>
         <v>348.81436342625193</v>
       </c>
       <c r="Z17" s="7"/>
@@ -4828,13 +4832,13 @@
         <v>-32.5071964768266</v>
       </c>
       <c r="AB17" s="9">
-        <f t="shared" ref="AB17" si="65">ABS($C17-AA17)</f>
+        <f t="shared" si="17"/>
         <v>336.2565897091834</v>
       </c>
       <c r="AC17" s="7"/>
       <c r="AD17" s="8"/>
       <c r="AE17" s="9">
-        <f t="shared" ref="AE17" si="66">ABS($C17-AD17)</f>
+        <f t="shared" si="18"/>
         <v>368.76378618601001</v>
       </c>
     </row>
@@ -4906,7 +4910,7 @@
         <v>-7.979364575212756</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" ref="V18" si="67">ABS($C18-U18)</f>
+        <f t="shared" si="14"/>
         <v>86.979019279791444</v>
       </c>
       <c r="W18" s="7"/>
@@ -4915,7 +4919,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" ref="Y18" si="68">ABS($C18-X18)</f>
+        <f t="shared" si="15"/>
         <v>75.008961095246093</v>
       </c>
       <c r="Z18" s="7"/>
@@ -4924,13 +4928,13 @@
         <v>-17.203570294228701</v>
       </c>
       <c r="AB18" s="9">
-        <f t="shared" ref="AB18" si="69">ABS($C18-AA18)</f>
+        <f t="shared" si="17"/>
         <v>77.754813560775503</v>
       </c>
       <c r="AC18" s="7"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="9">
-        <f t="shared" ref="AE18" si="70">ABS($C18-AD18)</f>
+        <f t="shared" si="18"/>
         <v>94.9583838550042</v>
       </c>
     </row>
@@ -5002,7 +5006,7 @@
         <v>-5.8318663253531202</v>
       </c>
       <c r="V19" s="9">
-        <f t="shared" ref="V19" si="71">ABS($C19-U19)</f>
+        <f t="shared" si="14"/>
         <v>39.161462458677583</v>
       </c>
       <c r="W19" s="7"/>
@@ -5011,7 +5015,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y19" s="9">
-        <f t="shared" ref="Y19" si="72">ABS($C19-X19)</f>
+        <f t="shared" si="15"/>
         <v>25.043906024272594</v>
       </c>
       <c r="Z19" s="7"/>
@@ -5020,13 +5024,13 @@
         <v>-12.37169923204452</v>
       </c>
       <c r="AB19" s="9">
-        <f t="shared" ref="AB19" si="73">ABS($C19-AA19)</f>
+        <f t="shared" si="17"/>
         <v>32.621629551986182</v>
       </c>
       <c r="AC19" s="7"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="9">
-        <f t="shared" ref="AE19" si="74">ABS($C19-AD19)</f>
+        <f t="shared" si="18"/>
         <v>44.993328784030702</v>
       </c>
     </row>
@@ -5098,7 +5102,7 @@
         <v>-5.6407603580463377</v>
       </c>
       <c r="V20" s="9">
-        <f t="shared" ref="V20" si="75">ABS($C20-U20)</f>
+        <f t="shared" si="14"/>
         <v>35.754627899507561</v>
       </c>
       <c r="W20" s="7"/>
@@ -5107,7 +5111,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y20" s="9">
-        <f t="shared" ref="Y20" si="76">ABS($C20-X20)</f>
+        <f t="shared" si="15"/>
         <v>21.44596549779579</v>
       </c>
       <c r="Z20" s="7"/>
@@ -5116,13 +5120,13 @@
         <v>-11.941710805604259</v>
       </c>
       <c r="AB20" s="9">
-        <f t="shared" ref="AB20" si="77">ABS($C20-AA20)</f>
+        <f t="shared" si="17"/>
         <v>29.453677451949638</v>
       </c>
       <c r="AC20" s="7"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="9">
-        <f t="shared" ref="AE20" si="78">ABS($C20-AD20)</f>
+        <f t="shared" si="18"/>
         <v>41.395388257553897</v>
       </c>
     </row>
@@ -5194,7 +5198,7 @@
         <v>-5.0287162084005956</v>
       </c>
       <c r="V21" s="9">
-        <f t="shared" ref="V21" si="79">ABS($C21-U21)</f>
+        <f t="shared" si="14"/>
         <v>25.776955998239004</v>
       </c>
       <c r="W21" s="7"/>
@@ -5203,7 +5207,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y21" s="9">
-        <f t="shared" ref="Y21" si="80">ABS($C21-X21)</f>
+        <f t="shared" si="15"/>
         <v>10.856249446881492</v>
       </c>
       <c r="Z21" s="7"/>
@@ -5212,13 +5216,13 @@
         <v>-10.56461146890134</v>
       </c>
       <c r="AB21" s="9">
-        <f t="shared" ref="AB21" si="81">ABS($C21-AA21)</f>
+        <f t="shared" si="17"/>
         <v>20.241060737738259</v>
       </c>
       <c r="AC21" s="7"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="9">
-        <f t="shared" ref="AE21" si="82">ABS($C21-AD21)</f>
+        <f t="shared" si="18"/>
         <v>30.805672206639599</v>
       </c>
     </row>
@@ -5290,7 +5294,7 @@
         <v>-3.874481169806951</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" ref="V22" si="83">ABS($C22-U22)</f>
+        <f t="shared" si="14"/>
         <v>10.83072173069165</v>
       </c>
       <c r="W22" s="7"/>
@@ -5299,7 +5303,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" ref="Y22" si="84">ABS($C22-X22)</f>
+        <f t="shared" si="15"/>
         <v>5.2442198592595073</v>
       </c>
       <c r="Z22" s="7"/>
@@ -5308,13 +5312,13 @@
         <v>-7.9675826320656391</v>
       </c>
       <c r="AB22" s="9">
-        <f t="shared" ref="AB22" si="85">ABS($C22-AA22)</f>
+        <f t="shared" si="17"/>
         <v>6.7376202684329609</v>
       </c>
       <c r="AC22" s="7"/>
       <c r="AD22" s="8"/>
       <c r="AE22" s="9">
-        <f t="shared" ref="AE22" si="86">ABS($C22-AD22)</f>
+        <f t="shared" si="18"/>
         <v>14.7052029004986</v>
       </c>
     </row>
@@ -5386,7 +5390,7 @@
         <v>-2.9093337915399822</v>
       </c>
       <c r="V23" s="9">
-        <f t="shared" ref="V23" si="87">ABS($C23-U23)</f>
+        <f t="shared" si="14"/>
         <v>2.2162759168413775</v>
       </c>
       <c r="W23" s="7"/>
@@ -5395,7 +5399,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y23" s="9">
-        <f t="shared" ref="Y23" si="88">ABS($C23-X23)</f>
+        <f t="shared" si="15"/>
         <v>14.823813051376748</v>
       </c>
       <c r="Z23" s="7"/>
@@ -5404,13 +5408,13 @@
         <v>-5.796001030964959</v>
       </c>
       <c r="AB23" s="9">
-        <f t="shared" ref="AB23" si="89">ABS($C23-AA23)</f>
+        <f t="shared" si="17"/>
         <v>0.67039132258359935</v>
       </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="8"/>
       <c r="AE23" s="9">
-        <f t="shared" ref="AE23" si="90">ABS($C23-AD23)</f>
+        <f t="shared" si="18"/>
         <v>5.1256097083813597</v>
       </c>
     </row>
@@ -5482,7 +5486,7 @@
         <v>-1.2715555879193299</v>
       </c>
       <c r="V24" s="9">
-        <f t="shared" ref="V24" si="91">ABS($C24-U24)</f>
+        <f t="shared" si="14"/>
         <v>4.3086851522433101</v>
       </c>
       <c r="W24" s="7"/>
@@ -5491,7 +5495,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" ref="Y24" si="92">ABS($C24-X24)</f>
+        <f t="shared" si="15"/>
         <v>22.986552324082087</v>
       </c>
       <c r="Z24" s="7"/>
@@ -5500,13 +5504,13 @@
         <v>-2.1110000728184914</v>
       </c>
       <c r="AB24" s="9">
-        <f t="shared" ref="AB24" si="93">ABS($C24-AA24)</f>
+        <f t="shared" si="17"/>
         <v>5.1481296371424712</v>
       </c>
       <c r="AC24" s="7"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="9">
-        <f t="shared" ref="AE24" si="94">ABS($C24-AD24)</f>
+        <f t="shared" si="18"/>
         <v>3.0371295643239802</v>
       </c>
     </row>
@@ -5578,7 +5582,7 @@
         <v>-0.33833367236404527</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" ref="V25" si="95">ABS($C25-U25)</f>
+        <f t="shared" si="14"/>
         <v>3.4717242771043653</v>
       </c>
       <c r="W25" s="7"/>
@@ -5587,7 +5591,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" ref="Y25" si="96">ABS($C25-X25)</f>
+        <f t="shared" si="15"/>
         <v>23.082813364498428</v>
       </c>
       <c r="Z25" s="7"/>
@@ -5596,13 +5600,13 @@
         <v>-1.1250762819102533E-2</v>
       </c>
       <c r="AB25" s="9">
-        <f t="shared" ref="AB25" si="97">ABS($C25-AA25)</f>
+        <f t="shared" si="17"/>
         <v>3.1446413675594225</v>
       </c>
       <c r="AC25" s="7"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="9">
-        <f t="shared" ref="AE25" si="98">ABS($C25-AD25)</f>
+        <f t="shared" si="18"/>
         <v>3.1333906047403199</v>
       </c>
     </row>
@@ -5674,7 +5678,7 @@
         <v>1.767340368741849</v>
       </c>
       <c r="V26" s="9">
-        <f t="shared" ref="V26" si="99">ABS($C26-U26)</f>
+        <f t="shared" si="14"/>
         <v>10.564709199036209</v>
       </c>
       <c r="W26" s="7"/>
@@ -5683,7 +5687,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y26" s="9">
-        <f t="shared" ref="Y26" si="100">ABS($C26-X26)</f>
+        <f t="shared" si="15"/>
         <v>11.152053929463747</v>
       </c>
       <c r="Z26" s="7"/>
@@ -5692,13 +5696,13 @@
         <v>4.726515829669161</v>
       </c>
       <c r="AB26" s="9">
-        <f t="shared" ref="AB26" si="101">ABS($C26-AA26)</f>
+        <f t="shared" si="17"/>
         <v>13.523884659963521</v>
       </c>
       <c r="AC26" s="7"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="9">
-        <f t="shared" ref="AE26" si="102">ABS($C26-AD26)</f>
+        <f t="shared" si="18"/>
         <v>8.79736883029436</v>
       </c>
     </row>
@@ -5770,7 +5774,7 @@
         <v>1.8554926738443469</v>
       </c>
       <c r="V27" s="9">
-        <f t="shared" ref="V27" si="103">ABS($C27-U27)</f>
+        <f t="shared" si="14"/>
         <v>11.519473337491597</v>
       </c>
       <c r="W27" s="7"/>
@@ -5779,7 +5783,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y27" s="9">
-        <f t="shared" ref="Y27" si="104">ABS($C27-X27)</f>
+        <f t="shared" si="15"/>
         <v>10.285442096110858</v>
       </c>
       <c r="Z27" s="7"/>
@@ -5788,13 +5792,13 @@
         <v>4.9248585161497793</v>
       </c>
       <c r="AB27" s="9">
-        <f t="shared" ref="AB27" si="105">ABS($C27-AA27)</f>
+        <f t="shared" si="17"/>
         <v>14.588839179797029</v>
       </c>
       <c r="AC27" s="7"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="9">
-        <f t="shared" ref="AE27" si="106">ABS($C27-AD27)</f>
+        <f t="shared" si="18"/>
         <v>9.6639806636472496</v>
       </c>
     </row>
@@ -5866,7 +5870,7 @@
         <v>2.2162550796314759</v>
       </c>
       <c r="V28" s="9">
-        <f t="shared" ref="V28" si="107">ABS($C28-U28)</f>
+        <f t="shared" si="14"/>
         <v>15.734290693325477</v>
       </c>
       <c r="W28" s="7"/>
@@ -5875,7 +5879,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y28" s="9">
-        <f t="shared" ref="Y28" si="108">ABS($C28-X28)</f>
+        <f t="shared" si="15"/>
         <v>6.4313871460641074</v>
       </c>
       <c r="Z28" s="7"/>
@@ -5884,13 +5888,13 @@
         <v>5.7365739291708202</v>
       </c>
       <c r="AB28" s="9">
-        <f t="shared" ref="AB28" si="109">ABS($C28-AA28)</f>
+        <f t="shared" si="17"/>
         <v>19.25460954286482</v>
       </c>
       <c r="AC28" s="7"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="9">
-        <f t="shared" ref="AE28" si="110">ABS($C28-AD28)</f>
+        <f t="shared" si="18"/>
         <v>13.518035613694</v>
       </c>
     </row>
@@ -5962,7 +5966,7 @@
         <v>2.9564472699238937</v>
       </c>
       <c r="V29" s="9">
-        <f t="shared" ref="V29" si="111">ABS($C29-U29)</f>
+        <f t="shared" si="14"/>
         <v>25.929088830646293</v>
       </c>
       <c r="W29" s="7"/>
@@ -5971,7 +5975,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y29" s="9">
-        <f t="shared" ref="Y29" si="112">ABS($C29-X29)</f>
+        <f t="shared" si="15"/>
         <v>3.023218800964294</v>
       </c>
       <c r="Z29" s="7"/>
@@ -5980,13 +5984,13 @@
         <v>7.4020063573287596</v>
       </c>
       <c r="AB29" s="9">
-        <f t="shared" ref="AB29" si="113">ABS($C29-AA29)</f>
+        <f t="shared" si="17"/>
         <v>30.37464791805116</v>
       </c>
       <c r="AC29" s="7"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="9">
-        <f t="shared" ref="AE29" si="114">ABS($C29-AD29)</f>
+        <f t="shared" si="18"/>
         <v>22.972641560722401</v>
       </c>
     </row>
@@ -6058,7 +6062,7 @@
         <v>2.9760351967275556</v>
       </c>
       <c r="V30" s="9">
-        <f t="shared" ref="V30" si="115">ABS($C30-U30)</f>
+        <f t="shared" si="14"/>
         <v>26.227130344838354</v>
       </c>
       <c r="W30" s="7"/>
@@ -6067,7 +6071,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y30" s="9">
-        <f t="shared" ref="Y30" si="116">ABS($C30-X30)</f>
+        <f t="shared" si="15"/>
         <v>3.3016723883526922</v>
       </c>
       <c r="Z30" s="7"/>
@@ -6076,13 +6080,13 @@
         <v>7.4460791926370007</v>
       </c>
       <c r="AB30" s="9">
-        <f t="shared" ref="AB30" si="117">ABS($C30-AA30)</f>
+        <f t="shared" si="17"/>
         <v>30.6971743407478</v>
       </c>
       <c r="AC30" s="7"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="9">
-        <f t="shared" ref="AE30" si="118">ABS($C30-AD30)</f>
+        <f t="shared" si="18"/>
         <v>23.251095148110799</v>
       </c>
     </row>
@@ -6154,7 +6158,7 @@
         <v>4.2799521780009862</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" ref="V31" si="119">ABS($C31-U31)</f>
+        <f t="shared" si="14"/>
         <v>49.343183820629079</v>
       </c>
       <c r="W31" s="7"/>
@@ -6163,7 +6167,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y31" s="9">
-        <f t="shared" ref="Y31" si="120">ABS($C31-X31)</f>
+        <f t="shared" si="15"/>
         <v>25.113808882869989</v>
       </c>
       <c r="Z31" s="7"/>
@@ -6172,13 +6176,13 @@
         <v>10.379892400502222</v>
       </c>
       <c r="AB31" s="9">
-        <f t="shared" ref="AB31" si="121">ABS($C31-AA31)</f>
+        <f t="shared" si="17"/>
         <v>55.443124043130318</v>
       </c>
       <c r="AC31" s="7"/>
       <c r="AD31" s="8"/>
       <c r="AE31" s="9">
-        <f t="shared" ref="AE31" si="122">ABS($C31-AD31)</f>
+        <f t="shared" si="18"/>
         <v>45.063231642628097</v>
       </c>
     </row>
@@ -6250,7 +6254,7 @@
         <v>7.7008950498787119</v>
       </c>
       <c r="V32" s="9">
-        <f t="shared" ref="V32" si="123">ABS($C32-U32)</f>
+        <f t="shared" si="14"/>
         <v>140.67556676223072</v>
       </c>
       <c r="W32" s="7"/>
@@ -6259,7 +6263,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y32" s="9">
-        <f t="shared" ref="Y32" si="124">ABS($C32-X32)</f>
+        <f t="shared" si="15"/>
         <v>113.0252489525939</v>
       </c>
       <c r="Z32" s="7"/>
@@ -6268,13 +6272,13 @@
         <v>18.077013862227101</v>
       </c>
       <c r="AB32" s="9">
-        <f t="shared" ref="AB32" si="125">ABS($C32-AA32)</f>
+        <f t="shared" si="17"/>
         <v>151.0516855745791</v>
       </c>
       <c r="AC32" s="7"/>
       <c r="AD32" s="8"/>
       <c r="AE32" s="9">
-        <f t="shared" ref="AE32" si="126">ABS($C32-AD32)</f>
+        <f t="shared" si="18"/>
         <v>132.97467171235201</v>
       </c>
     </row>
@@ -6346,7 +6350,7 @@
         <v>19.206461783821602</v>
       </c>
       <c r="V33" s="9">
-        <f t="shared" ref="V33" si="127">ABS($C33-U33)</f>
+        <f t="shared" si="14"/>
         <v>773.88512504835865</v>
       </c>
       <c r="W33" s="7"/>
@@ -6355,7 +6359,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y33" s="9">
-        <f t="shared" ref="Y33" si="128">ABS($C33-X33)</f>
+        <f t="shared" si="15"/>
         <v>734.72924050477889</v>
       </c>
       <c r="Z33" s="7"/>
@@ -6364,13 +6368,13 @@
         <v>43.964539013598603</v>
       </c>
       <c r="AB33" s="9">
-        <f t="shared" ref="AB33" si="129">ABS($C33-AA33)</f>
+        <f t="shared" si="17"/>
         <v>798.64320227813562</v>
       </c>
       <c r="AC33" s="7"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="9">
-        <f t="shared" ref="AE33" si="130">ABS($C33-AD33)</f>
+        <f t="shared" si="18"/>
         <v>754.67866326453702</v>
       </c>
     </row>
@@ -6442,7 +6446,7 @@
         <v>21.625621292298931</v>
       </c>
       <c r="V34" s="9">
-        <f t="shared" ref="V34" si="131">ABS($C34-U34)</f>
+        <f t="shared" si="14"/>
         <v>970.97473413626187</v>
       </c>
       <c r="W34" s="7"/>
@@ -6451,7 +6455,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y34" s="9">
-        <f t="shared" ref="Y34" si="132">ABS($C34-X34)</f>
+        <f t="shared" si="15"/>
         <v>929.39969008420485</v>
       </c>
       <c r="Z34" s="7"/>
@@ -6460,13 +6464,13 @@
         <v>49.407647907672597</v>
       </c>
       <c r="AB34" s="9">
-        <f t="shared" ref="AB34" si="133">ABS($C34-AA34)</f>
+        <f t="shared" si="17"/>
         <v>998.75676075163562</v>
       </c>
       <c r="AC34" s="7"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="9">
-        <f t="shared" ref="AE34" si="134">ABS($C34-AD34)</f>
+        <f t="shared" si="18"/>
         <v>949.34911284396298</v>
       </c>
     </row>
@@ -6538,7 +6542,7 @@
         <v>27.674917745274666</v>
       </c>
       <c r="V35" s="9">
-        <f t="shared" ref="V35" si="135">ABS($C35-U35)</f>
+        <f t="shared" si="14"/>
         <v>1561.0661634811245</v>
       </c>
       <c r="W35" s="7"/>
@@ -6547,7 +6551,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y35" s="9">
-        <f t="shared" ref="Y35" si="136">ABS($C35-X35)</f>
+        <f t="shared" si="15"/>
         <v>1513.4418229760918</v>
       </c>
       <c r="Z35" s="7"/>
@@ -6556,13 +6560,13 @@
         <v>63.018564926867995</v>
       </c>
       <c r="AB35" s="9">
-        <f t="shared" ref="AB35" si="137">ABS($C35-AA35)</f>
+        <f t="shared" si="17"/>
         <v>1596.409810662718</v>
       </c>
       <c r="AC35" s="7"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="9">
-        <f t="shared" ref="AE35" si="138">ABS($C35-AD35)</f>
+        <f t="shared" si="18"/>
         <v>1533.3912457358499</v>
       </c>
     </row>
@@ -6634,7 +6638,7 @@
         <v>38.480870841089242</v>
       </c>
       <c r="V36" s="9">
-        <f t="shared" ref="V36" si="139">ABS($C36-U36)</f>
+        <f t="shared" si="14"/>
         <v>2960.9315146321892</v>
       </c>
       <c r="W36" s="7"/>
@@ -6643,7 +6647,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y36" s="9">
-        <f t="shared" ref="Y36" si="140">ABS($C36-X36)</f>
+        <f t="shared" si="15"/>
         <v>2902.5012210313421</v>
       </c>
       <c r="Z36" s="7"/>
@@ -6652,13 +6656,13 @@
         <v>87.331959392450798</v>
       </c>
       <c r="AB36" s="9">
-        <f t="shared" ref="AB36" si="141">ABS($C36-AA36)</f>
+        <f t="shared" si="17"/>
         <v>3009.7826031835507</v>
       </c>
       <c r="AC36" s="7"/>
       <c r="AD36" s="8"/>
       <c r="AE36" s="9">
-        <f t="shared" ref="AE36" si="142">ABS($C36-AD36)</f>
+        <f t="shared" si="18"/>
         <v>2922.4506437911</v>
       </c>
     </row>
@@ -6730,7 +6734,7 @@
         <v>68.169363948736972</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" ref="V37" si="143">ABS($C37-U37)</f>
+        <f t="shared" si="14"/>
         <v>9089.2875639349459</v>
       </c>
       <c r="W37" s="7"/>
@@ -6739,7 +6743,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y37" s="9">
-        <f t="shared" ref="Y37" si="144">ABS($C37-X37)</f>
+        <f t="shared" si="15"/>
         <v>9001.1687772264504</v>
       </c>
       <c r="Z37" s="7"/>
@@ -6748,13 +6752,13 @@
         <v>154.13106888465819</v>
       </c>
       <c r="AB37" s="9">
-        <f t="shared" ref="AB37" si="145">ABS($C37-AA37)</f>
+        <f t="shared" si="17"/>
         <v>9175.249268870868</v>
       </c>
       <c r="AC37" s="7"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="9">
-        <f t="shared" ref="AE37" si="146">ABS($C37-AD37)</f>
+        <f t="shared" si="18"/>
         <v>9021.1181999862092</v>
       </c>
     </row>
@@ -6826,7 +6830,7 @@
         <v>75.689555274759201</v>
       </c>
       <c r="V38" s="9">
-        <f t="shared" ref="V38" si="147">ABS($C38-U38)</f>
+        <f t="shared" si="14"/>
         <v>11172.833968342959</v>
       </c>
       <c r="W38" s="7"/>
@@ -6835,7 +6839,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y38" s="9">
-        <f t="shared" ref="Y38" si="148">ABS($C38-X38)</f>
+        <f t="shared" si="15"/>
         <v>11077.194990308441</v>
       </c>
       <c r="Z38" s="7"/>
@@ -6844,13 +6848,13 @@
         <v>171.0514993682082</v>
       </c>
       <c r="AB38" s="9">
-        <f t="shared" ref="AB38" si="149">ABS($C38-AA38)</f>
+        <f t="shared" si="17"/>
         <v>11268.195912436408</v>
       </c>
       <c r="AC38" s="7"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="9">
-        <f t="shared" ref="AE38" si="150">ABS($C38-AD38)</f>
+        <f t="shared" si="18"/>
         <v>11097.144413068199</v>
       </c>
     </row>
@@ -6922,7 +6926,7 @@
         <v>87.466548953220354</v>
       </c>
       <c r="V39" s="9">
-        <f t="shared" ref="V39" si="151">ABS($C39-U39)</f>
+        <f t="shared" si="14"/>
         <v>14867.21554622142</v>
       </c>
       <c r="W39" s="7"/>
@@ -6931,7 +6935,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y39" s="9">
-        <f t="shared" ref="Y39" si="152">ABS($C39-X39)</f>
+        <f t="shared" si="15"/>
         <v>14759.799574508441</v>
       </c>
       <c r="Z39" s="7"/>
@@ -6940,13 +6944,13 @@
         <v>197.5497351447458</v>
       </c>
       <c r="AB39" s="9">
-        <f t="shared" ref="AB39" si="153">ABS($C39-AA39)</f>
+        <f t="shared" si="17"/>
         <v>14977.298732412946</v>
       </c>
       <c r="AC39" s="7"/>
       <c r="AD39" s="8"/>
       <c r="AE39" s="9">
-        <f t="shared" ref="AE39" si="154">ABS($C39-AD39)</f>
+        <f t="shared" si="18"/>
         <v>14779.7489972682</v>
       </c>
     </row>
@@ -7018,7 +7022,7 @@
         <v>118.66440288811022</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" ref="V40" si="155">ABS($C40-U40)</f>
+        <f t="shared" si="14"/>
         <v>27199.098691170107</v>
       </c>
       <c r="W40" s="7"/>
@@ -7027,7 +7031,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y40" s="9">
-        <f t="shared" ref="Y40" si="156">ABS($C40-X40)</f>
+        <f t="shared" si="15"/>
         <v>27060.484865522241</v>
       </c>
       <c r="Z40" s="7"/>
@@ -7036,13 +7040,13 @@
         <v>267.74490649824799</v>
       </c>
       <c r="AB40" s="9">
-        <f t="shared" ref="AB40" si="157">ABS($C40-AA40)</f>
+        <f t="shared" si="17"/>
         <v>27348.179194780245</v>
       </c>
       <c r="AC40" s="7"/>
       <c r="AD40" s="8"/>
       <c r="AE40" s="9">
-        <f t="shared" ref="AE40" si="158">ABS($C40-AD40)</f>
+        <f t="shared" si="18"/>
         <v>27080.434288281998</v>
       </c>
     </row>
@@ -7114,7 +7118,7 @@
         <v>260.55199354347019</v>
       </c>
       <c r="V41" s="9">
-        <f t="shared" ref="V41" si="159">ABS($C41-U41)</f>
+        <f t="shared" si="14"/>
         <v>129907.51761113846</v>
       </c>
       <c r="W41" s="7"/>
@@ -7123,7 +7127,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y41" s="9">
-        <f t="shared" ref="Y41" si="160">ABS($C41-X41)</f>
+        <f t="shared" si="15"/>
         <v>129627.01619483523</v>
       </c>
       <c r="Z41" s="7"/>
@@ -7132,13 +7136,13 @@
         <v>586.99198547280798</v>
       </c>
       <c r="AB41" s="9">
-        <f t="shared" ref="AB41" si="161">ABS($C41-AA41)</f>
+        <f t="shared" si="17"/>
         <v>130233.9576030678</v>
       </c>
       <c r="AC41" s="7"/>
       <c r="AD41" s="8"/>
       <c r="AE41" s="9">
-        <f t="shared" ref="AE41" si="162">ABS($C41-AD41)</f>
+        <f t="shared" si="18"/>
         <v>129646.96561759499</v>
       </c>
     </row>
@@ -7210,7 +7214,7 @@
         <v>323.06997383931468</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" ref="V42" si="163">ABS($C42-U42)</f>
+        <f t="shared" si="14"/>
         <v>199422.6949212563</v>
       </c>
       <c r="W42" s="7"/>
@@ -7219,7 +7223,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y42" s="9">
-        <f t="shared" ref="Y42" si="164">ABS($C42-X42)</f>
+        <f t="shared" si="15"/>
         <v>199079.67552465724</v>
       </c>
       <c r="Z42" s="7"/>
@@ -7228,13 +7232,13 @@
         <v>727.65744113845801</v>
       </c>
       <c r="AB42" s="9">
-        <f t="shared" ref="AB42" si="165">ABS($C42-AA42)</f>
+        <f t="shared" si="17"/>
         <v>199827.28238855547</v>
       </c>
       <c r="AC42" s="7"/>
       <c r="AD42" s="8"/>
       <c r="AE42" s="9">
-        <f t="shared" ref="AE42" si="166">ABS($C42-AD42)</f>
+        <f t="shared" si="18"/>
         <v>199099.624947417</v>
       </c>
     </row>
@@ -7306,7 +7310,7 @@
         <v>375.69426152101067</v>
       </c>
       <c r="V43" s="9">
-        <f t="shared" ref="V43" si="167">ABS($C43-U43)</f>
+        <f t="shared" si="14"/>
         <v>269440.01237738598</v>
       </c>
       <c r="W43" s="7"/>
@@ -7315,7 +7319,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y43" s="9">
-        <f t="shared" ref="Y43" si="168">ABS($C43-X43)</f>
+        <f t="shared" si="15"/>
         <v>269044.36869310524</v>
       </c>
       <c r="Z43" s="7"/>
@@ -7324,13 +7328,13 @@
         <v>846.06208842227397</v>
       </c>
       <c r="AB43" s="9">
-        <f t="shared" ref="AB43" si="169">ABS($C43-AA43)</f>
+        <f t="shared" si="17"/>
         <v>269910.3802042873</v>
       </c>
       <c r="AC43" s="7"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="9">
-        <f t="shared" ref="AE43" si="170">ABS($C43-AD43)</f>
+        <f t="shared" si="18"/>
         <v>269064.318115865</v>
       </c>
     </row>
@@ -7402,7 +7406,7 @@
         <v>400.2212218603093</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" ref="V44" si="171">ABS($C44-U44)</f>
+        <f t="shared" si="14"/>
         <v>305665.8465633553</v>
       </c>
       <c r="W44" s="7"/>
@@ -7411,7 +7415,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y44" s="9">
-        <f t="shared" ref="Y44" si="172">ABS($C44-X44)</f>
+        <f t="shared" si="15"/>
         <v>305245.67591873521</v>
       </c>
       <c r="Z44" s="7"/>
@@ -7420,13 +7424,13 @@
         <v>901.24774918569597</v>
       </c>
       <c r="AB44" s="9">
-        <f t="shared" ref="AB44" si="173">ABS($C44-AA44)</f>
+        <f t="shared" si="17"/>
         <v>306166.87309068069</v>
       </c>
       <c r="AC44" s="7"/>
       <c r="AD44" s="8"/>
       <c r="AE44" s="9">
-        <f t="shared" ref="AE44" si="174">ABS($C44-AD44)</f>
+        <f t="shared" si="18"/>
         <v>305265.62534149498</v>
       </c>
     </row>
@@ -7498,7 +7502,7 @@
         <v>697.29502203157949</v>
       </c>
       <c r="V45" s="9">
-        <f t="shared" ref="V45" si="175">ABS($C45-U45)</f>
+        <f t="shared" si="14"/>
         <v>925813.0842531505</v>
       </c>
       <c r="W45" s="7"/>
@@ -7507,7 +7511,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y45" s="9">
-        <f t="shared" ref="Y45" si="176">ABS($C45-X45)</f>
+        <f t="shared" si="15"/>
         <v>925095.83980835928</v>
       </c>
       <c r="Z45" s="7"/>
@@ -7516,13 +7520,13 @@
         <v>1569.6637995710539</v>
       </c>
       <c r="AB45" s="9">
-        <f t="shared" ref="AB45" si="177">ABS($C45-AA45)</f>
+        <f t="shared" si="17"/>
         <v>926685.45303069009</v>
       </c>
       <c r="AC45" s="7"/>
       <c r="AD45" s="8"/>
       <c r="AE45" s="9">
-        <f t="shared" ref="AE45" si="178">ABS($C45-AD45)</f>
+        <f t="shared" si="18"/>
         <v>925115.78923111898</v>
       </c>
     </row>
@@ -7594,7 +7598,7 @@
         <v>816.58247164469071</v>
       </c>
       <c r="V46" s="9">
-        <f t="shared" ref="V46" si="179">ABS($C46-U46)</f>
+        <f t="shared" si="14"/>
         <v>1269116.9878828747</v>
       </c>
       <c r="W46" s="7"/>
@@ -7603,7 +7607,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y46" s="9">
-        <f t="shared" ref="Y46" si="180">ABS($C46-X46)</f>
+        <f t="shared" si="15"/>
         <v>1268280.4559884702</v>
       </c>
       <c r="Z46" s="7"/>
@@ -7612,13 +7616,13 @@
         <v>1838.060561200554</v>
       </c>
       <c r="AB46" s="9">
-        <f t="shared" ref="AB46" si="181">ABS($C46-AA46)</f>
+        <f t="shared" si="17"/>
         <v>1270138.4659724305</v>
       </c>
       <c r="AC46" s="7"/>
       <c r="AD46" s="8"/>
       <c r="AE46" s="9">
-        <f t="shared" ref="AE46" si="182">ABS($C46-AD46)</f>
+        <f t="shared" si="18"/>
         <v>1268300.4054112299</v>
       </c>
     </row>
@@ -7690,7 +7694,7 @@
         <v>861.00210209673151</v>
       </c>
       <c r="V47" s="9">
-        <f t="shared" ref="V47" si="183">ABS($C47-U47)</f>
+        <f t="shared" si="14"/>
         <v>1410759.7553023668</v>
       </c>
       <c r="W47" s="7"/>
@@ -7699,7 +7703,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y47" s="9">
-        <f t="shared" ref="Y47" si="184">ABS($C47-X47)</f>
+        <f t="shared" si="15"/>
         <v>1409878.8037775103</v>
       </c>
       <c r="Z47" s="7"/>
@@ -7708,13 +7712,13 @@
         <v>1938.0047297176459</v>
       </c>
       <c r="AB47" s="9">
-        <f t="shared" ref="AB47" si="185">ABS($C47-AA47)</f>
+        <f t="shared" si="17"/>
         <v>1411836.7579299877</v>
       </c>
       <c r="AC47" s="7"/>
       <c r="AD47" s="8"/>
       <c r="AE47" s="9">
-        <f t="shared" ref="AE47" si="186">ABS($C47-AD47)</f>
+        <f t="shared" si="18"/>
         <v>1409898.75320027</v>
       </c>
     </row>
@@ -7786,7 +7790,7 @@
         <v>867.22226564245784</v>
       </c>
       <c r="V48" s="9">
-        <f t="shared" ref="V48" si="187">ABS($C48-U48)</f>
+        <f t="shared" si="14"/>
         <v>1431192.2403651723</v>
       </c>
       <c r="W48" s="7"/>
@@ -7795,7 +7799,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y48" s="9">
-        <f t="shared" ref="Y48" si="188">ABS($C48-X48)</f>
+        <f t="shared" si="15"/>
         <v>1430305.0686767702</v>
       </c>
       <c r="Z48" s="7"/>
@@ -7804,13 +7808,13 @@
         <v>1952.00009769553</v>
       </c>
       <c r="AB48" s="9">
-        <f t="shared" ref="AB48" si="189">ABS($C48-AA48)</f>
+        <f t="shared" si="17"/>
         <v>1432277.0181972254</v>
       </c>
       <c r="AC48" s="7"/>
       <c r="AD48" s="8"/>
       <c r="AE48" s="9">
-        <f t="shared" ref="AE48" si="190">ABS($C48-AD48)</f>
+        <f t="shared" si="18"/>
         <v>1430325.0180995299</v>
       </c>
     </row>
@@ -7882,7 +7886,7 @@
         <v>872.87456040246218</v>
       </c>
       <c r="V49" s="9">
-        <f t="shared" ref="V49" si="191">ABS($C49-U49)</f>
+        <f t="shared" si="14"/>
         <v>1449886.7428877125</v>
       </c>
       <c r="W49" s="7"/>
@@ -7891,7 +7895,7 @@
         <v>-19.949422759758107</v>
       </c>
       <c r="Y49" s="9">
-        <f t="shared" ref="Y49" si="192">ABS($C49-X49)</f>
+        <f t="shared" si="15"/>
         <v>1448993.9189045504</v>
       </c>
       <c r="Z49" s="7"/>
@@ -7900,13 +7904,13 @@
         <v>1964.71776090554</v>
       </c>
       <c r="AB49" s="9">
-        <f t="shared" ref="AB49" si="193">ABS($C49-AA49)</f>
+        <f t="shared" si="17"/>
         <v>1450978.5860882157</v>
       </c>
       <c r="AC49" s="7"/>
       <c r="AD49" s="8"/>
       <c r="AE49" s="9">
-        <f t="shared" ref="AE49" si="194">ABS($C49-AD49)</f>
+        <f t="shared" si="18"/>
         <v>1449013.8683273101</v>
       </c>
     </row>
@@ -7969,17 +7973,1457 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:C48">
-    <sortCondition ref="B4"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="L4" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AW112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:AW2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="69.28515625" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="D2" s="5">
+        <v>-885.65228158949697</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-885.65228158949697</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-801.47483870644203</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-748.91481496262099</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-252.89208809902601</v>
+      </c>
+      <c r="I2" s="5">
+        <v>-92.341224881231994</v>
+      </c>
+      <c r="J2" s="5">
+        <v>-89.188451015197899</v>
+      </c>
+      <c r="K2" s="5">
+        <v>-86.855086201897507</v>
+      </c>
+      <c r="L2" s="5">
+        <v>-78.283502010154905</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-76.273416119667402</v>
+      </c>
+      <c r="N2" s="5">
+        <v>-72.253793134267298</v>
+      </c>
+      <c r="O2" s="5">
+        <v>-63.386374562537199</v>
+      </c>
+      <c r="P2" s="5">
+        <v>-52.661720220185401</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>-15.7535982384133</v>
+      </c>
+      <c r="R2" s="5">
+        <v>-8.1017851471143505</v>
+      </c>
+      <c r="S2" s="5">
+        <v>-5.68584961602226</v>
+      </c>
+      <c r="T2" s="5">
+        <v>-5.4708554028021297</v>
+      </c>
+      <c r="U2" s="5">
+        <v>-4.7823057344506701</v>
+      </c>
+      <c r="V2" s="5">
+        <v>-3.48379131603282</v>
+      </c>
+      <c r="W2" s="5">
+        <v>-2.3980005154824799</v>
+      </c>
+      <c r="X2" s="5">
+        <v>-0.55550003640924595</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.49437461859044901</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>2.86325791483458</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>2.9624292580748901</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>3.3682869645854101</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>4.2010031786643802</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>4.2230395963185003</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>5.6899462002511099</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>9.5385069311135506</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>22.482269506799302</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>25.203823953836299</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>32.009282463433998</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>44.165979696225399</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>77.565534442329096</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>86.025749684104099</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>99.274867572372898</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>134.37245324912399</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>293.99599273640399</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>364.32872056922901</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>423.53104421113699</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>451.12387459284798</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>785.33189978552696</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>919.53028060027702</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>969.50236485882294</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>976.50004884776502</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>982.85888045276999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1108.1501149878</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="str">
+        <f>SUBSTITUTE(C3,"x",D$2)</f>
+        <v>((6*(((6/9)/(9-4))/0))-((2/((3*3)-1))+(1*(2+-885.652281589497))))</v>
+      </c>
+    </row>
+    <row r="4" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1108.2501149878001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D67" si="0">SUBSTITUTE(C4,"x",D$2)</f>
+        <v>((6*(((6/9)/(9-4))/0))-((2/((3*3)-1))+(1*(2+-885.652281589497))))</v>
+      </c>
+    </row>
+    <row r="5" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1735.8092925558201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
+      </c>
+    </row>
+    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1735.8092925558201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1735.8092925558201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1737.1426258891499</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>((((1*6)+((3-5)-(4+8)))/(7-(1*(3/5))))*5)</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1737.8092925558201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>(5*((((-885.652281589497+-885.652281589497)-7)/((5/0)-8))-2))</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1739.0592925558201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>(5-(5*((2+8)/(8/9))))</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1740.1652263697699</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>(4-(8*((0/8)+(7+(0*1)))))</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1740.1652263697699</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>(4-(8*((0/8)+(7+(0*1)))))</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1740.1652263697699</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>(4-(8*((0/8)+(7+(0*1)))))</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1740.1652263697699</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>(4-(8*((0/8)+(7+(0*1)))))</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1745.4754589781201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1751.3086597706799</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>(7*((-885.652281589497/((4/1)+(-885.652281589497--885.652281589497)))-7))</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1756.5468875495401</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1756.5468875495401</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1756.5468875495401</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1756.5468875495401</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1997.39889505208</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>((4/(9*((7+4)*(8+-885.652281589497))))-(4*(2+3)))</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2192.1591017696101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>((1-4)-7)</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2213.1591017696101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>(0-9)</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2271.3977910895801</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>((((1*6)+((3-5)-(4+8)))/(7-(1*(3/5))))*5)</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2283.54589361236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>(-885.652281589497*((((4+9)/(8/1))+4)*1))</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2300.1477910895801</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>(3-8)</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2314.9191294049201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>((-885.652281589497-(2*((5+3)-2)))/3)</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2349.8391006964798</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>(5-8)</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2357.7990619888801</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>((2-6)--885.652281589497)</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2370.0791868217998</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>(-885.652281589497-1)</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2395.3556932711399</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>(((6-(5-2))/(9/-885.652281589497))*(5-2))</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2427.6055663809798</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>((((6/(0+6))-4)/6)/(3*5))</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2428.1070423957399</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>((3-5)/((2/4)*(((7+4)*(3*8))-((6-6)-7))))</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2428.1862224332499</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>(((-885.652281589497/((9*1)/(3/7)))+0)/5)</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2428.2239669539699</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>(((((2-1)*2)+((6/7)/(6+3)))/((3-(7-3))-3))/(((-885.652281589497+2)*1)*((0-6)*((4+-885.652281589497)/(1/-885.652281589497)))))</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2428.49191235645</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>(((5+((6-2)/5))/(4+-885.652281589497))/((7*((9*5)+6))*9))</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2428.5055663809799</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>(((0-8)-0)*0)</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2428.5055663809799</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>(-885.652281589497*(0*0))</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2428.5055663809799</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>(0/(5-(6-(3+(2-9)))))</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2428.8172546926698</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>((1/(8+3))/(7/(((4+4)/(9-6))/3)))</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2430.13706261581</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>((6-3)/((-885.652281589497*3)-8))</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2442.1673508558601</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>(((5/(-885.652281589497*(6/1)))--885.652281589497)/(2-0))</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2455.5055663809799</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>((0+1)+(0+(0/(6-0))))</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2463.5491040305501</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>(9/(1+6))</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2472.8705326019799</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>((7/4)*((9/((5+2)*7))*((4+(7-6))/((8/2)-3))))</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2484.26338974483</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>(2+0)</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2484.26338974483</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>(8-6)</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2484.26338974483</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>(4/2)</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2484.26338974483</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>((1-6)+7)</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2486.7409383004501</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>(3+-885.652281589497)</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2489.0366808928602</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>((9-8)--885.652281589497)</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>2514.9077683733099</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>(((1+5)+0)/2)</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2514.9077683733099</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>(9-6)</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2514.9077683733099</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>(2+1)</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2520.07443503998</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>((5+(8-9))+((4/(5-9))*(5/6)))</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2598.5376842760002</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>(5-(3/(1+(9*9))))</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2616.47198866088</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>((3*2)+-885.652281589497)</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2645.1840257394101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>((-885.652281589497--885.652281589497)+6)</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>2645.1840257394101</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>((0-2)+8)</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2645.1840257394101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>(7-1)</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>2661.47198866088</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>(7+-885.652281589497)</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>2673.8960628179402</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>((7-1)--885.652281589497)</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2780.1840257394101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>(6+3)</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>2786.6111865036301</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>((2-5)*((((3*-885.652281589497)-(7-8))+(9-(5-4)))-1))</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>2825.1840257394101</v>
+      </c>
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>(2+8)</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>2886.47198866088</v>
+      </c>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>(3+(-885.652281589497+(((0/1)+7)+2)))</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>2888.1840257394101</v>
+      </c>
+      <c r="C67" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>(9+(4/(4-((2/6)*7))))</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2888.2298809098302</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D92" si="1">SUBSTITUTE(C68,"x",D$2)</f>
+        <v>(9+(((5*5)-0)/((3-2)+(-885.652281589497/3))))</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>3050.1840257394101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>((9+9)-3)</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>3139.9405992847101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>(-885.652281589497/(((5*(8+-885.652281589497))*(2+(6-7)))/(9-((9*5)-(9-6)))))</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>3365.1840257394101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>(((4+5)+7)+(0+(3+3)))</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>3590.1840257394101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>(9*3)</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>3981.4804750877902</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>(8*(((8/1)-2)/-885.652281589497))</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>4265.1840257394097</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>(((5*8)+2)-((((0*2)+0)/-885.652281589497)/3))</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>4267.1156735782797</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>((((1*5)+2)/2)*((((5*1)*(1+2))+((3/9)/(8*-885.652281589497)))-3))</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>4511.1682852891099</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>((1*(7*((6--885.652281589497)*1)))+1)</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>4580.1840257394097</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>((9+((9-(0*8))+(5*5)))+6)</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>4642.27079398555</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>(8*((8/6)/((9/(1/8))/(0-(7*4)))))</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>4713.9251831711799</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>(((8-((4+7)/(-885.652281589497-9)))-(-885.652281589497-9))*(((3/(0+4))+5)-(2*5)))</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>4790.7113865422798</v>
+      </c>
+      <c r="C80" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>(-885.652281589497*1)</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>4803.0111327619597</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>(0-1)</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>4812.8293145801499</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>(9/((((3*0)/(3/8))-3)-8))</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>4839.0111327619697</v>
+      </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>(((((8+0)/-885.652281589497)*-885.652281589497)-9)/(9-(3+3)))</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>4848.6283541339999</v>
+      </c>
+      <c r="C84" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>((0+-885.652281589497)/8)</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>4851.6111327619701</v>
+      </c>
+      <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>((4/5)/(1*((0-3)-5)))</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>4857.0111327619597</v>
+      </c>
+      <c r="C86" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>(1-1)</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>4857.0111327619597</v>
+      </c>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>((0*3)*7)</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>6723.8960628179402</v>
+      </c>
+      <c r="C88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>((((2+(9-3))+8)*(8-2))--885.652281589497)</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>7039.6887813993399</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>((8*6)/(-885.652281589497+((2/(5-3))/3)))</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>11077.239175705299</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>((0-4)+(9-(7-((4+4)*(6*-885.652281589497)))))</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>18687.372016775698</v>
+      </c>
+      <c r="C91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>(((7+3)*8)*(1*-885.652281589497))</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>22295.1840257394</v>
+      </c>
+      <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>((5+(4+(2/9)))*(6*8))</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>177</v>
+      </c>
+      <c r="C104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110">
+        <v>1735.8092925558201</v>
+      </c>
+      <c r="E110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111">
+        <v>1108.2501149878001</v>
+      </c>
+      <c r="E111" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112">
+        <v>1108.1501149878</v>
+      </c>
+      <c r="E112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="H6:H50">
+    <sortCondition ref="H6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:E13"/>
   <sheetViews>
@@ -8048,10 +9492,5033 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="0.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" customWidth="1"/>
+    <col min="20" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="0.85546875" customWidth="1"/>
+    <col min="23" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="0.85546875" customWidth="1"/>
+    <col min="26" max="27" width="15" customWidth="1"/>
+    <col min="28" max="28" width="0.85546875" customWidth="1"/>
+    <col min="29" max="30" width="15" customWidth="1"/>
+    <col min="31" max="31" width="0.85546875" customWidth="1"/>
+    <col min="32" max="33" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" t="s">
+        <v>935</v>
+      </c>
+      <c r="I1" t="s">
+        <v>935</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" t="s">
+        <v>929</v>
+      </c>
+      <c r="AE1" s="19"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="C2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I2" t="s">
+        <v>934</v>
+      </c>
+      <c r="J2" t="s">
+        <v>583</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" t="s">
+        <v>930</v>
+      </c>
+      <c r="AE2" s="19"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="F3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" t="s">
+        <v>937</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="J3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" t="s">
+        <v>764</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="V3" s="20"/>
+      <c r="W3" t="s">
+        <v>256</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <f>(-3*(B4*B4)-7)/2</f>
+        <v>-5</v>
+      </c>
+      <c r="D4" s="15">
+        <f>(-3*(B4*B4)-7 )/2</f>
+        <v>-5</v>
+      </c>
+      <c r="E4" s="15">
+        <f>((9/7)-(5*B4))</f>
+        <v>-3.7142857142857144</v>
+      </c>
+      <c r="F4" s="9">
+        <f>ABS($C4-E4)</f>
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="G4" s="7">
+        <f>(1*((((5-2)+2)/3)+(B4/((1-9)-(B4/5)))))</f>
+        <v>1.5447154471544715</v>
+      </c>
+      <c r="H4" s="9">
+        <f>ABS($C4-G4)</f>
+        <v>6.5447154471544717</v>
+      </c>
+      <c r="I4" s="15">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="9">
+        <f>ABS($C4-I4)</f>
+        <v>15</v>
+      </c>
+      <c r="K4" s="8">
+        <f>(2*(1-(9-((6-((((9/4)-$B4)*2)+4))-8))))</f>
+        <v>-33</v>
+      </c>
+      <c r="L4" s="9">
+        <f>ABS($C4-K4)</f>
+        <v>28</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8">
+        <f>(6-7)</f>
+        <v>-1</v>
+      </c>
+      <c r="O4" s="10">
+        <f>ABS($C4-N4)</f>
+        <v>4</v>
+      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="8">
+        <f>(4*$B4)</f>
+        <v>4</v>
+      </c>
+      <c r="R4" s="9">
+        <f>ABS($C4-Q4)</f>
+        <v>9</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8">
+        <f>1*0*5</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <f>ABS($C4-T4)</f>
+        <v>5</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="W4" s="8">
+        <f>($B4-((7+$B4)/9))</f>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="X4" s="9">
+        <f>ABS($C4-W4)</f>
+        <v>5.1111111111111107</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="8">
+        <f t="shared" ref="Z4:Z49" si="0">(((2+1)*(9*(((((B4-((9-3)/4))*0)*((((4-2)+5)/1)*B4))-(4*7))/((((2/2)-(1/3))+7)-(7/((4+((6-0)*(B4/B4)))*8))))))/5)</f>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>ABS($C4-Z4)</f>
+        <v>14.949422759758107</v>
+      </c>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="8">
+        <f>(($B4-6)+($B4+5))</f>
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>ABS($C4-AC4)</f>
+        <v>6</v>
+      </c>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="9">
+        <f>ABS($C4-AF4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>-885.65228158949697</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-1176566.4458270201</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" ref="D5:D49" si="1">(-3*(B5*B5)-7 )/2</f>
+        <v>-1176573.4458270224</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" ref="E5:E49" si="2">((9/7)-(5*B5))</f>
+        <v>4429.5471222331998</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F49" si="3">ABS($C5-E5)</f>
+        <v>1180995.9929492534</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G49" si="4">(1*((((5-2)+2)/3)+(B5/((1-9)-(B5/5)))))</f>
+        <v>-3.5698371592605547</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H49" si="5">ABS($C5-G5)</f>
+        <v>1176562.8759898609</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" ref="I5:I49" si="6">9+1</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:J49" si="7">ABS($C5-I5)</f>
+        <v>1176576.4458270201</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K49" si="8">(2*(1-(9-((6-((((9/4)-$B5)*2)+4))-8))))</f>
+        <v>-3579.6091263579879</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" ref="L5:L49" si="9">ABS($C5-K5)</f>
+        <v>1172986.836700662</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:N49" si="10">(6-7)</f>
+        <v>-1</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" ref="O5:O49" si="11">ABS($C5-N5)</f>
+        <v>1176565.4458270201</v>
+      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="8">
+        <f t="shared" ref="Q5:Q49" si="12">(4*$B5)</f>
+        <v>-3542.6091263579879</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" ref="R5:U49" si="13">ABS($C5-Q5)</f>
+        <v>1173023.836700662</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8">
+        <f t="shared" ref="T5:T49" si="14">1*0*5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="13"/>
+        <v>1176566.4458270201</v>
+      </c>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8">
+        <f t="shared" ref="W5:W49" si="15">($B5-((7+$B5)/9))</f>
+        <v>-788.02425030177506</v>
+      </c>
+      <c r="X5" s="9">
+        <f t="shared" ref="X5" si="16">ABS($C5-W5)</f>
+        <v>1175778.4215767183</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA5" s="9">
+        <f t="shared" ref="AA5" si="17">ABS($C5-Z5)</f>
+        <v>1176546.4964042604</v>
+      </c>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="8">
+        <f t="shared" ref="AC5:AC49" si="18">(($B5-6)+($B5+5))</f>
+        <v>-1772.3045631789939</v>
+      </c>
+      <c r="AD5" s="9">
+        <f t="shared" ref="AD5" si="19">ABS($C5-AC5)</f>
+        <v>1174794.1412638412</v>
+      </c>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="9">
+        <f t="shared" ref="AG5" si="20">ABS($C5-AF5)</f>
+        <v>1176566.4458270201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>-801.47483870644203</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-963539.37561927596</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="1"/>
+        <v>-963546.37561927596</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="2"/>
+        <v>4008.6599078179242</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="3"/>
+        <v>967548.03552709392</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.5959815389388528</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="5"/>
+        <v>963535.77963773697</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="7"/>
+        <v>963549.37561927596</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="8"/>
+        <v>-3242.8993548257681</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="9"/>
+        <v>960296.47626445023</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="11"/>
+        <v>963538.37561927596</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="8">
+        <f t="shared" si="12"/>
+        <v>-3205.8993548257681</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="13"/>
+        <v>960333.47626445023</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" si="13"/>
+        <v>963539.37561927596</v>
+      </c>
+      <c r="V6" s="7"/>
+      <c r="W6" s="8">
+        <f t="shared" si="15"/>
+        <v>-713.19985662794852</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" ref="X6" si="21">ABS($C6-W6)</f>
+        <v>962826.175762648</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" ref="AA6" si="22">ABS($C6-Z6)</f>
+        <v>963519.42619651626</v>
+      </c>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="8">
+        <f t="shared" si="18"/>
+        <v>-1603.9496774128841</v>
+      </c>
+      <c r="AD6" s="9">
+        <f t="shared" ref="AD6" si="23">ABS($C6-AC6)</f>
+        <v>961935.4259418631</v>
+      </c>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="9">
+        <f t="shared" ref="AG6" si="24">ABS($C6-AF6)</f>
+        <v>963539.37561927596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>-748.91481496262099</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-841306.60010574595</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="1"/>
+        <v>-841313.60010574525</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="2"/>
+        <v>3745.859789098819</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="3"/>
+        <v>845052.4598948448</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.6154546767990432</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="5"/>
+        <v>841302.98465106916</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="7"/>
+        <v>841316.60010574595</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="8"/>
+        <v>-3032.659259850484</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="9"/>
+        <v>838273.94084589544</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="11"/>
+        <v>841305.60010574595</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="8">
+        <f t="shared" si="12"/>
+        <v>-2995.659259850484</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="13"/>
+        <v>838310.94084589544</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <f t="shared" si="13"/>
+        <v>841306.60010574595</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8">
+        <f t="shared" si="15"/>
+        <v>-666.47983552232972</v>
+      </c>
+      <c r="X7" s="9">
+        <f t="shared" ref="X7" si="25">ABS($C7-W7)</f>
+        <v>840640.12027022359</v>
+      </c>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA7" s="9">
+        <f t="shared" ref="AA7" si="26">ABS($C7-Z7)</f>
+        <v>841286.65068298625</v>
+      </c>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="8">
+        <f t="shared" si="18"/>
+        <v>-1498.829629925242</v>
+      </c>
+      <c r="AD7" s="9">
+        <f t="shared" ref="AD7" si="27">ABS($C7-AC7)</f>
+        <v>839807.77047582075</v>
+      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="9">
+        <f t="shared" ref="AG7" si="28">ABS($C7-AF7)</f>
+        <v>841306.60010574595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>-252.89208809902601</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-95928.1123346284</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="1"/>
+        <v>-95935.112334628298</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="2"/>
+        <v>1265.7461547808443</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="3"/>
+        <v>97193.858489409249</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="4"/>
+        <v>-4.2727764182589256</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="5"/>
+        <v>95923.839558210137</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="7"/>
+        <v>95938.1123346284</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="8"/>
+        <v>-1048.568352396104</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="9"/>
+        <v>94879.543982232295</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="11"/>
+        <v>95927.1123346284</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="8">
+        <f t="shared" si="12"/>
+        <v>-1011.568352396104</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="13"/>
+        <v>94916.543982232295</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <f t="shared" si="13"/>
+        <v>95928.1123346284</v>
+      </c>
+      <c r="V8" s="7"/>
+      <c r="W8" s="8">
+        <f t="shared" si="15"/>
+        <v>-225.57074497691201</v>
+      </c>
+      <c r="X8" s="9">
+        <f t="shared" ref="X8" si="29">ABS($C8-W8)</f>
+        <v>95702.54158965149</v>
+      </c>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" ref="AA8" si="30">ABS($C8-Z8)</f>
+        <v>95908.16291186864</v>
+      </c>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="8">
+        <f t="shared" si="18"/>
+        <v>-506.78417619805202</v>
+      </c>
+      <c r="AD8" s="9">
+        <f t="shared" ref="AD8" si="31">ABS($C8-AC8)</f>
+        <v>95421.328158430348</v>
+      </c>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="9">
+        <f t="shared" ref="AG8" si="32">ABS($C8-AF8)</f>
+        <v>95928.1123346284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>-92.341224881231994</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-12786.852718849301</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="1"/>
+        <v>-12793.852718849388</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="2"/>
+        <v>462.99183869187425</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="3"/>
+        <v>13249.844557541175</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="4"/>
+        <v>-7.1544131887211657</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="5"/>
+        <v>12779.69830566058</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="7"/>
+        <v>12796.852718849301</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="8"/>
+        <v>-406.36489952492798</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="9"/>
+        <v>12380.487819324373</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="11"/>
+        <v>12785.852718849301</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="8">
+        <f t="shared" si="12"/>
+        <v>-369.36489952492798</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="13"/>
+        <v>12417.487819324373</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="13"/>
+        <v>12786.852718849301</v>
+      </c>
+      <c r="V9" s="7"/>
+      <c r="W9" s="8">
+        <f t="shared" si="15"/>
+        <v>-82.858866561095113</v>
+      </c>
+      <c r="X9" s="9">
+        <f t="shared" ref="X9" si="33">ABS($C9-W9)</f>
+        <v>12703.993852288206</v>
+      </c>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA9" s="9">
+        <f t="shared" ref="AA9" si="34">ABS($C9-Z9)</f>
+        <v>12766.903296089542</v>
+      </c>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="8">
+        <f t="shared" si="18"/>
+        <v>-185.68244976246399</v>
+      </c>
+      <c r="AD9" s="9">
+        <f t="shared" ref="AD9" si="35">ABS($C9-AC9)</f>
+        <v>12601.170269086837</v>
+      </c>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="9">
+        <f t="shared" ref="AG9" si="36">ABS($C9-AF9)</f>
+        <v>12786.852718849301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>-89.188451015197899</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-11928.369691735499</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="1"/>
+        <v>-11935.369691735534</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="2"/>
+        <v>447.22796936170374</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="3"/>
+        <v>12375.597661097203</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="4"/>
+        <v>-7.3993284169802136</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="5"/>
+        <v>11920.970363318518</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="7"/>
+        <v>11938.369691735499</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="8"/>
+        <v>-393.75380406079159</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="9"/>
+        <v>11534.615887674707</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="11"/>
+        <v>11927.369691735499</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="8">
+        <f t="shared" si="12"/>
+        <v>-356.75380406079159</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="13"/>
+        <v>11571.615887674707</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="13"/>
+        <v>11928.369691735499</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8">
+        <f t="shared" si="15"/>
+        <v>-80.056400902398138</v>
+      </c>
+      <c r="X10" s="9">
+        <f t="shared" ref="X10" si="37">ABS($C10-W10)</f>
+        <v>11848.313290833101</v>
+      </c>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA10" s="9">
+        <f t="shared" ref="AA10" si="38">ABS($C10-Z10)</f>
+        <v>11908.42026897574</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="8">
+        <f t="shared" si="18"/>
+        <v>-179.3769020303958</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" ref="AD10" si="39">ABS($C10-AC10)</f>
+        <v>11748.992789705104</v>
+      </c>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="9">
+        <f t="shared" ref="AG10" si="40">ABS($C10-AF10)</f>
+        <v>11928.369691735499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>-86.855086201897507</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-11312.2089987085</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="1"/>
+        <v>-11319.208998708569</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>435.56114529520181</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>11747.770144003702</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="4"/>
+        <v>-7.6018133685253408</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="5"/>
+        <v>11304.607185339975</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="7"/>
+        <v>11322.2089987085</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="8"/>
+        <v>-384.42034480759003</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="9"/>
+        <v>10927.788653900911</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="11"/>
+        <v>11311.2089987085</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="8">
+        <f t="shared" si="12"/>
+        <v>-347.42034480759003</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="13"/>
+        <v>10964.788653900911</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="13"/>
+        <v>11312.2089987085</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8">
+        <f t="shared" si="15"/>
+        <v>-77.982298846131116</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" ref="X11" si="41">ABS($C11-W11)</f>
+        <v>11234.226699862369</v>
+      </c>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" ref="AA11" si="42">ABS($C11-Z11)</f>
+        <v>11292.259575948741</v>
+      </c>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="8">
+        <f t="shared" si="18"/>
+        <v>-174.71017240379501</v>
+      </c>
+      <c r="AD11" s="9">
+        <f t="shared" ref="AD11" si="43">ABS($C11-AC11)</f>
+        <v>11137.498826304705</v>
+      </c>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="9">
+        <f t="shared" ref="AG11" si="44">ABS($C11-AF11)</f>
+        <v>11312.2089987085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>-78.283502010154905</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-9188.9600304608903</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="1"/>
+        <v>-9195.9600304608903</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="2"/>
+        <v>392.7032243364888</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="3"/>
+        <v>9581.6632547973786</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="4"/>
+        <v>-8.5575158009390631</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="5"/>
+        <v>9180.4025146599506</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="7"/>
+        <v>9198.9600304608903</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="8"/>
+        <v>-350.13400804061962</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="9"/>
+        <v>8838.8260224202713</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="11"/>
+        <v>9187.9600304608903</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="8">
+        <f t="shared" si="12"/>
+        <v>-313.13400804061962</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="13"/>
+        <v>8875.8260224202713</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="13"/>
+        <v>9188.9600304608903</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="8">
+        <f t="shared" si="15"/>
+        <v>-70.363112897915471</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" ref="X12" si="45">ABS($C12-W12)</f>
+        <v>9118.5969175629743</v>
+      </c>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" ref="AA12" si="46">ABS($C12-Z12)</f>
+        <v>9169.0106077011314</v>
+      </c>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="8">
+        <f t="shared" si="18"/>
+        <v>-157.56700402030981</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" ref="AD12" si="47">ABS($C12-AC12)</f>
+        <v>9031.3930264405808</v>
+      </c>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="9">
+        <f t="shared" ref="AG12" si="48">ABS($C12-AF12)</f>
+        <v>9188.9600304608903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>-76.273416119667402</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-8722.9510098459104</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="1"/>
+        <v>-8729.9510098459086</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="2"/>
+        <v>382.65279488405127</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="3"/>
+        <v>9105.6038047299626</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="4"/>
+        <v>-8.8470130854744689</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="5"/>
+        <v>8714.1039967604356</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="7"/>
+        <v>8732.9510098459104</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="8"/>
+        <v>-342.09366447866961</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="9"/>
+        <v>8380.8573453672416</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="11"/>
+        <v>8721.9510098459104</v>
+      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="8">
+        <f t="shared" si="12"/>
+        <v>-305.09366447866961</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="13"/>
+        <v>8417.8573453672416</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="13"/>
+        <v>8722.9510098459104</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8">
+        <f t="shared" si="15"/>
+        <v>-68.576369884148804</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" ref="X13" si="49">ABS($C13-W13)</f>
+        <v>8654.3746399617612</v>
+      </c>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" ref="AA13" si="50">ABS($C13-Z13)</f>
+        <v>8703.0015870861516</v>
+      </c>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="8">
+        <f t="shared" si="18"/>
+        <v>-153.5468322393348</v>
+      </c>
+      <c r="AD13" s="9">
+        <f t="shared" ref="AD13" si="51">ABS($C13-AC13)</f>
+        <v>8569.4041776065751</v>
+      </c>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="9">
+        <f t="shared" ref="AG13" si="52">ABS($C13-AF13)</f>
+        <v>8722.9510098459104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>-72.253793134267298</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-7827.4159334342403</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="1"/>
+        <v>-7834.4159334342385</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="2"/>
+        <v>362.55467995705078</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="3"/>
+        <v>8189.9706133912914</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="4"/>
+        <v>-9.5341544016471431</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="5"/>
+        <v>7817.8817790325929</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="7"/>
+        <v>7837.4159334342403</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="8"/>
+        <v>-326.01517253706919</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="9"/>
+        <v>7501.4007608971715</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="11"/>
+        <v>7826.4159334342403</v>
+      </c>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="8">
+        <f t="shared" si="12"/>
+        <v>-289.01517253706919</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="13"/>
+        <v>7538.4007608971715</v>
+      </c>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="13"/>
+        <v>7827.4159334342403</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="8">
+        <f t="shared" si="15"/>
+        <v>-65.003371674904258</v>
+      </c>
+      <c r="X14" s="9">
+        <f t="shared" ref="X14" si="53">ABS($C14-W14)</f>
+        <v>7762.4125617593363</v>
+      </c>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA14" s="9">
+        <f t="shared" ref="AA14" si="54">ABS($C14-Z14)</f>
+        <v>7807.4665106744824</v>
+      </c>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="8">
+        <f t="shared" si="18"/>
+        <v>-145.5075862685346</v>
+      </c>
+      <c r="AD14" s="9">
+        <f t="shared" ref="AD14" si="55">ABS($C14-AC14)</f>
+        <v>7681.9083471657059</v>
+      </c>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="9">
+        <f t="shared" ref="AG14" si="56">ABS($C14-AF14)</f>
+        <v>7827.4159334342403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>-63.386374562537199</v>
+      </c>
+      <c r="C15" s="5">
+        <v>-6023.2487202734101</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="1"/>
+        <v>-6030.2487202733937</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="2"/>
+        <v>318.21758709840026</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="3"/>
+        <v>6341.4663073718102</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="4"/>
+        <v>-11.885321563282472</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="5"/>
+        <v>6011.3633987101275</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="7"/>
+        <v>6033.2487202734101</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="8"/>
+        <v>-290.5454982501488</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="9"/>
+        <v>5732.7032220232613</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="11"/>
+        <v>6022.2487202734101</v>
+      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="8">
+        <f t="shared" si="12"/>
+        <v>-253.5454982501488</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="13"/>
+        <v>5769.7032220232613</v>
+      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="13"/>
+        <v>6023.2487202734101</v>
+      </c>
+      <c r="V15" s="7"/>
+      <c r="W15" s="8">
+        <f t="shared" si="15"/>
+        <v>-57.121221833366398</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" ref="X15" si="57">ABS($C15-W15)</f>
+        <v>5966.1274984400434</v>
+      </c>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA15" s="9">
+        <f t="shared" ref="AA15" si="58">ABS($C15-Z15)</f>
+        <v>6003.2992975136522</v>
+      </c>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="8">
+        <f t="shared" si="18"/>
+        <v>-127.7727491250744</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" ref="AD15" si="59">ABS($C15-AC15)</f>
+        <v>5895.4759711483357</v>
+      </c>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="9">
+        <f t="shared" ref="AG15" si="60">ABS($C15-AF15)</f>
+        <v>6023.2487202734101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>-52.661720220185401</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-4156.3851648236296</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="1"/>
+        <v>-4163.3851648236259</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="2"/>
+        <v>264.59431538664131</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="3"/>
+        <v>4420.9794802102706</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="4"/>
+        <v>-19.128975356852273</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="5"/>
+        <v>4137.256189466777</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="7"/>
+        <v>4166.3851648236296</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="8"/>
+        <v>-247.64688088074161</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="9"/>
+        <v>3908.7382839428878</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="11"/>
+        <v>4155.3851648236296</v>
+      </c>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="8">
+        <f t="shared" si="12"/>
+        <v>-210.64688088074161</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="13"/>
+        <v>3945.7382839428878</v>
+      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="13"/>
+        <v>4156.3851648236296</v>
+      </c>
+      <c r="V16" s="7"/>
+      <c r="W16" s="8">
+        <f t="shared" si="15"/>
+        <v>-47.588195751275912</v>
+      </c>
+      <c r="X16" s="9">
+        <f t="shared" ref="X16" si="61">ABS($C16-W16)</f>
+        <v>4108.7969690723539</v>
+      </c>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA16" s="9">
+        <f t="shared" ref="AA16" si="62">ABS($C16-Z16)</f>
+        <v>4136.4357420638717</v>
+      </c>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="8">
+        <f t="shared" si="18"/>
+        <v>-106.3234404403708</v>
+      </c>
+      <c r="AD16" s="9">
+        <f t="shared" ref="AD16" si="63">ABS($C16-AC16)</f>
+        <v>4050.0617243832589</v>
+      </c>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="9">
+        <f t="shared" ref="AG16" si="64">ABS($C16-AF16)</f>
+        <v>4156.3851648236296</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>-15.7535982384133</v>
+      </c>
+      <c r="C17" s="5">
+        <v>-368.76378618601001</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="1"/>
+        <v>-375.76378618600791</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="2"/>
+        <v>80.053705477780795</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="3"/>
+        <v>448.8174916637908</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="4"/>
+        <v>4.9153132892289362</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="5"/>
+        <v>373.67909947523896</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="7"/>
+        <v>378.76378618601001</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="8"/>
+        <v>-100.0143929536532</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="9"/>
+        <v>268.74939323235679</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="11"/>
+        <v>367.76378618601001</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="8">
+        <f t="shared" si="12"/>
+        <v>-63.0143929536532</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="13"/>
+        <v>305.74939323235679</v>
+      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="13"/>
+        <v>368.76378618601001</v>
+      </c>
+      <c r="V17" s="7"/>
+      <c r="W17" s="8">
+        <f t="shared" si="15"/>
+        <v>-14.780976211922933</v>
+      </c>
+      <c r="X17" s="9">
+        <f t="shared" ref="X17" si="65">ABS($C17-W17)</f>
+        <v>353.9828099740871</v>
+      </c>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" ref="AA17" si="66">ABS($C17-Z17)</f>
+        <v>348.81436342625193</v>
+      </c>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="8">
+        <f t="shared" si="18"/>
+        <v>-32.5071964768266</v>
+      </c>
+      <c r="AD17" s="9">
+        <f t="shared" ref="AD17" si="67">ABS($C17-AC17)</f>
+        <v>336.2565897091834</v>
+      </c>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="9">
+        <f t="shared" ref="AG17" si="68">ABS($C17-AF17)</f>
+        <v>368.76378618601001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>-8.1017851471143505</v>
+      </c>
+      <c r="C18" s="5">
+        <v>-94.9583838550042</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="1"/>
+        <v>-101.95838385500403</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="2"/>
+        <v>41.794640021286035</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="3"/>
+        <v>136.75302387629023</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="4"/>
+        <v>2.9366100137285209</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="5"/>
+        <v>97.894993868732726</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="7"/>
+        <v>104.9583838550042</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="8"/>
+        <v>-69.407140588457395</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="9"/>
+        <v>25.551243266546805</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="11"/>
+        <v>93.9583838550042</v>
+      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="8">
+        <f t="shared" si="12"/>
+        <v>-32.407140588457402</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="13"/>
+        <v>62.551243266546798</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="13"/>
+        <v>94.9583838550042</v>
+      </c>
+      <c r="V18" s="7"/>
+      <c r="W18" s="8">
+        <f t="shared" si="15"/>
+        <v>-7.979364575212756</v>
+      </c>
+      <c r="X18" s="9">
+        <f t="shared" ref="X18" si="69">ABS($C18-W18)</f>
+        <v>86.979019279791444</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA18" s="9">
+        <f t="shared" ref="AA18" si="70">ABS($C18-Z18)</f>
+        <v>75.008961095246093</v>
+      </c>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="8">
+        <f t="shared" si="18"/>
+        <v>-17.203570294228701</v>
+      </c>
+      <c r="AD18" s="9">
+        <f t="shared" ref="AD18" si="71">ABS($C18-AC18)</f>
+        <v>77.754813560775503</v>
+      </c>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="9">
+        <f t="shared" ref="AG18" si="72">ABS($C18-AF18)</f>
+        <v>94.9583838550042</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>-5.68584961602226</v>
+      </c>
+      <c r="C19" s="5">
+        <v>-44.993328784030702</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="1"/>
+        <v>-51.993328784030723</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="2"/>
+        <v>29.714962365825585</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="3"/>
+        <v>74.708291149856279</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="4"/>
+        <v>2.4951659231537437</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="5"/>
+        <v>47.488494707184444</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="7"/>
+        <v>54.993328784030702</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="8"/>
+        <v>-59.74339846408904</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="9"/>
+        <v>14.750069680058338</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="11"/>
+        <v>43.993328784030702</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="8">
+        <f t="shared" si="12"/>
+        <v>-22.74339846408904</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="13"/>
+        <v>22.249930319941662</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="13"/>
+        <v>44.993328784030702</v>
+      </c>
+      <c r="V19" s="7"/>
+      <c r="W19" s="8">
+        <f t="shared" si="15"/>
+        <v>-5.8318663253531202</v>
+      </c>
+      <c r="X19" s="9">
+        <f t="shared" ref="X19" si="73">ABS($C19-W19)</f>
+        <v>39.161462458677583</v>
+      </c>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA19" s="9">
+        <f t="shared" ref="AA19" si="74">ABS($C19-Z19)</f>
+        <v>25.043906024272594</v>
+      </c>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="8">
+        <f t="shared" si="18"/>
+        <v>-12.37169923204452</v>
+      </c>
+      <c r="AD19" s="9">
+        <f t="shared" ref="AD19" si="75">ABS($C19-AC19)</f>
+        <v>32.621629551986182</v>
+      </c>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="9">
+        <f t="shared" ref="AG19" si="76">ABS($C19-AF19)</f>
+        <v>44.993328784030702</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>-5.4708554028021297</v>
+      </c>
+      <c r="C20" s="5">
+        <v>-41.395388257553897</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="1"/>
+        <v>-48.395388257553876</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="2"/>
+        <v>28.639991299724933</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="3"/>
+        <v>70.03537955727883</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="4"/>
+        <v>2.4588750266800368</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="5"/>
+        <v>43.854263284233937</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="7"/>
+        <v>51.395388257553897</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="8"/>
+        <v>-58.883421611208519</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="9"/>
+        <v>17.488033353654622</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="11"/>
+        <v>40.395388257553897</v>
+      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="8">
+        <f t="shared" si="12"/>
+        <v>-21.883421611208519</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="13"/>
+        <v>19.511966646345378</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="13"/>
+        <v>41.395388257553897</v>
+      </c>
+      <c r="V20" s="7"/>
+      <c r="W20" s="8">
+        <f t="shared" si="15"/>
+        <v>-5.6407603580463377</v>
+      </c>
+      <c r="X20" s="9">
+        <f t="shared" ref="X20" si="77">ABS($C20-W20)</f>
+        <v>35.754627899507561</v>
+      </c>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" ref="AA20" si="78">ABS($C20-Z20)</f>
+        <v>21.44596549779579</v>
+      </c>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="8">
+        <f t="shared" si="18"/>
+        <v>-11.941710805604259</v>
+      </c>
+      <c r="AD20" s="9">
+        <f t="shared" ref="AD20" si="79">ABS($C20-AC20)</f>
+        <v>29.453677451949638</v>
+      </c>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="9">
+        <f t="shared" ref="AG20" si="80">ABS($C20-AF20)</f>
+        <v>41.395388257553897</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>-4.7823057344506701</v>
+      </c>
+      <c r="C21" s="5">
+        <v>-30.805672206639599</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="1"/>
+        <v>-37.805672206639642</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="2"/>
+        <v>25.197242957967635</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="3"/>
+        <v>56.002915164607231</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="4"/>
+        <v>2.345630158482884</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="5"/>
+        <v>33.151302365122483</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="7"/>
+        <v>40.805672206639599</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="8"/>
+        <v>-56.12922293780268</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="9"/>
+        <v>25.323550731163081</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="11"/>
+        <v>29.805672206639599</v>
+      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="8">
+        <f t="shared" si="12"/>
+        <v>-19.12922293780268</v>
+      </c>
+      <c r="R21" s="9">
+        <f t="shared" si="13"/>
+        <v>11.676449268836919</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="13"/>
+        <v>30.805672206639599</v>
+      </c>
+      <c r="V21" s="7"/>
+      <c r="W21" s="8">
+        <f t="shared" si="15"/>
+        <v>-5.0287162084005956</v>
+      </c>
+      <c r="X21" s="9">
+        <f t="shared" ref="X21" si="81">ABS($C21-W21)</f>
+        <v>25.776955998239004</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA21" s="9">
+        <f t="shared" ref="AA21" si="82">ABS($C21-Z21)</f>
+        <v>10.856249446881492</v>
+      </c>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="8">
+        <f t="shared" si="18"/>
+        <v>-10.56461146890134</v>
+      </c>
+      <c r="AD21" s="9">
+        <f t="shared" ref="AD21" si="83">ABS($C21-AC21)</f>
+        <v>20.241060737738259</v>
+      </c>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="9">
+        <f t="shared" ref="AG21" si="84">ABS($C21-AF21)</f>
+        <v>30.805672206639599</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <v>-3.48379131603282</v>
+      </c>
+      <c r="C22" s="5">
+        <v>-14.7052029004986</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="1"/>
+        <v>-21.705202900498531</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="2"/>
+        <v>18.704670865878384</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="3"/>
+        <v>33.409873766376982</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="4"/>
+        <v>2.1436865219018593</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="5"/>
+        <v>16.848889422400461</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="7"/>
+        <v>24.705202900498598</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="8"/>
+        <v>-50.935165264131278</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="9"/>
+        <v>36.22996236363268</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="11"/>
+        <v>13.7052029004986</v>
+      </c>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="8">
+        <f t="shared" si="12"/>
+        <v>-13.93516526413128</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" si="13"/>
+        <v>0.77003763636732003</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="shared" si="13"/>
+        <v>14.7052029004986</v>
+      </c>
+      <c r="V22" s="7"/>
+      <c r="W22" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.874481169806951</v>
+      </c>
+      <c r="X22" s="9">
+        <f t="shared" ref="X22" si="85">ABS($C22-W22)</f>
+        <v>10.83072173069165</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" ref="AA22" si="86">ABS($C22-Z22)</f>
+        <v>5.2442198592595073</v>
+      </c>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="8">
+        <f t="shared" si="18"/>
+        <v>-7.9675826320656391</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" ref="AD22" si="87">ABS($C22-AC22)</f>
+        <v>6.7376202684329609</v>
+      </c>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="9">
+        <f t="shared" ref="AG22" si="88">ABS($C22-AF22)</f>
+        <v>14.7052029004986</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>-2.3980005154824799</v>
+      </c>
+      <c r="C23" s="5">
+        <v>-5.1256097083813597</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="1"/>
+        <v>-12.125609708381358</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="2"/>
+        <v>13.275716863126686</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="3"/>
+        <v>18.401326571508044</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="4"/>
+        <v>1.9855327573475423</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="5"/>
+        <v>7.1111424657289017</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="7"/>
+        <v>15.12560970838136</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="8"/>
+        <v>-46.592002061929918</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="9"/>
+        <v>41.466392353548557</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="11"/>
+        <v>4.1256097083813597</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="8">
+        <f t="shared" si="12"/>
+        <v>-9.5920020619299198</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="13"/>
+        <v>4.4663923535485601</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="13"/>
+        <v>5.1256097083813597</v>
+      </c>
+      <c r="V23" s="7"/>
+      <c r="W23" s="8">
+        <f t="shared" si="15"/>
+        <v>-2.9093337915399822</v>
+      </c>
+      <c r="X23" s="9">
+        <f t="shared" ref="X23" si="89">ABS($C23-W23)</f>
+        <v>2.2162759168413775</v>
+      </c>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA23" s="9">
+        <f t="shared" ref="AA23" si="90">ABS($C23-Z23)</f>
+        <v>14.823813051376748</v>
+      </c>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="8">
+        <f t="shared" si="18"/>
+        <v>-5.796001030964959</v>
+      </c>
+      <c r="AD23" s="9">
+        <f t="shared" ref="AD23" si="91">ABS($C23-AC23)</f>
+        <v>0.67039132258359935</v>
+      </c>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="9">
+        <f t="shared" ref="AG23" si="92">ABS($C23-AF23)</f>
+        <v>5.1256097083813597</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>-0.55550003640924595</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.0371295643239802</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="1"/>
+        <v>-3.9628704356760105</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="2"/>
+        <v>4.0632144677605151</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0260849034365349</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="4"/>
+        <v>1.7370820651280492</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="5"/>
+        <v>1.300047499195931</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="7"/>
+        <v>6.9628704356760203</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="8"/>
+        <v>-39.222000145636983</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="9"/>
+        <v>42.259129709960966</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="11"/>
+        <v>4.0371295643239797</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="8">
+        <f t="shared" si="12"/>
+        <v>-2.2220001456369838</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="13"/>
+        <v>5.2591297099609644</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="13"/>
+        <v>3.0371295643239802</v>
+      </c>
+      <c r="V24" s="7"/>
+      <c r="W24" s="8">
+        <f t="shared" si="15"/>
+        <v>-1.2715555879193299</v>
+      </c>
+      <c r="X24" s="9">
+        <f t="shared" ref="X24" si="93">ABS($C24-W24)</f>
+        <v>4.3086851522433101</v>
+      </c>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA24" s="9">
+        <f t="shared" ref="AA24" si="94">ABS($C24-Z24)</f>
+        <v>22.986552324082087</v>
+      </c>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="8">
+        <f t="shared" si="18"/>
+        <v>-2.1110000728184914</v>
+      </c>
+      <c r="AD24" s="9">
+        <f t="shared" ref="AD24" si="95">ABS($C24-AC24)</f>
+        <v>5.1481296371424712</v>
+      </c>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="9">
+        <f t="shared" ref="AG24" si="96">ABS($C24-AF24)</f>
+        <v>3.0371295643239802</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>0.49437461859044901</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3.1333906047403199</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="1"/>
+        <v>-3.8666093952596778</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="2"/>
+        <v>-1.1861588072379592</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="3"/>
+        <v>4.3195494119782794</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6056242844534732</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="5"/>
+        <v>1.5277663202868468</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="7"/>
+        <v>6.8666093952596796</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="8"/>
+        <v>-35.022501525638205</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="9"/>
+        <v>38.155892130378525</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="11"/>
+        <v>4.1333906047403204</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="8">
+        <f t="shared" si="12"/>
+        <v>1.977498474361796</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="13"/>
+        <v>1.1558921303785239</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="13"/>
+        <v>3.1333906047403199</v>
+      </c>
+      <c r="V25" s="7"/>
+      <c r="W25" s="8">
+        <f t="shared" si="15"/>
+        <v>-0.33833367236404527</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" ref="X25" si="97">ABS($C25-W25)</f>
+        <v>3.4717242771043653</v>
+      </c>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA25" s="9">
+        <f t="shared" ref="AA25" si="98">ABS($C25-Z25)</f>
+        <v>23.082813364498428</v>
+      </c>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="8">
+        <f t="shared" si="18"/>
+        <v>-1.1250762819102533E-2</v>
+      </c>
+      <c r="AD25" s="9">
+        <f t="shared" ref="AD25" si="99">ABS($C25-AC25)</f>
+        <v>3.1446413675594225</v>
+      </c>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="9">
+        <f t="shared" ref="AG25" si="100">ABS($C25-AF25)</f>
+        <v>3.1333906047403199</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>2.86325791483458</v>
+      </c>
+      <c r="C26" s="5">
+        <v>-8.79736883029436</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="1"/>
+        <v>-15.797368830294301</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="2"/>
+        <v>-13.030575288458614</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="3"/>
+        <v>4.2332064581642541</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="4"/>
+        <v>1.3326675664905188</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="5"/>
+        <v>10.130036396784879</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="7"/>
+        <v>18.79736883029436</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="8"/>
+        <v>-25.546968340661678</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="9"/>
+        <v>16.749599510367318</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="11"/>
+        <v>7.79736883029436</v>
+      </c>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="8">
+        <f t="shared" si="12"/>
+        <v>11.45303165933832</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="13"/>
+        <v>20.250400489632682</v>
+      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="shared" si="13"/>
+        <v>8.79736883029436</v>
+      </c>
+      <c r="V26" s="7"/>
+      <c r="W26" s="8">
+        <f t="shared" si="15"/>
+        <v>1.767340368741849</v>
+      </c>
+      <c r="X26" s="9">
+        <f t="shared" ref="X26" si="101">ABS($C26-W26)</f>
+        <v>10.564709199036209</v>
+      </c>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA26" s="9">
+        <f t="shared" ref="AA26" si="102">ABS($C26-Z26)</f>
+        <v>11.152053929463747</v>
+      </c>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="8">
+        <f t="shared" si="18"/>
+        <v>4.726515829669161</v>
+      </c>
+      <c r="AD26" s="9">
+        <f t="shared" ref="AD26" si="103">ABS($C26-AC26)</f>
+        <v>13.523884659963521</v>
+      </c>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="9">
+        <f t="shared" ref="AG26" si="104">ABS($C26-AF26)</f>
+        <v>8.79736883029436</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>2.9624292580748901</v>
+      </c>
+      <c r="C27" s="5">
+        <v>-9.6639806636472496</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="1"/>
+        <v>-16.663980663647216</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="2"/>
+        <v>-13.526432004660164</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="3"/>
+        <v>3.862451341012914</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="4"/>
+        <v>1.3218969097844842</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="5"/>
+        <v>10.985877573431734</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="7"/>
+        <v>19.663980663647251</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="8"/>
+        <v>-25.150282967700441</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="9"/>
+        <v>15.486302304053192</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="11"/>
+        <v>8.6639806636472496</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="8">
+        <f t="shared" si="12"/>
+        <v>11.84971703229956</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" si="13"/>
+        <v>21.51369769594681</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <f t="shared" si="13"/>
+        <v>9.6639806636472496</v>
+      </c>
+      <c r="V27" s="7"/>
+      <c r="W27" s="8">
+        <f t="shared" si="15"/>
+        <v>1.8554926738443469</v>
+      </c>
+      <c r="X27" s="9">
+        <f t="shared" ref="X27" si="105">ABS($C27-W27)</f>
+        <v>11.519473337491597</v>
+      </c>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA27" s="9">
+        <f t="shared" ref="AA27" si="106">ABS($C27-Z27)</f>
+        <v>10.285442096110858</v>
+      </c>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="8">
+        <f t="shared" si="18"/>
+        <v>4.9248585161497793</v>
+      </c>
+      <c r="AD27" s="9">
+        <f t="shared" ref="AD27" si="107">ABS($C27-AC27)</f>
+        <v>14.588839179797029</v>
+      </c>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="9">
+        <f t="shared" ref="AG27" si="108">ABS($C27-AF27)</f>
+        <v>9.6639806636472496</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>3.3682869645854101</v>
+      </c>
+      <c r="C28" s="5">
+        <v>-13.518035613694</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="1"/>
+        <v>-20.518035613693993</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="2"/>
+        <v>-15.555720537212762</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="3"/>
+        <v>2.0376849235187624</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2783314106147092</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="5"/>
+        <v>14.79636702430871</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="7"/>
+        <v>23.518035613694</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="8"/>
+        <v>-23.52685214165836</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="9"/>
+        <v>10.00881652796436</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="11"/>
+        <v>12.518035613694</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="8">
+        <f t="shared" si="12"/>
+        <v>13.47314785834164</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="13"/>
+        <v>26.99118347203564</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="13"/>
+        <v>13.518035613694</v>
+      </c>
+      <c r="V28" s="7"/>
+      <c r="W28" s="8">
+        <f t="shared" si="15"/>
+        <v>2.2162550796314759</v>
+      </c>
+      <c r="X28" s="9">
+        <f t="shared" ref="X28" si="109">ABS($C28-W28)</f>
+        <v>15.734290693325477</v>
+      </c>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA28" s="9">
+        <f t="shared" ref="AA28" si="110">ABS($C28-Z28)</f>
+        <v>6.4313871460641074</v>
+      </c>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="8">
+        <f t="shared" si="18"/>
+        <v>5.7365739291708202</v>
+      </c>
+      <c r="AD28" s="9">
+        <f t="shared" ref="AD28" si="111">ABS($C28-AC28)</f>
+        <v>19.25460954286482</v>
+      </c>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="9">
+        <f t="shared" ref="AG28" si="112">ABS($C28-AF28)</f>
+        <v>13.518035613694</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>4.2010031786643802</v>
+      </c>
+      <c r="C29" s="5">
+        <v>-22.972641560722401</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="1"/>
+        <v>-29.972641560722337</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="2"/>
+        <v>-19.719301607607616</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="3"/>
+        <v>3.2533399531147857</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="4"/>
+        <v>1.191450848409833</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="5"/>
+        <v>24.164092409132234</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="7"/>
+        <v>32.972641560722401</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="8"/>
+        <v>-20.195987285342479</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="9"/>
+        <v>2.7766542753799222</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="11"/>
+        <v>21.972641560722401</v>
+      </c>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="8">
+        <f t="shared" si="12"/>
+        <v>16.804012714657521</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="13"/>
+        <v>39.776654275379926</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <f t="shared" si="13"/>
+        <v>22.972641560722401</v>
+      </c>
+      <c r="V29" s="7"/>
+      <c r="W29" s="8">
+        <f t="shared" si="15"/>
+        <v>2.9564472699238937</v>
+      </c>
+      <c r="X29" s="9">
+        <f t="shared" ref="X29" si="113">ABS($C29-W29)</f>
+        <v>25.929088830646293</v>
+      </c>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA29" s="9">
+        <f t="shared" ref="AA29" si="114">ABS($C29-Z29)</f>
+        <v>3.023218800964294</v>
+      </c>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="8">
+        <f t="shared" si="18"/>
+        <v>7.4020063573287596</v>
+      </c>
+      <c r="AD29" s="9">
+        <f t="shared" ref="AD29" si="115">ABS($C29-AC29)</f>
+        <v>30.37464791805116</v>
+      </c>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="9">
+        <f t="shared" ref="AG29" si="116">ABS($C29-AF29)</f>
+        <v>22.972641560722401</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>4.2230395963185003</v>
+      </c>
+      <c r="C30" s="5">
+        <v>-23.251095148110799</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="1"/>
+        <v>-30.251095148110885</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="2"/>
+        <v>-19.829483695878217</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="3"/>
+        <v>3.4216114522325825</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1891961405712532</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="5"/>
+        <v>24.440291288682054</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="7"/>
+        <v>33.251095148110799</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="8"/>
+        <v>-20.107841614725999</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="9"/>
+        <v>3.1432535333848008</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="11"/>
+        <v>22.251095148110799</v>
+      </c>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="8">
+        <f t="shared" si="12"/>
+        <v>16.892158385274001</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="13"/>
+        <v>40.143253533384801</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="13"/>
+        <v>23.251095148110799</v>
+      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="8">
+        <f t="shared" si="15"/>
+        <v>2.9760351967275556</v>
+      </c>
+      <c r="X30" s="9">
+        <f t="shared" ref="X30" si="117">ABS($C30-W30)</f>
+        <v>26.227130344838354</v>
+      </c>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA30" s="9">
+        <f t="shared" ref="AA30" si="118">ABS($C30-Z30)</f>
+        <v>3.3016723883526922</v>
+      </c>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="8">
+        <f t="shared" si="18"/>
+        <v>7.4460791926370007</v>
+      </c>
+      <c r="AD30" s="9">
+        <f t="shared" ref="AD30" si="119">ABS($C30-AC30)</f>
+        <v>30.6971743407478</v>
+      </c>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="9">
+        <f t="shared" ref="AG30" si="120">ABS($C30-AF30)</f>
+        <v>23.251095148110799</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>5.6899462002511099</v>
+      </c>
+      <c r="C31" s="5">
+        <v>-45.063231642628097</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="1"/>
+        <v>-52.063231642628061</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="2"/>
+        <v>-27.164016715541266</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="3"/>
+        <v>17.899214927086831</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0439972750993116</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="5"/>
+        <v>46.107228917727411</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="7"/>
+        <v>55.063231642628097</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="8"/>
+        <v>-14.240215198995561</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="9"/>
+        <v>30.823016443632536</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" si="11"/>
+        <v>44.063231642628097</v>
+      </c>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="8">
+        <f t="shared" si="12"/>
+        <v>22.759784801004439</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="13"/>
+        <v>67.82301644363254</v>
+      </c>
+      <c r="S31" s="7"/>
+      <c r="T31" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="13"/>
+        <v>45.063231642628097</v>
+      </c>
+      <c r="V31" s="7"/>
+      <c r="W31" s="8">
+        <f t="shared" si="15"/>
+        <v>4.2799521780009862</v>
+      </c>
+      <c r="X31" s="9">
+        <f t="shared" ref="X31" si="121">ABS($C31-W31)</f>
+        <v>49.343183820629079</v>
+      </c>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA31" s="9">
+        <f t="shared" ref="AA31" si="122">ABS($C31-Z31)</f>
+        <v>25.113808882869989</v>
+      </c>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="8">
+        <f t="shared" si="18"/>
+        <v>10.379892400502222</v>
+      </c>
+      <c r="AD31" s="9">
+        <f t="shared" ref="AD31" si="123">ABS($C31-AC31)</f>
+        <v>55.443124043130318</v>
+      </c>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="9">
+        <f t="shared" ref="AG31" si="124">ABS($C31-AF31)</f>
+        <v>45.063231642628097</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>9.5385069311135506</v>
+      </c>
+      <c r="C32" s="5">
+        <v>-132.97467171235201</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="1"/>
+        <v>-139.97467171235186</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="2"/>
+        <v>-46.40682036985347</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="3"/>
+        <v>86.567851342498528</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="4"/>
+        <v>0.70393004802195747</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="5"/>
+        <v>133.67860176037397</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="7"/>
+        <v>142.97467171235201</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1540277244542025</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="9"/>
+        <v>134.12869943680622</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="11"/>
+        <v>131.97467171235201</v>
+      </c>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="8">
+        <f t="shared" si="12"/>
+        <v>38.154027724454203</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="13"/>
+        <v>171.12869943680622</v>
+      </c>
+      <c r="S32" s="7"/>
+      <c r="T32" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="13"/>
+        <v>132.97467171235201</v>
+      </c>
+      <c r="V32" s="7"/>
+      <c r="W32" s="8">
+        <f t="shared" si="15"/>
+        <v>7.7008950498787119</v>
+      </c>
+      <c r="X32" s="9">
+        <f t="shared" ref="X32" si="125">ABS($C32-W32)</f>
+        <v>140.67556676223072</v>
+      </c>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA32" s="9">
+        <f t="shared" ref="AA32" si="126">ABS($C32-Z32)</f>
+        <v>113.0252489525939</v>
+      </c>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="8">
+        <f t="shared" si="18"/>
+        <v>18.077013862227101</v>
+      </c>
+      <c r="AD32" s="9">
+        <f t="shared" ref="AD32" si="127">ABS($C32-AC32)</f>
+        <v>151.0516855745791</v>
+      </c>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="9">
+        <f t="shared" ref="AG32" si="128">ABS($C32-AF32)</f>
+        <v>132.97467171235201</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>22.482269506799302</v>
+      </c>
+      <c r="C33" s="5">
+        <v>-754.67866326453702</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="1"/>
+        <v>-761.67866326453657</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="2"/>
+        <v>-111.12563324828221</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="3"/>
+        <v>643.55303001625475</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="4"/>
+        <v>-0.13242527447615515</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="5"/>
+        <v>754.54623799006083</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="7"/>
+        <v>764.67866326453702</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="8"/>
+        <v>52.929078027197207</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="9"/>
+        <v>807.60774129173421</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" si="11"/>
+        <v>753.67866326453702</v>
+      </c>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="8">
+        <f t="shared" si="12"/>
+        <v>89.929078027197207</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" si="13"/>
+        <v>844.60774129173421</v>
+      </c>
+      <c r="S33" s="7"/>
+      <c r="T33" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="9">
+        <f t="shared" si="13"/>
+        <v>754.67866326453702</v>
+      </c>
+      <c r="V33" s="7"/>
+      <c r="W33" s="8">
+        <f t="shared" si="15"/>
+        <v>19.206461783821602</v>
+      </c>
+      <c r="X33" s="9">
+        <f t="shared" ref="X33" si="129">ABS($C33-W33)</f>
+        <v>773.88512504835865</v>
+      </c>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA33" s="9">
+        <f t="shared" ref="AA33" si="130">ABS($C33-Z33)</f>
+        <v>734.72924050477889</v>
+      </c>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="8">
+        <f t="shared" si="18"/>
+        <v>43.964539013598603</v>
+      </c>
+      <c r="AD33" s="9">
+        <f t="shared" ref="AD33" si="131">ABS($C33-AC33)</f>
+        <v>798.64320227813562</v>
+      </c>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="9">
+        <f t="shared" ref="AG33" si="132">ABS($C33-AF33)</f>
+        <v>754.67866326453702</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>25.203823953836299</v>
+      </c>
+      <c r="C34" s="5">
+        <v>-949.34911284396298</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="1"/>
+        <v>-956.34911284395855</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="2"/>
+        <v>-124.73340548346719</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="3"/>
+        <v>824.61570736049578</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="4"/>
+        <v>-0.26602856695033505</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="5"/>
+        <v>949.08308427701263</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="7"/>
+        <v>959.34911284396298</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="8"/>
+        <v>63.815295815345195</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="9"/>
+        <v>1013.1644086593082</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="11"/>
+        <v>948.34911284396298</v>
+      </c>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="8">
+        <f t="shared" si="12"/>
+        <v>100.81529581534519</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="13"/>
+        <v>1050.1644086593083</v>
+      </c>
+      <c r="S34" s="7"/>
+      <c r="T34" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <f t="shared" si="13"/>
+        <v>949.34911284396298</v>
+      </c>
+      <c r="V34" s="7"/>
+      <c r="W34" s="8">
+        <f t="shared" si="15"/>
+        <v>21.625621292298931</v>
+      </c>
+      <c r="X34" s="9">
+        <f t="shared" ref="X34" si="133">ABS($C34-W34)</f>
+        <v>970.97473413626187</v>
+      </c>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA34" s="9">
+        <f t="shared" ref="AA34" si="134">ABS($C34-Z34)</f>
+        <v>929.39969008420485</v>
+      </c>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="8">
+        <f t="shared" si="18"/>
+        <v>49.407647907672597</v>
+      </c>
+      <c r="AD34" s="9">
+        <f t="shared" ref="AD34" si="135">ABS($C34-AC34)</f>
+        <v>998.75676075163562</v>
+      </c>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="9">
+        <f t="shared" ref="AG34" si="136">ABS($C34-AF34)</f>
+        <v>949.34911284396298</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>32.009282463433998</v>
+      </c>
+      <c r="C35" s="5">
+        <v>-1533.3912457358499</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="1"/>
+        <v>-1540.3912457358549</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="2"/>
+        <v>-158.76069803145572</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="3"/>
+        <v>1374.6305477043943</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="4"/>
+        <v>-0.55591362912284992</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="5"/>
+        <v>1532.835332106727</v>
+      </c>
+      <c r="I35" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="7"/>
+        <v>1543.3912457358499</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="8"/>
+        <v>91.037129853735991</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="9"/>
+        <v>1624.4283755895858</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" si="11"/>
+        <v>1532.3912457358499</v>
+      </c>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="8">
+        <f t="shared" si="12"/>
+        <v>128.03712985373599</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" si="13"/>
+        <v>1661.4283755895858</v>
+      </c>
+      <c r="S35" s="7"/>
+      <c r="T35" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="9">
+        <f t="shared" si="13"/>
+        <v>1533.3912457358499</v>
+      </c>
+      <c r="V35" s="7"/>
+      <c r="W35" s="8">
+        <f t="shared" si="15"/>
+        <v>27.674917745274666</v>
+      </c>
+      <c r="X35" s="9">
+        <f t="shared" ref="X35" si="137">ABS($C35-W35)</f>
+        <v>1561.0661634811245</v>
+      </c>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA35" s="9">
+        <f t="shared" ref="AA35" si="138">ABS($C35-Z35)</f>
+        <v>1513.4418229760918</v>
+      </c>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="8">
+        <f t="shared" si="18"/>
+        <v>63.018564926867995</v>
+      </c>
+      <c r="AD35" s="9">
+        <f t="shared" ref="AD35" si="139">ABS($C35-AC35)</f>
+        <v>1596.409810662718</v>
+      </c>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="9">
+        <f t="shared" ref="AG35" si="140">ABS($C35-AF35)</f>
+        <v>1533.3912457358499</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>44.165979696225399</v>
+      </c>
+      <c r="C36" s="5">
+        <v>-2922.4506437911</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="1"/>
+        <v>-2929.4506437910914</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="2"/>
+        <v>-219.54418419541273</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="3"/>
+        <v>2702.9064595956875</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="4"/>
+        <v>-0.95707631450165631</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="5"/>
+        <v>2921.4935674765984</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="7"/>
+        <v>2932.4506437911</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="8"/>
+        <v>139.6639187849016</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="9"/>
+        <v>3062.1145625760014</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" si="11"/>
+        <v>2921.4506437911</v>
+      </c>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="8">
+        <f t="shared" si="12"/>
+        <v>176.6639187849016</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="13"/>
+        <v>3099.1145625760014</v>
+      </c>
+      <c r="S36" s="7"/>
+      <c r="T36" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="9">
+        <f t="shared" si="13"/>
+        <v>2922.4506437911</v>
+      </c>
+      <c r="V36" s="7"/>
+      <c r="W36" s="8">
+        <f t="shared" si="15"/>
+        <v>38.480870841089242</v>
+      </c>
+      <c r="X36" s="9">
+        <f t="shared" ref="X36" si="141">ABS($C36-W36)</f>
+        <v>2960.9315146321892</v>
+      </c>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA36" s="9">
+        <f t="shared" ref="AA36" si="142">ABS($C36-Z36)</f>
+        <v>2902.5012210313421</v>
+      </c>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="8">
+        <f t="shared" si="18"/>
+        <v>87.331959392450798</v>
+      </c>
+      <c r="AD36" s="9">
+        <f t="shared" ref="AD36" si="143">ABS($C36-AC36)</f>
+        <v>3009.7826031835507</v>
+      </c>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="9">
+        <f t="shared" ref="AG36" si="144">ABS($C36-AF36)</f>
+        <v>2922.4506437911</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <v>77.565534442329096</v>
+      </c>
+      <c r="C37" s="5">
+        <v>-9021.1181999862092</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="1"/>
+        <v>-9028.118199986211</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="2"/>
+        <v>-386.54195792593117</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="3"/>
+        <v>8634.5762420602787</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.6321544891363671</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="5"/>
+        <v>9019.4860454970731</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="7"/>
+        <v>9031.1181999862092</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" si="8"/>
+        <v>273.26213776931638</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="9"/>
+        <v>9294.380337755525</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" si="11"/>
+        <v>9020.1181999862092</v>
+      </c>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="8">
+        <f t="shared" si="12"/>
+        <v>310.26213776931638</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="13"/>
+        <v>9331.380337755525</v>
+      </c>
+      <c r="S37" s="7"/>
+      <c r="T37" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="9">
+        <f t="shared" si="13"/>
+        <v>9021.1181999862092</v>
+      </c>
+      <c r="V37" s="7"/>
+      <c r="W37" s="8">
+        <f t="shared" si="15"/>
+        <v>68.169363948736972</v>
+      </c>
+      <c r="X37" s="9">
+        <f t="shared" ref="X37" si="145">ABS($C37-W37)</f>
+        <v>9089.2875639349459</v>
+      </c>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA37" s="9">
+        <f t="shared" ref="AA37" si="146">ABS($C37-Z37)</f>
+        <v>9001.1687772264504</v>
+      </c>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="8">
+        <f t="shared" si="18"/>
+        <v>154.13106888465819</v>
+      </c>
+      <c r="AD37" s="9">
+        <f t="shared" ref="AD37" si="147">ABS($C37-AC37)</f>
+        <v>9175.249268870868</v>
+      </c>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="9">
+        <f t="shared" ref="AG37" si="148">ABS($C37-AF37)</f>
+        <v>9021.1181999862092</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <v>86.025749684104099</v>
+      </c>
+      <c r="C38" s="5">
+        <v>-11097.144413068199</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" si="1"/>
+        <v>-11104.144413068205</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="2"/>
+        <v>-428.8430341348062</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="3"/>
+        <v>10668.301378933393</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.7463560647884557</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="5"/>
+        <v>11095.398057003411</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="7"/>
+        <v>11107.144413068199</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="8"/>
+        <v>307.1029987364164</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="9"/>
+        <v>11404.247411804616</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="11"/>
+        <v>11096.144413068199</v>
+      </c>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="8">
+        <f t="shared" si="12"/>
+        <v>344.1029987364164</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="13"/>
+        <v>11441.247411804616</v>
+      </c>
+      <c r="S38" s="7"/>
+      <c r="T38" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="9">
+        <f t="shared" si="13"/>
+        <v>11097.144413068199</v>
+      </c>
+      <c r="V38" s="7"/>
+      <c r="W38" s="8">
+        <f t="shared" si="15"/>
+        <v>75.689555274759201</v>
+      </c>
+      <c r="X38" s="9">
+        <f t="shared" ref="X38" si="149">ABS($C38-W38)</f>
+        <v>11172.833968342959</v>
+      </c>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA38" s="9">
+        <f t="shared" ref="AA38" si="150">ABS($C38-Z38)</f>
+        <v>11077.194990308441</v>
+      </c>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="8">
+        <f t="shared" si="18"/>
+        <v>171.0514993682082</v>
+      </c>
+      <c r="AD38" s="9">
+        <f t="shared" ref="AD38" si="151">ABS($C38-AC38)</f>
+        <v>11268.195912436408</v>
+      </c>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="9">
+        <f t="shared" ref="AG38" si="152">ABS($C38-AF38)</f>
+        <v>11097.144413068199</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <v>99.274867572372898</v>
+      </c>
+      <c r="C39" s="5">
+        <v>-14779.7489972682</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" si="1"/>
+        <v>-14786.748997268263</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="2"/>
+        <v>-495.08862357615021</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="3"/>
+        <v>14284.66037369205</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.8973240698811755</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="5"/>
+        <v>14777.851673198318</v>
+      </c>
+      <c r="I39" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="7"/>
+        <v>14789.7489972682</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="8"/>
+        <v>360.09947028949159</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="9"/>
+        <v>15139.848467557691</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="11"/>
+        <v>14778.7489972682</v>
+      </c>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="8">
+        <f t="shared" si="12"/>
+        <v>397.09947028949159</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" si="13"/>
+        <v>15176.848467557691</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="9">
+        <f t="shared" si="13"/>
+        <v>14779.7489972682</v>
+      </c>
+      <c r="V39" s="7"/>
+      <c r="W39" s="8">
+        <f t="shared" si="15"/>
+        <v>87.466548953220354</v>
+      </c>
+      <c r="X39" s="9">
+        <f t="shared" ref="X39" si="153">ABS($C39-W39)</f>
+        <v>14867.21554622142</v>
+      </c>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA39" s="9">
+        <f t="shared" ref="AA39" si="154">ABS($C39-Z39)</f>
+        <v>14759.799574508441</v>
+      </c>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="8">
+        <f t="shared" si="18"/>
+        <v>197.5497351447458</v>
+      </c>
+      <c r="AD39" s="9">
+        <f t="shared" ref="AD39" si="155">ABS($C39-AC39)</f>
+        <v>14977.298732412946</v>
+      </c>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="9">
+        <f t="shared" ref="AG39" si="156">ABS($C39-AF39)</f>
+        <v>14779.7489972682</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <v>134.37245324912399</v>
+      </c>
+      <c r="C40" s="5">
+        <v>-27080.434288281998</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="1"/>
+        <v>-27087.43428828202</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="2"/>
+        <v>-670.5765519599056</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="3"/>
+        <v>26409.857736322094</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.1863631767899587</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="5"/>
+        <v>27078.24792510521</v>
+      </c>
+      <c r="I40" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="7"/>
+        <v>27090.434288281998</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="8"/>
+        <v>500.48981299649597</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="9"/>
+        <v>27580.924101278495</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="11"/>
+        <v>27079.434288281998</v>
+      </c>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="8">
+        <f t="shared" si="12"/>
+        <v>537.48981299649597</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="13"/>
+        <v>27617.924101278495</v>
+      </c>
+      <c r="S40" s="7"/>
+      <c r="T40" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="9">
+        <f t="shared" si="13"/>
+        <v>27080.434288281998</v>
+      </c>
+      <c r="V40" s="7"/>
+      <c r="W40" s="8">
+        <f t="shared" si="15"/>
+        <v>118.66440288811022</v>
+      </c>
+      <c r="X40" s="9">
+        <f t="shared" ref="X40" si="157">ABS($C40-W40)</f>
+        <v>27199.098691170107</v>
+      </c>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA40" s="9">
+        <f t="shared" ref="AA40" si="158">ABS($C40-Z40)</f>
+        <v>27060.484865522241</v>
+      </c>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="8">
+        <f t="shared" si="18"/>
+        <v>267.74490649824799</v>
+      </c>
+      <c r="AD40" s="9">
+        <f t="shared" ref="AD40" si="159">ABS($C40-AC40)</f>
+        <v>27348.179194780245</v>
+      </c>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="9">
+        <f t="shared" ref="AG40" si="160">ABS($C40-AF40)</f>
+        <v>27080.434288281998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>293.99599273640399</v>
+      </c>
+      <c r="C41" s="5">
+        <v>-129646.96561759499</v>
+      </c>
+      <c r="D41" s="15">
+        <f t="shared" si="1"/>
+        <v>-129653.96561759556</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" si="2"/>
+        <v>-1468.6942493963056</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="3"/>
+        <v>128178.27136819869</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.7345237537290537</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="5"/>
+        <v>129644.23109384127</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="7"/>
+        <v>129656.96561759499</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="8"/>
+        <v>1138.983970945616</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="9"/>
+        <v>130785.94958854061</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="11"/>
+        <v>129645.96561759499</v>
+      </c>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="8">
+        <f t="shared" si="12"/>
+        <v>1175.983970945616</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="13"/>
+        <v>130822.94958854061</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="9">
+        <f t="shared" si="13"/>
+        <v>129646.96561759499</v>
+      </c>
+      <c r="V41" s="7"/>
+      <c r="W41" s="8">
+        <f t="shared" si="15"/>
+        <v>260.55199354347019</v>
+      </c>
+      <c r="X41" s="9">
+        <f t="shared" ref="X41" si="161">ABS($C41-W41)</f>
+        <v>129907.51761113846</v>
+      </c>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA41" s="9">
+        <f t="shared" ref="AA41" si="162">ABS($C41-Z41)</f>
+        <v>129627.01619483523</v>
+      </c>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="8">
+        <f t="shared" si="18"/>
+        <v>586.99198547280798</v>
+      </c>
+      <c r="AD41" s="9">
+        <f t="shared" ref="AD41" si="163">ABS($C41-AC41)</f>
+        <v>130233.9576030678</v>
+      </c>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="9">
+        <f t="shared" ref="AG41" si="164">ABS($C41-AF41)</f>
+        <v>129646.96561759499</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <v>364.32872056922901</v>
+      </c>
+      <c r="C42" s="5">
+        <v>-199099.624947417</v>
+      </c>
+      <c r="D42" s="15">
+        <f t="shared" si="1"/>
+        <v>-199106.62494741703</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" si="2"/>
+        <v>-1820.3578885604309</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="3"/>
+        <v>197279.26705885658</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.8386863052458091</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="5"/>
+        <v>199096.78626111176</v>
+      </c>
+      <c r="I42" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="7"/>
+        <v>199109.624947417</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="8"/>
+        <v>1420.314882276916</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="9"/>
+        <v>200519.93982969393</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="11"/>
+        <v>199098.624947417</v>
+      </c>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="8">
+        <f t="shared" si="12"/>
+        <v>1457.314882276916</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="13"/>
+        <v>200556.93982969393</v>
+      </c>
+      <c r="S42" s="7"/>
+      <c r="T42" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="9">
+        <f t="shared" si="13"/>
+        <v>199099.624947417</v>
+      </c>
+      <c r="V42" s="7"/>
+      <c r="W42" s="8">
+        <f t="shared" si="15"/>
+        <v>323.06997383931468</v>
+      </c>
+      <c r="X42" s="9">
+        <f t="shared" ref="X42" si="165">ABS($C42-W42)</f>
+        <v>199422.6949212563</v>
+      </c>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA42" s="9">
+        <f t="shared" ref="AA42" si="166">ABS($C42-Z42)</f>
+        <v>199079.67552465724</v>
+      </c>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="8">
+        <f t="shared" si="18"/>
+        <v>727.65744113845801</v>
+      </c>
+      <c r="AD42" s="9">
+        <f t="shared" ref="AD42" si="167">ABS($C42-AC42)</f>
+        <v>199827.28238855547</v>
+      </c>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="9">
+        <f t="shared" ref="AG42" si="168">ABS($C42-AF42)</f>
+        <v>199099.624947417</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <v>423.53104421113699</v>
+      </c>
+      <c r="C43" s="5">
+        <v>-269064.318115865</v>
+      </c>
+      <c r="D43" s="15">
+        <f t="shared" si="1"/>
+        <v>-269071.31811586412</v>
+      </c>
+      <c r="E43" s="15">
+        <f t="shared" si="2"/>
+        <v>-2116.3695067699705</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="3"/>
+        <v>266947.94860909501</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.9018627716574237</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="5"/>
+        <v>269061.41625309334</v>
+      </c>
+      <c r="I43" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="7"/>
+        <v>269074.318115865</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="8"/>
+        <v>1657.1241768445479</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="9"/>
+        <v>270721.44229270954</v>
+      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="11"/>
+        <v>269063.318115865</v>
+      </c>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="8">
+        <f t="shared" si="12"/>
+        <v>1694.1241768445479</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="13"/>
+        <v>270758.44229270954</v>
+      </c>
+      <c r="S43" s="7"/>
+      <c r="T43" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="9">
+        <f t="shared" si="13"/>
+        <v>269064.318115865</v>
+      </c>
+      <c r="V43" s="7"/>
+      <c r="W43" s="8">
+        <f t="shared" si="15"/>
+        <v>375.69426152101067</v>
+      </c>
+      <c r="X43" s="9">
+        <f t="shared" ref="X43" si="169">ABS($C43-W43)</f>
+        <v>269440.01237738598</v>
+      </c>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA43" s="9">
+        <f t="shared" ref="AA43" si="170">ABS($C43-Z43)</f>
+        <v>269044.36869310524</v>
+      </c>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="8">
+        <f t="shared" si="18"/>
+        <v>846.06208842227397</v>
+      </c>
+      <c r="AD43" s="9">
+        <f t="shared" ref="AD43" si="171">ABS($C43-AC43)</f>
+        <v>269910.3802042873</v>
+      </c>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="9">
+        <f t="shared" ref="AG43" si="172">ABS($C43-AF43)</f>
+        <v>269064.318115865</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <v>451.12387459284798</v>
+      </c>
+      <c r="C44" s="5">
+        <v>-305265.62534149498</v>
+      </c>
+      <c r="D44" s="15">
+        <f t="shared" si="1"/>
+        <v>-305272.62534149544</v>
+      </c>
+      <c r="E44" s="15">
+        <f t="shared" si="2"/>
+        <v>-2254.3336586785258</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="3"/>
+        <v>303011.29168281646</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.9261040978053225</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="5"/>
+        <v>305262.69923739717</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="7"/>
+        <v>305275.62534149498</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="8"/>
+        <v>1767.4954983713919</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="9"/>
+        <v>307033.12083986634</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="11"/>
+        <v>305264.62534149498</v>
+      </c>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="8">
+        <f t="shared" si="12"/>
+        <v>1804.4954983713919</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" si="13"/>
+        <v>307070.12083986634</v>
+      </c>
+      <c r="S44" s="7"/>
+      <c r="T44" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="9">
+        <f t="shared" si="13"/>
+        <v>305265.62534149498</v>
+      </c>
+      <c r="V44" s="7"/>
+      <c r="W44" s="8">
+        <f t="shared" si="15"/>
+        <v>400.2212218603093</v>
+      </c>
+      <c r="X44" s="9">
+        <f t="shared" ref="X44" si="173">ABS($C44-W44)</f>
+        <v>305665.8465633553</v>
+      </c>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA44" s="9">
+        <f t="shared" ref="AA44" si="174">ABS($C44-Z44)</f>
+        <v>305245.67591873521</v>
+      </c>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="8">
+        <f t="shared" si="18"/>
+        <v>901.24774918569597</v>
+      </c>
+      <c r="AD44" s="9">
+        <f t="shared" ref="AD44" si="175">ABS($C44-AC44)</f>
+        <v>306166.87309068069</v>
+      </c>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="9">
+        <f t="shared" ref="AG44" si="176">ABS($C44-AF44)</f>
+        <v>305265.62534149498</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <v>785.33189978552696</v>
+      </c>
+      <c r="C45" s="5">
+        <v>-925115.78923111898</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" si="1"/>
+        <v>-925122.78923111735</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="2"/>
+        <v>-3925.3737846419203</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="3"/>
+        <v>921190.41544647701</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.0910065796334303</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="5"/>
+        <v>925112.6982245394</v>
+      </c>
+      <c r="I45" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="7"/>
+        <v>925125.78923111898</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" si="8"/>
+        <v>3104.3275991421078</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="9"/>
+        <v>928220.11683026107</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" si="11"/>
+        <v>925114.78923111898</v>
+      </c>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="8">
+        <f t="shared" si="12"/>
+        <v>3141.3275991421078</v>
+      </c>
+      <c r="R45" s="9">
+        <f t="shared" si="13"/>
+        <v>928257.11683026107</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="9">
+        <f t="shared" si="13"/>
+        <v>925115.78923111898</v>
+      </c>
+      <c r="V45" s="7"/>
+      <c r="W45" s="8">
+        <f t="shared" si="15"/>
+        <v>697.29502203157949</v>
+      </c>
+      <c r="X45" s="9">
+        <f t="shared" ref="X45" si="177">ABS($C45-W45)</f>
+        <v>925813.0842531505</v>
+      </c>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA45" s="9">
+        <f t="shared" ref="AA45" si="178">ABS($C45-Z45)</f>
+        <v>925095.83980835928</v>
+      </c>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="8">
+        <f t="shared" si="18"/>
+        <v>1569.6637995710539</v>
+      </c>
+      <c r="AD45" s="9">
+        <f t="shared" ref="AD45" si="179">ABS($C45-AC45)</f>
+        <v>926685.45303069009</v>
+      </c>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="9">
+        <f t="shared" ref="AG45" si="180">ABS($C45-AF45)</f>
+        <v>925115.78923111898</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <v>919.53028060027702</v>
+      </c>
+      <c r="C46" s="5">
+        <v>-1268300.4054112299</v>
+      </c>
+      <c r="D46" s="15">
+        <f t="shared" si="1"/>
+        <v>-1268307.4054112362</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="2"/>
+        <v>-4596.3656887156703</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="3"/>
+        <v>1263704.0397225143</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.1248980144657708</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="5"/>
+        <v>1268297.2805132156</v>
+      </c>
+      <c r="I46" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="7"/>
+        <v>1268310.4054112299</v>
+      </c>
+      <c r="K46" s="8">
+        <f t="shared" si="8"/>
+        <v>3641.1211224011081</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="9"/>
+        <v>1271941.5265336311</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O46" s="10">
+        <f t="shared" si="11"/>
+        <v>1268299.4054112299</v>
+      </c>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="8">
+        <f t="shared" si="12"/>
+        <v>3678.1211224011081</v>
+      </c>
+      <c r="R46" s="9">
+        <f t="shared" si="13"/>
+        <v>1271978.5265336311</v>
+      </c>
+      <c r="S46" s="7"/>
+      <c r="T46" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="9">
+        <f t="shared" si="13"/>
+        <v>1268300.4054112299</v>
+      </c>
+      <c r="V46" s="7"/>
+      <c r="W46" s="8">
+        <f t="shared" si="15"/>
+        <v>816.58247164469071</v>
+      </c>
+      <c r="X46" s="9">
+        <f t="shared" ref="X46" si="181">ABS($C46-W46)</f>
+        <v>1269116.9878828747</v>
+      </c>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA46" s="9">
+        <f t="shared" ref="AA46" si="182">ABS($C46-Z46)</f>
+        <v>1268280.4559884702</v>
+      </c>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="8">
+        <f t="shared" si="18"/>
+        <v>1838.060561200554</v>
+      </c>
+      <c r="AD46" s="9">
+        <f t="shared" ref="AD46" si="183">ABS($C46-AC46)</f>
+        <v>1270138.4659724305</v>
+      </c>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="9">
+        <f t="shared" ref="AG46" si="184">ABS($C46-AF46)</f>
+        <v>1268300.4054112299</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
+        <v>969.50236485882294</v>
+      </c>
+      <c r="C47" s="5">
+        <v>-1409898.75320027</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" si="1"/>
+        <v>-1409905.7532002754</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="2"/>
+        <v>-4846.2261100083997</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="3"/>
+        <v>1405052.5270902617</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.1352159173053185</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="5"/>
+        <v>1409895.6179843526</v>
+      </c>
+      <c r="I47" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="7"/>
+        <v>1409908.75320027</v>
+      </c>
+      <c r="K47" s="8">
+        <f t="shared" si="8"/>
+        <v>3841.0094594352918</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="9"/>
+        <v>1413739.7626597052</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O47" s="10">
+        <f t="shared" si="11"/>
+        <v>1409897.75320027</v>
+      </c>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="8">
+        <f t="shared" si="12"/>
+        <v>3878.0094594352918</v>
+      </c>
+      <c r="R47" s="9">
+        <f t="shared" si="13"/>
+        <v>1413776.7626597052</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="9">
+        <f t="shared" si="13"/>
+        <v>1409898.75320027</v>
+      </c>
+      <c r="V47" s="7"/>
+      <c r="W47" s="8">
+        <f t="shared" si="15"/>
+        <v>861.00210209673151</v>
+      </c>
+      <c r="X47" s="9">
+        <f t="shared" ref="X47" si="185">ABS($C47-W47)</f>
+        <v>1410759.7553023668</v>
+      </c>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA47" s="9">
+        <f t="shared" ref="AA47" si="186">ABS($C47-Z47)</f>
+        <v>1409878.8037775103</v>
+      </c>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="8">
+        <f t="shared" si="18"/>
+        <v>1938.0047297176459</v>
+      </c>
+      <c r="AD47" s="9">
+        <f t="shared" ref="AD47" si="187">ABS($C47-AC47)</f>
+        <v>1411836.7579299877</v>
+      </c>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="9">
+        <f t="shared" ref="AG47" si="188">ABS($C47-AF47)</f>
+        <v>1409898.75320027</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <v>976.50004884776502</v>
+      </c>
+      <c r="C48" s="5">
+        <v>-1430325.0180995299</v>
+      </c>
+      <c r="D48" s="15">
+        <f t="shared" si="1"/>
+        <v>-1430332.0180995311</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="2"/>
+        <v>-4881.2145299531103</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="3"/>
+        <v>1425443.8035695767</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.1365797766299108</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="5"/>
+        <v>1430321.8815197533</v>
+      </c>
+      <c r="I48" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="7"/>
+        <v>1430335.0180995299</v>
+      </c>
+      <c r="K48" s="8">
+        <f t="shared" si="8"/>
+        <v>3869.0001953910601</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" si="9"/>
+        <v>1434194.0182949209</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" si="11"/>
+        <v>1430324.0180995299</v>
+      </c>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="8">
+        <f t="shared" si="12"/>
+        <v>3906.0001953910601</v>
+      </c>
+      <c r="R48" s="9">
+        <f t="shared" si="13"/>
+        <v>1434231.0182949209</v>
+      </c>
+      <c r="S48" s="7"/>
+      <c r="T48" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9">
+        <f t="shared" si="13"/>
+        <v>1430325.0180995299</v>
+      </c>
+      <c r="V48" s="7"/>
+      <c r="W48" s="8">
+        <f t="shared" si="15"/>
+        <v>867.22226564245784</v>
+      </c>
+      <c r="X48" s="9">
+        <f t="shared" ref="X48" si="189">ABS($C48-W48)</f>
+        <v>1431192.2403651723</v>
+      </c>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA48" s="9">
+        <f t="shared" ref="AA48" si="190">ABS($C48-Z48)</f>
+        <v>1430305.0686767702</v>
+      </c>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="8">
+        <f t="shared" si="18"/>
+        <v>1952.00009769553</v>
+      </c>
+      <c r="AD48" s="9">
+        <f t="shared" ref="AD48" si="191">ABS($C48-AC48)</f>
+        <v>1432277.0181972254</v>
+      </c>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="9">
+        <f t="shared" ref="AG48" si="192">ABS($C48-AF48)</f>
+        <v>1430325.0180995299</v>
+      </c>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
+        <v>982.85888045276999</v>
+      </c>
+      <c r="C49" s="5">
+        <v>-1449013.8683273101</v>
+      </c>
+      <c r="D49" s="15">
+        <f t="shared" si="1"/>
+        <v>-1449020.8683273084</v>
+      </c>
+      <c r="E49" s="15">
+        <f t="shared" si="2"/>
+        <v>-4913.0086879781356</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="3"/>
+        <v>1444100.8596393319</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.1378029392368667</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="5"/>
+        <v>1449010.7305243709</v>
+      </c>
+      <c r="I49" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="7"/>
+        <v>1449023.8683273101</v>
+      </c>
+      <c r="K49" s="8">
+        <f t="shared" si="8"/>
+        <v>3894.43552181108</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="9"/>
+        <v>1452908.3038491211</v>
+      </c>
+      <c r="M49" s="7"/>
+      <c r="N49" s="8">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O49" s="10">
+        <f t="shared" si="11"/>
+        <v>1449012.8683273101</v>
+      </c>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="8">
+        <f t="shared" si="12"/>
+        <v>3931.43552181108</v>
+      </c>
+      <c r="R49" s="9">
+        <f t="shared" si="13"/>
+        <v>1452945.3038491211</v>
+      </c>
+      <c r="S49" s="7"/>
+      <c r="T49" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="9">
+        <f t="shared" si="13"/>
+        <v>1449013.8683273101</v>
+      </c>
+      <c r="V49" s="7"/>
+      <c r="W49" s="8">
+        <f t="shared" si="15"/>
+        <v>872.87456040246218</v>
+      </c>
+      <c r="X49" s="9">
+        <f t="shared" ref="X49" si="193">ABS($C49-W49)</f>
+        <v>1449886.7428877125</v>
+      </c>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="8">
+        <f t="shared" si="0"/>
+        <v>-19.949422759758107</v>
+      </c>
+      <c r="AA49" s="9">
+        <f t="shared" ref="AA49" si="194">ABS($C49-Z49)</f>
+        <v>1448993.9189045504</v>
+      </c>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="8">
+        <f t="shared" si="18"/>
+        <v>1964.71776090554</v>
+      </c>
+      <c r="AD49" s="9">
+        <f t="shared" ref="AD49" si="195">ABS($C49-AC49)</f>
+        <v>1450978.5860882157</v>
+      </c>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="9">
+        <f t="shared" ref="AG49" si="196">ABS($C49-AF49)</f>
+        <v>1449013.8683273101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="E50" s="26"/>
+      <c r="F50" s="26">
+        <f>SUM(F4:F49)</f>
+        <v>10587220.803357307</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26">
+        <f>SUM(H4:H49)</f>
+        <v>10603917.750314381</v>
+      </c>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26">
+        <f>SUM(J4:J49)</f>
+        <v>10604471.427887773</v>
+      </c>
+      <c r="L50" s="22">
+        <f>SUM(L5:L49)</f>
+        <v>10616356.201922607</v>
+      </c>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="22">
+        <f>SUM(O5:O49)</f>
+        <v>10603977.768928111</v>
+      </c>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="23">
+        <f>SUM(R5:R49)</f>
+        <v>10617527.129253665</v>
+      </c>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="23">
+        <f>SUM(U5:U49)</f>
+        <v>10604018.768928111</v>
+      </c>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="23">
+        <f>SUM(X5:X49)</f>
+        <v>10606986.752826078</v>
+      </c>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="23">
+        <f>SUM(AA5:AA49)</f>
+        <v>10603296.716427125</v>
+      </c>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="23">
+        <f>SUM(AD5:AD49)</f>
+        <v>10610728.823481183</v>
+      </c>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="23">
+        <f>SUM(AG5:AG49)</f>
+        <v>10604018.768928111</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B4:C48">
+    <sortCondition ref="B4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N4" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C229"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10131,7 +16598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D228"/>
   <sheetViews>
@@ -11901,12 +18368,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D413"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15175,7 +21642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
@@ -17804,7 +24271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
@@ -20432,7 +26899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B102"/>
   <sheetViews>
@@ -20955,7 +27422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G43"/>
   <sheetViews>
@@ -21293,1450 +27760,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AW112"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:AW2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="69.28515625" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="D2" s="5">
-        <v>-885.65228158949697</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-885.65228158949697</v>
-      </c>
-      <c r="F2" s="5">
-        <v>-801.47483870644203</v>
-      </c>
-      <c r="G2" s="5">
-        <v>-748.91481496262099</v>
-      </c>
-      <c r="H2" s="5">
-        <v>-252.89208809902601</v>
-      </c>
-      <c r="I2" s="5">
-        <v>-92.341224881231994</v>
-      </c>
-      <c r="J2" s="5">
-        <v>-89.188451015197899</v>
-      </c>
-      <c r="K2" s="5">
-        <v>-86.855086201897507</v>
-      </c>
-      <c r="L2" s="5">
-        <v>-78.283502010154905</v>
-      </c>
-      <c r="M2" s="5">
-        <v>-76.273416119667402</v>
-      </c>
-      <c r="N2" s="5">
-        <v>-72.253793134267298</v>
-      </c>
-      <c r="O2" s="5">
-        <v>-63.386374562537199</v>
-      </c>
-      <c r="P2" s="5">
-        <v>-52.661720220185401</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>-15.7535982384133</v>
-      </c>
-      <c r="R2" s="5">
-        <v>-8.1017851471143505</v>
-      </c>
-      <c r="S2" s="5">
-        <v>-5.68584961602226</v>
-      </c>
-      <c r="T2" s="5">
-        <v>-5.4708554028021297</v>
-      </c>
-      <c r="U2" s="5">
-        <v>-4.7823057344506701</v>
-      </c>
-      <c r="V2" s="5">
-        <v>-3.48379131603282</v>
-      </c>
-      <c r="W2" s="5">
-        <v>-2.3980005154824799</v>
-      </c>
-      <c r="X2" s="5">
-        <v>-0.55550003640924595</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>0.49437461859044901</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2.86325791483458</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2.9624292580748901</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>3.3682869645854101</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>4.2010031786643802</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>4.2230395963185003</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>5.6899462002511099</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>9.5385069311135506</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>22.482269506799302</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>25.203823953836299</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>32.009282463433998</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>44.165979696225399</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>77.565534442329096</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>86.025749684104099</v>
-      </c>
-      <c r="AM2" s="5">
-        <v>99.274867572372898</v>
-      </c>
-      <c r="AN2" s="5">
-        <v>134.37245324912399</v>
-      </c>
-      <c r="AO2" s="5">
-        <v>293.99599273640399</v>
-      </c>
-      <c r="AP2" s="5">
-        <v>364.32872056922901</v>
-      </c>
-      <c r="AQ2" s="5">
-        <v>423.53104421113699</v>
-      </c>
-      <c r="AR2" s="5">
-        <v>451.12387459284798</v>
-      </c>
-      <c r="AS2" s="5">
-        <v>785.33189978552696</v>
-      </c>
-      <c r="AT2" s="5">
-        <v>919.53028060027702</v>
-      </c>
-      <c r="AU2" s="5">
-        <v>969.50236485882294</v>
-      </c>
-      <c r="AV2" s="5">
-        <v>976.50004884776502</v>
-      </c>
-      <c r="AW2" s="5">
-        <v>982.85888045276999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1108.1501149878</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="str">
-        <f>SUBSTITUTE(C3,"x",D$2)</f>
-        <v>((6*(((6/9)/(9-4))/0))-((2/((3*3)-1))+(1*(2+-885.652281589497))))</v>
-      </c>
-    </row>
-    <row r="4" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1108.2501149878001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D67" si="0">SUBSTITUTE(C4,"x",D$2)</f>
-        <v>((6*(((6/9)/(9-4))/0))-((2/((3*3)-1))+(1*(2+-885.652281589497))))</v>
-      </c>
-    </row>
-    <row r="5" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1735.8092925558201</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
-      </c>
-    </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1735.8092925558201</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1735.8092925558201</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1737.1426258891499</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>((((1*6)+((3-5)-(4+8)))/(7-(1*(3/5))))*5)</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1737.8092925558201</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>(5*((((-885.652281589497+-885.652281589497)-7)/((5/0)-8))-2))</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1739.0592925558201</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>(5-(5*((2+8)/(8/9))))</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1740.1652263697699</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>(4-(8*((0/8)+(7+(0*1)))))</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1740.1652263697699</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>(4-(8*((0/8)+(7+(0*1)))))</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1740.1652263697699</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>(4-(8*((0/8)+(7+(0*1)))))</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1740.1652263697699</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>(4-(8*((0/8)+(7+(0*1)))))</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1745.4754589781201</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>1751.3086597706799</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>(7*((-885.652281589497/((4/1)+(-885.652281589497--885.652281589497)))-7))</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>1756.5468875495401</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1756.5468875495401</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1756.5468875495401</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1756.5468875495401</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>(9*((((7/7)*(8/6))-((2*5)*(4/4)))+4))</v>
-      </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1997.39889505208</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>((4/(9*((7+4)*(8+-885.652281589497))))-(4*(2+3)))</v>
-      </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>2192.1591017696101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>((1-4)-7)</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2213.1591017696101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>(0-9)</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>2271.3977910895801</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>((((1*6)+((3-5)-(4+8)))/(7-(1*(3/5))))*5)</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>2283.54589361236</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>(-885.652281589497*((((4+9)/(8/1))+4)*1))</v>
-      </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>2300.1477910895801</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>(3-8)</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2314.9191294049201</v>
-      </c>
-      <c r="C27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>((-885.652281589497-(2*((5+3)-2)))/3)</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>2349.8391006964798</v>
-      </c>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>(5-8)</v>
-      </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>2357.7990619888801</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>((2-6)--885.652281589497)</v>
-      </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>2370.0791868217998</v>
-      </c>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>(-885.652281589497-1)</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>2395.3556932711399</v>
-      </c>
-      <c r="C31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>(((6-(5-2))/(9/-885.652281589497))*(5-2))</v>
-      </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>2427.6055663809798</v>
-      </c>
-      <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>((((6/(0+6))-4)/6)/(3*5))</v>
-      </c>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>2428.1070423957399</v>
-      </c>
-      <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>((3-5)/((2/4)*(((7+4)*(3*8))-((6-6)-7))))</v>
-      </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>2428.1862224332499</v>
-      </c>
-      <c r="C34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>(((-885.652281589497/((9*1)/(3/7)))+0)/5)</v>
-      </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2428.2239669539699</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>(((((2-1)*2)+((6/7)/(6+3)))/((3-(7-3))-3))/(((-885.652281589497+2)*1)*((0-6)*((4+-885.652281589497)/(1/-885.652281589497)))))</v>
-      </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2428.49191235645</v>
-      </c>
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>(((5+((6-2)/5))/(4+-885.652281589497))/((7*((9*5)+6))*9))</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>2428.5055663809799</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>(((0-8)-0)*0)</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>2428.5055663809799</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>(-885.652281589497*(0*0))</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>2428.5055663809799</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>(0/(5-(6-(3+(2-9)))))</v>
-      </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>2428.8172546926698</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>((1/(8+3))/(7/(((4+4)/(9-6))/3)))</v>
-      </c>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>2430.13706261581</v>
-      </c>
-      <c r="C41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>((6-3)/((-885.652281589497*3)-8))</v>
-      </c>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>2442.1673508558601</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>(((5/(-885.652281589497*(6/1)))--885.652281589497)/(2-0))</v>
-      </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>2455.5055663809799</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>((0+1)+(0+(0/(6-0))))</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>2463.5491040305501</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>(9/(1+6))</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>2472.8705326019799</v>
-      </c>
-      <c r="C45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>((7/4)*((9/((5+2)*7))*((4+(7-6))/((8/2)-3))))</v>
-      </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>2484.26338974483</v>
-      </c>
-      <c r="C46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>(2+0)</v>
-      </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>2484.26338974483</v>
-      </c>
-      <c r="C47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>(8-6)</v>
-      </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>2484.26338974483</v>
-      </c>
-      <c r="C48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>(4/2)</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>2484.26338974483</v>
-      </c>
-      <c r="C49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>((1-6)+7)</v>
-      </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>2486.7409383004501</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>(3+-885.652281589497)</v>
-      </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>2489.0366808928602</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>((9-8)--885.652281589497)</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>2514.9077683733099</v>
-      </c>
-      <c r="C52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>(((1+5)+0)/2)</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>2514.9077683733099</v>
-      </c>
-      <c r="C53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>(9-6)</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>2514.9077683733099</v>
-      </c>
-      <c r="C54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>(2+1)</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>2520.07443503998</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>((5+(8-9))+((4/(5-9))*(5/6)))</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>2598.5376842760002</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>(5-(3/(1+(9*9))))</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>2616.47198866088</v>
-      </c>
-      <c r="C57" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>((3*2)+-885.652281589497)</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>2645.1840257394101</v>
-      </c>
-      <c r="C58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>((-885.652281589497--885.652281589497)+6)</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>2645.1840257394101</v>
-      </c>
-      <c r="C59" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>((0-2)+8)</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>2645.1840257394101</v>
-      </c>
-      <c r="C60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>(7-1)</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>2661.47198866088</v>
-      </c>
-      <c r="C61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>(7+-885.652281589497)</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>2673.8960628179402</v>
-      </c>
-      <c r="C62" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>((7-1)--885.652281589497)</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>2780.1840257394101</v>
-      </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>(6+3)</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>2786.6111865036301</v>
-      </c>
-      <c r="C64" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>((2-5)*((((3*-885.652281589497)-(7-8))+(9-(5-4)))-1))</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>2825.1840257394101</v>
-      </c>
-      <c r="C65" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>(2+8)</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>2886.47198866088</v>
-      </c>
-      <c r="C66" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>(3+(-885.652281589497+(((0/1)+7)+2)))</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>2888.1840257394101</v>
-      </c>
-      <c r="C67" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" si="0"/>
-        <v>(9+(4/(4-((2/6)*7))))</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>2888.2298809098302</v>
-      </c>
-      <c r="C68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" ref="D68:D92" si="1">SUBSTITUTE(C68,"x",D$2)</f>
-        <v>(9+(((5*5)-0)/((3-2)+(-885.652281589497/3))))</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>3050.1840257394101</v>
-      </c>
-      <c r="C69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>((9+9)-3)</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>3139.9405992847101</v>
-      </c>
-      <c r="C70" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>(-885.652281589497/(((5*(8+-885.652281589497))*(2+(6-7)))/(9-((9*5)-(9-6)))))</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>3365.1840257394101</v>
-      </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>(((4+5)+7)+(0+(3+3)))</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>3590.1840257394101</v>
-      </c>
-      <c r="C72" t="s">
-        <v>148</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>(9*3)</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>3981.4804750877902</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>(8*(((8/1)-2)/-885.652281589497))</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>4265.1840257394097</v>
-      </c>
-      <c r="C74" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>(((5*8)+2)-((((0*2)+0)/-885.652281589497)/3))</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>4267.1156735782797</v>
-      </c>
-      <c r="C75" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>((((1*5)+2)/2)*((((5*1)*(1+2))+((3/9)/(8*-885.652281589497)))-3))</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>4511.1682852891099</v>
-      </c>
-      <c r="C76" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>((1*(7*((6--885.652281589497)*1)))+1)</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>4580.1840257394097</v>
-      </c>
-      <c r="C77" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>((9+((9-(0*8))+(5*5)))+6)</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>4642.27079398555</v>
-      </c>
-      <c r="C78" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>(8*((8/6)/((9/(1/8))/(0-(7*4)))))</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>4713.9251831711799</v>
-      </c>
-      <c r="C79" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>(((8-((4+7)/(-885.652281589497-9)))-(-885.652281589497-9))*(((3/(0+4))+5)-(2*5)))</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>4790.7113865422798</v>
-      </c>
-      <c r="C80" t="s">
-        <v>156</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>(-885.652281589497*1)</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>4803.0111327619597</v>
-      </c>
-      <c r="C81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>(0-1)</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>4812.8293145801499</v>
-      </c>
-      <c r="C82" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>(9/((((3*0)/(3/8))-3)-8))</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>4839.0111327619697</v>
-      </c>
-      <c r="C83" t="s">
-        <v>159</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>(((((8+0)/-885.652281589497)*-885.652281589497)-9)/(9-(3+3)))</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>4848.6283541339999</v>
-      </c>
-      <c r="C84" t="s">
-        <v>160</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>((0+-885.652281589497)/8)</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>4851.6111327619701</v>
-      </c>
-      <c r="C85" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>((4/5)/(1*((0-3)-5)))</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>4857.0111327619597</v>
-      </c>
-      <c r="C86" t="s">
-        <v>162</v>
-      </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>(1-1)</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>4857.0111327619597</v>
-      </c>
-      <c r="C87" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>((0*3)*7)</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>6723.8960628179402</v>
-      </c>
-      <c r="C88" t="s">
-        <v>164</v>
-      </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
-        <v>((((2+(9-3))+8)*(8-2))--885.652281589497)</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>7039.6887813993399</v>
-      </c>
-      <c r="C89" t="s">
-        <v>165</v>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>((8*6)/(-885.652281589497+((2/(5-3))/3)))</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>11077.239175705299</v>
-      </c>
-      <c r="C90" t="s">
-        <v>166</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
-        <v>((0-4)+(9-(7-((4+4)*(6*-885.652281589497)))))</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>18687.372016775698</v>
-      </c>
-      <c r="C91" t="s">
-        <v>167</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
-        <v>(((7+3)*8)*(1*-885.652281589497))</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>22295.1840257394</v>
-      </c>
-      <c r="C92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>((5+(4+(2/9)))*(6*8))</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C94" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C100" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C101" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C102" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>181</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110">
-        <v>1735.8092925558201</v>
-      </c>
-      <c r="E110" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>183</v>
-      </c>
-      <c r="C111">
-        <v>1108.2501149878001</v>
-      </c>
-      <c r="E111" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>184</v>
-      </c>
-      <c r="C112">
-        <v>1108.1501149878</v>
-      </c>
-      <c r="E112" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="H6:H50">
-    <sortCondition ref="H6"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>